--- a/examples/21024 Monitor for MannyCopyresults.xlsx
+++ b/examples/21024 Monitor for MannyCopyresults.xlsx
@@ -3034,10 +3034,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CP6" t="inlineStr">
-        <is>
-          <t>9991.359</t>
-        </is>
+      <c r="CP6" t="n">
+        <v>9991.359</v>
       </c>
       <c r="CQ6" t="n">
         <v>0.001000000000203727</v>
@@ -3437,10 +3435,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CP7" t="inlineStr">
-        <is>
-          <t>9990.688</t>
-        </is>
+      <c r="CP7" t="n">
+        <v>9990.688</v>
       </c>
       <c r="CQ7" t="n">
         <v>0.002000000000407454</v>
@@ -3840,10 +3836,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CP8" t="inlineStr">
-        <is>
-          <t>56.776</t>
-        </is>
+      <c r="CP8" t="n">
+        <v>56.776</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0.003999999999997783</v>
@@ -4242,10 +4236,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CP9" t="inlineStr">
-        <is>
-          <t>9988.612</t>
-        </is>
+      <c r="CP9" t="n">
+        <v>9988.611999999999</v>
       </c>
       <c r="CQ9" t="n">
         <v>0.0009999999983847374</v>
@@ -4642,10 +4634,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CP10" t="inlineStr">
-        <is>
-          <t>9956.891</t>
-        </is>
+      <c r="CP10" t="n">
+        <v>9956.891</v>
       </c>
       <c r="CQ10" t="n">
         <v>0.004999999999199645</v>
@@ -5042,10 +5032,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CP11" t="inlineStr">
-        <is>
-          <t>61.232</t>
-        </is>
+      <c r="CP11" t="n">
+        <v>61.232</v>
       </c>
       <c r="CQ11" t="n">
         <v>-0.006000000000000227</v>
@@ -5453,10 +5441,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CP12" t="inlineStr">
-        <is>
-          <t>9983.5</t>
-        </is>
+      <c r="CP12" t="n">
+        <v>9983.5</v>
       </c>
       <c r="CQ12" t="n">
         <v>-0.005999999999403371</v>
@@ -5862,10 +5848,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CP13" t="inlineStr">
-        <is>
-          <t>9927.808</t>
-        </is>
+      <c r="CP13" t="n">
+        <v>9927.808000000001</v>
       </c>
       <c r="CQ13" t="n">
         <v>0.01100000000042201</v>
@@ -6271,10 +6255,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CP14" t="inlineStr">
-        <is>
-          <t>60.097</t>
-        </is>
+      <c r="CP14" t="n">
+        <v>60.097</v>
       </c>
       <c r="CQ14" t="n">
         <v>-0.006000000000000227</v>
@@ -6673,10 +6655,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CP15" t="inlineStr">
-        <is>
-          <t>10077.114</t>
-        </is>
+      <c r="CP15" t="n">
+        <v>10077.114</v>
       </c>
       <c r="CQ15" t="n">
         <v>-0.004000000000814907</v>
@@ -7073,10 +7053,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CP16" t="inlineStr">
-        <is>
-          <t>9993.547</t>
-        </is>
+      <c r="CP16" t="n">
+        <v>9993.547</v>
       </c>
       <c r="CQ16" t="n">
         <v>-0.002999999998792191</v>
@@ -7473,10 +7451,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CP17" t="inlineStr">
-        <is>
-          <t>57.091</t>
-        </is>
+      <c r="CP17" t="n">
+        <v>57.091</v>
       </c>
       <c r="CQ17" t="n">
         <v>-0.003999999999997783</v>
@@ -10370,10 +10346,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CP24" t="inlineStr">
-        <is>
-          <t>10083.841</t>
-        </is>
+      <c r="CP24" t="n">
+        <v>10083.841</v>
       </c>
       <c r="CQ24" t="n">
         <v>-0.007999999999810825</v>
@@ -10669,10 +10643,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CP25" t="inlineStr">
-        <is>
-          <t>9905.954</t>
-        </is>
+      <c r="CP25" t="n">
+        <v>9905.954</v>
       </c>
       <c r="CQ25" t="n">
         <v>0.009000000000014552</v>
@@ -10968,10 +10940,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CP26" t="inlineStr">
-        <is>
-          <t>56.939</t>
-        </is>
+      <c r="CP26" t="n">
+        <v>56.939</v>
       </c>
       <c r="CQ26" t="n">
         <v>-0.009000000000000341</v>

--- a/examples/21024 Monitor for MannyCopyresults.xlsx
+++ b/examples/21024 Monitor for MannyCopyresults.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'MONCTRL'!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MONCTRL'!$A$1:$CT$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MONCTRL'!$A$1:$CW$57</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -53,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -254,11 +254,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border/>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -437,7 +520,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,13 +1074,15 @@
     <col width="3.140625" customWidth="1" style="5" min="90" max="90"/>
     <col width="9.7109375" customWidth="1" style="5" min="91" max="91"/>
     <col width="6.42578125" customWidth="1" style="5" min="92" max="92"/>
-    <col width="2.5703125" customWidth="1" style="5" min="93" max="93"/>
-    <col width="3.28515625" customWidth="1" style="5" min="94" max="94"/>
-    <col width="10" customWidth="1" style="5" min="95" max="95"/>
-    <col width="2.5703125" customWidth="1" style="5" min="96" max="96"/>
-    <col width="3.28515625" customWidth="1" style="5" min="97" max="97"/>
-    <col width="10" customWidth="1" style="5" min="98" max="98"/>
-    <col width="9.140625" customWidth="1" style="5" min="99" max="16384"/>
+    <col width="2.43" customWidth="1" style="5" min="93" max="93"/>
+    <col width="11" customWidth="1" style="5" min="94" max="94"/>
+    <col width="6" customWidth="1" style="5" min="95" max="95"/>
+    <col width="1.86" customWidth="1" style="5" min="96" max="96"/>
+    <col width="2.57" customWidth="1" style="5" min="97" max="97"/>
+    <col width="9.289999999999999" customWidth="1" style="5" min="98" max="98"/>
+    <col width="1.86" customWidth="1" style="5" min="99" max="16384"/>
+    <col width="2.57" customWidth="1" min="100" max="100"/>
+    <col width="9.289999999999999" customWidth="1" min="101" max="101"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1103,6 +1240,13 @@
         <v>44774</v>
       </c>
       <c r="CN1" s="63" t="n"/>
+      <c r="CO1" s="64" t="n"/>
+      <c r="CP1" s="65" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="CQ1" s="66" t="n"/>
       <c r="CR1" s="15" t="n"/>
       <c r="CS1" s="62" t="inlineStr">
         <is>
@@ -1128,13 +1272,13 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="C2" s="64" t="n"/>
+      <c r="C2" s="67" t="n"/>
       <c r="D2" s="8" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="E2" s="64" t="n"/>
+      <c r="E2" s="67" t="n"/>
       <c r="F2" s="12" t="n"/>
       <c r="G2" s="25" t="inlineStr">
         <is>
@@ -1454,19 +1598,30 @@
           <t>Delta</t>
         </is>
       </c>
+      <c r="CO2" s="68" t="n"/>
+      <c r="CP2" s="69" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="CQ2" s="70" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
       <c r="CR2" s="6" t="n"/>
       <c r="CS2" s="8" t="inlineStr">
         <is>
           <t>Delta (feet)</t>
         </is>
       </c>
-      <c r="CT2" s="64" t="n"/>
+      <c r="CT2" s="67" t="n"/>
       <c r="CV2" s="8" t="inlineStr">
         <is>
           <t>Delta (inches)</t>
         </is>
       </c>
-      <c r="CW2" s="64" t="n"/>
+      <c r="CW2" s="67" t="n"/>
     </row>
     <row r="3" hidden="1" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="n">
@@ -1496,9 +1651,8 @@
       <c r="G3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="H3" s="17">
-        <f>G3-C3</f>
-        <v/>
+      <c r="H3" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="inlineStr">
         <is>
@@ -1508,9 +1662,8 @@
       <c r="J3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="K3" s="17">
-        <f>J3-F3</f>
-        <v/>
+      <c r="K3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="L3" s="10" t="inlineStr">
         <is>
@@ -1520,9 +1673,8 @@
       <c r="M3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="N3" s="17">
-        <f>M3-I3</f>
-        <v/>
+      <c r="N3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="O3" s="10" t="inlineStr">
         <is>
@@ -1532,9 +1684,8 @@
       <c r="P3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="Q3" s="17">
-        <f>P3-L3</f>
-        <v/>
+      <c r="Q3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="R3" s="10" t="inlineStr">
         <is>
@@ -1544,9 +1695,8 @@
       <c r="S3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="T3" s="17">
-        <f>S3-O3</f>
-        <v/>
+      <c r="T3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="U3" s="10" t="inlineStr">
         <is>
@@ -1556,9 +1706,8 @@
       <c r="V3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="W3" s="17">
-        <f>V3-R3</f>
-        <v/>
+      <c r="W3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="X3" s="10" t="inlineStr">
         <is>
@@ -1568,9 +1717,8 @@
       <c r="Y3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="Z3" s="17">
-        <f>Y3-U3</f>
-        <v/>
+      <c r="Z3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AA3" s="10" t="inlineStr">
         <is>
@@ -1580,9 +1728,8 @@
       <c r="AB3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AC3" s="17">
-        <f>AB3-X3</f>
-        <v/>
+      <c r="AC3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD3" s="10" t="inlineStr">
         <is>
@@ -1592,9 +1739,8 @@
       <c r="AE3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AF3" s="17">
-        <f>AE3-AA3</f>
-        <v/>
+      <c r="AF3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AG3" s="10" t="inlineStr">
         <is>
@@ -1604,9 +1750,8 @@
       <c r="AH3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AI3" s="17">
-        <f>AH3-AD3</f>
-        <v/>
+      <c r="AI3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AJ3" s="10" t="inlineStr">
         <is>
@@ -1616,9 +1761,8 @@
       <c r="AK3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AL3" s="17">
-        <f>AK3-AG3</f>
-        <v/>
+      <c r="AL3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AM3" s="10" t="inlineStr">
         <is>
@@ -1628,9 +1772,8 @@
       <c r="AN3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AO3" s="17">
-        <f>AN3-AJ3</f>
-        <v/>
+      <c r="AO3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AP3" s="10" t="inlineStr">
         <is>
@@ -1640,9 +1783,8 @@
       <c r="AQ3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AR3" s="17">
-        <f>AQ3-AM3</f>
-        <v/>
+      <c r="AR3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AS3" s="10" t="inlineStr">
         <is>
@@ -1652,9 +1794,8 @@
       <c r="AT3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AU3" s="17">
-        <f>AT3-AP3</f>
-        <v/>
+      <c r="AU3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AV3" s="10" t="inlineStr">
         <is>
@@ -1664,9 +1805,8 @@
       <c r="AW3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="AX3" s="17">
-        <f>AW3-AS3</f>
-        <v/>
+      <c r="AX3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AY3" s="10" t="inlineStr">
         <is>
@@ -1676,9 +1816,8 @@
       <c r="AZ3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BA3" s="17">
-        <f>AZ3-AV3</f>
-        <v/>
+      <c r="BA3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BB3" s="10" t="inlineStr">
         <is>
@@ -1688,9 +1827,8 @@
       <c r="BC3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BD3" s="17">
-        <f>BC3-AY3</f>
-        <v/>
+      <c r="BD3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BE3" s="10" t="inlineStr">
         <is>
@@ -1700,9 +1838,8 @@
       <c r="BF3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BG3" s="17">
-        <f>BF3-BB3</f>
-        <v/>
+      <c r="BG3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BH3" s="10" t="inlineStr">
         <is>
@@ -1712,9 +1849,8 @@
       <c r="BI3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BJ3" s="17">
-        <f>BI3-BE3</f>
-        <v/>
+      <c r="BJ3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BK3" s="10" t="inlineStr">
         <is>
@@ -1724,9 +1860,8 @@
       <c r="BL3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BM3" s="17">
-        <f>BL3-BH3</f>
-        <v/>
+      <c r="BM3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BN3" s="10" t="inlineStr">
         <is>
@@ -1736,9 +1871,8 @@
       <c r="BO3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BP3" s="17">
-        <f>BO3-BK3</f>
-        <v/>
+      <c r="BP3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BQ3" s="10" t="inlineStr">
         <is>
@@ -1748,9 +1882,8 @@
       <c r="BR3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BS3" s="17">
-        <f>BR3-BN3</f>
-        <v/>
+      <c r="BS3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BT3" s="10" t="inlineStr">
         <is>
@@ -1760,9 +1893,8 @@
       <c r="BU3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BV3" s="17">
-        <f>BU3-BQ3</f>
-        <v/>
+      <c r="BV3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BW3" s="10" t="inlineStr">
         <is>
@@ -1772,9 +1904,8 @@
       <c r="BX3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="BY3" s="17">
-        <f>BX3-BT3</f>
-        <v/>
+      <c r="BY3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BZ3" s="10" t="inlineStr">
         <is>
@@ -1784,9 +1915,8 @@
       <c r="CA3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="CB3" s="17">
-        <f>CA3-BW3</f>
-        <v/>
+      <c r="CB3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CC3" s="10" t="inlineStr">
         <is>
@@ -1796,9 +1926,8 @@
       <c r="CD3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="CE3" s="17">
-        <f>CD3-BZ3</f>
-        <v/>
+      <c r="CE3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CF3" s="10" t="inlineStr">
         <is>
@@ -1808,9 +1937,8 @@
       <c r="CG3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="CH3" s="17">
-        <f>CG3-CC3</f>
-        <v/>
+      <c r="CH3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CI3" s="10" t="inlineStr">
         <is>
@@ -1820,9 +1948,8 @@
       <c r="CJ3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="CK3" s="17">
-        <f>CJ3-CF3</f>
-        <v/>
+      <c r="CK3" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CL3" s="10" t="inlineStr">
         <is>
@@ -1832,39 +1959,42 @@
       <c r="CM3" s="17" t="n">
         <v>9889.978999999999</v>
       </c>
-      <c r="CN3" s="17">
-        <f>CM3-CI3</f>
-        <v/>
-      </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP3" t="inlineStr">
+      <c r="CN3" s="17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CO3" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP3" s="72" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ3" t="inlineStr">
+      <c r="CQ3" s="73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR3" s="14" t="n"/>
-      <c r="CS3" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT3" s="17" t="n"/>
+      <c r="CR3" s="20" t="n"/>
+      <c r="CS3" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT3" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="CU3" s="14" t="n"/>
       <c r="CV3" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CW3" s="17" t="n"/>
+      <c r="CW3" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" hidden="1" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="n"/>
@@ -1892,9 +2022,8 @@
       <c r="G4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="H4" s="17">
-        <f>G4-C4</f>
-        <v/>
+      <c r="H4" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="inlineStr">
         <is>
@@ -1904,9 +2033,8 @@
       <c r="J4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="K4" s="17">
-        <f>J4-F4</f>
-        <v/>
+      <c r="K4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="L4" s="10" t="inlineStr">
         <is>
@@ -1916,9 +2044,8 @@
       <c r="M4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="N4" s="17">
-        <f>M4-I4</f>
-        <v/>
+      <c r="N4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="O4" s="10" t="inlineStr">
         <is>
@@ -1928,9 +2055,8 @@
       <c r="P4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="Q4" s="17">
-        <f>P4-L4</f>
-        <v/>
+      <c r="Q4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="R4" s="10" t="inlineStr">
         <is>
@@ -1940,9 +2066,8 @@
       <c r="S4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="T4" s="17">
-        <f>S4-O4</f>
-        <v/>
+      <c r="T4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="U4" s="10" t="inlineStr">
         <is>
@@ -1952,9 +2077,8 @@
       <c r="V4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="W4" s="17">
-        <f>V4-R4</f>
-        <v/>
+      <c r="W4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="X4" s="10" t="inlineStr">
         <is>
@@ -1964,9 +2088,8 @@
       <c r="Y4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="Z4" s="17">
-        <f>Y4-U4</f>
-        <v/>
+      <c r="Z4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AA4" s="10" t="inlineStr">
         <is>
@@ -1976,9 +2099,8 @@
       <c r="AB4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AC4" s="17">
-        <f>AB4-X4</f>
-        <v/>
+      <c r="AC4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD4" s="10" t="inlineStr">
         <is>
@@ -1988,9 +2110,8 @@
       <c r="AE4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AF4" s="17">
-        <f>AE4-AA4</f>
-        <v/>
+      <c r="AF4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AG4" s="10" t="inlineStr">
         <is>
@@ -2000,9 +2121,8 @@
       <c r="AH4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AI4" s="17">
-        <f>AH4-AD4</f>
-        <v/>
+      <c r="AI4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AJ4" s="10" t="inlineStr">
         <is>
@@ -2012,9 +2132,8 @@
       <c r="AK4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AL4" s="17">
-        <f>AK4-AG4</f>
-        <v/>
+      <c r="AL4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AM4" s="10" t="inlineStr">
         <is>
@@ -2024,9 +2143,8 @@
       <c r="AN4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AO4" s="17">
-        <f>AN4-AJ4</f>
-        <v/>
+      <c r="AO4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AP4" s="10" t="inlineStr">
         <is>
@@ -2036,9 +2154,8 @@
       <c r="AQ4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AR4" s="17">
-        <f>AQ4-AM4</f>
-        <v/>
+      <c r="AR4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AS4" s="10" t="inlineStr">
         <is>
@@ -2048,9 +2165,8 @@
       <c r="AT4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AU4" s="17">
-        <f>AT4-AP4</f>
-        <v/>
+      <c r="AU4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AV4" s="10" t="inlineStr">
         <is>
@@ -2060,9 +2176,8 @@
       <c r="AW4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="AX4" s="17">
-        <f>AW4-AS4</f>
-        <v/>
+      <c r="AX4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AY4" s="10" t="inlineStr">
         <is>
@@ -2072,9 +2187,8 @@
       <c r="AZ4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BA4" s="17">
-        <f>AZ4-AV4</f>
-        <v/>
+      <c r="BA4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BB4" s="10" t="inlineStr">
         <is>
@@ -2084,9 +2198,8 @@
       <c r="BC4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BD4" s="17">
-        <f>BC4-AY4</f>
-        <v/>
+      <c r="BD4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BE4" s="10" t="inlineStr">
         <is>
@@ -2096,9 +2209,8 @@
       <c r="BF4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BG4" s="17">
-        <f>BF4-BB4</f>
-        <v/>
+      <c r="BG4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BH4" s="10" t="inlineStr">
         <is>
@@ -2108,9 +2220,8 @@
       <c r="BI4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BJ4" s="17">
-        <f>BI4-BE4</f>
-        <v/>
+      <c r="BJ4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BK4" s="10" t="inlineStr">
         <is>
@@ -2120,9 +2231,8 @@
       <c r="BL4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BM4" s="17">
-        <f>BL4-BH4</f>
-        <v/>
+      <c r="BM4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BN4" s="10" t="inlineStr">
         <is>
@@ -2132,9 +2242,8 @@
       <c r="BO4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BP4" s="17">
-        <f>BO4-BK4</f>
-        <v/>
+      <c r="BP4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BQ4" s="10" t="inlineStr">
         <is>
@@ -2144,9 +2253,8 @@
       <c r="BR4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BS4" s="17">
-        <f>BR4-BN4</f>
-        <v/>
+      <c r="BS4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BT4" s="10" t="inlineStr">
         <is>
@@ -2156,9 +2264,8 @@
       <c r="BU4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BV4" s="17">
-        <f>BU4-BQ4</f>
-        <v/>
+      <c r="BV4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BW4" s="10" t="inlineStr">
         <is>
@@ -2168,9 +2275,8 @@
       <c r="BX4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="BY4" s="17">
-        <f>BX4-BT4</f>
-        <v/>
+      <c r="BY4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BZ4" s="10" t="inlineStr">
         <is>
@@ -2180,9 +2286,8 @@
       <c r="CA4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="CB4" s="17">
-        <f>CA4-BW4</f>
-        <v/>
+      <c r="CB4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CC4" s="10" t="inlineStr">
         <is>
@@ -2192,9 +2297,8 @@
       <c r="CD4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="CE4" s="17">
-        <f>CD4-BZ4</f>
-        <v/>
+      <c r="CE4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CF4" s="10" t="inlineStr">
         <is>
@@ -2204,9 +2308,8 @@
       <c r="CG4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="CH4" s="17">
-        <f>CG4-CC4</f>
-        <v/>
+      <c r="CH4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CI4" s="10" t="inlineStr">
         <is>
@@ -2216,9 +2319,8 @@
       <c r="CJ4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="CK4" s="17">
-        <f>CJ4-CF4</f>
-        <v/>
+      <c r="CK4" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CL4" s="10" t="inlineStr">
         <is>
@@ -2228,39 +2330,42 @@
       <c r="CM4" s="18" t="n">
         <v>9977.973</v>
       </c>
-      <c r="CN4" s="17">
-        <f>CM4-CI4</f>
-        <v/>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP4" t="inlineStr">
+      <c r="CN4" s="17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CO4" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP4" s="76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="CQ4" s="77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR4" s="14" t="n"/>
-      <c r="CS4" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT4" s="17" t="n"/>
+      <c r="CR4" s="20" t="n"/>
+      <c r="CS4" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="CU4" s="14" t="n"/>
       <c r="CV4" s="10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="CW4" s="17" t="n"/>
+      <c r="CW4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" hidden="1" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="n"/>
@@ -2288,9 +2393,8 @@
       <c r="G5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="H5" s="17">
-        <f>G5-C5</f>
-        <v/>
+      <c r="H5" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
@@ -2300,9 +2404,8 @@
       <c r="J5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="K5" s="17">
-        <f>J5-F5</f>
-        <v/>
+      <c r="K5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="L5" s="11" t="inlineStr">
         <is>
@@ -2312,9 +2415,8 @@
       <c r="M5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="N5" s="17">
-        <f>M5-I5</f>
-        <v/>
+      <c r="N5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="O5" s="11" t="inlineStr">
         <is>
@@ -2324,9 +2426,8 @@
       <c r="P5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="Q5" s="17">
-        <f>P5-L5</f>
-        <v/>
+      <c r="Q5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="R5" s="11" t="inlineStr">
         <is>
@@ -2336,9 +2437,8 @@
       <c r="S5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="T5" s="17">
-        <f>S5-O5</f>
-        <v/>
+      <c r="T5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="U5" s="11" t="inlineStr">
         <is>
@@ -2348,9 +2448,8 @@
       <c r="V5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="W5" s="17">
-        <f>V5-R5</f>
-        <v/>
+      <c r="W5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="X5" s="11" t="inlineStr">
         <is>
@@ -2360,9 +2459,8 @@
       <c r="Y5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="Z5" s="17">
-        <f>Y5-U5</f>
-        <v/>
+      <c r="Z5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AA5" s="11" t="inlineStr">
         <is>
@@ -2372,9 +2470,8 @@
       <c r="AB5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AC5" s="17">
-        <f>AB5-X5</f>
-        <v/>
+      <c r="AC5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AD5" s="11" t="inlineStr">
         <is>
@@ -2384,9 +2481,8 @@
       <c r="AE5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AF5" s="17">
-        <f>AE5-AA5</f>
-        <v/>
+      <c r="AF5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AG5" s="11" t="inlineStr">
         <is>
@@ -2396,9 +2492,8 @@
       <c r="AH5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AI5" s="17">
-        <f>AH5-AD5</f>
-        <v/>
+      <c r="AI5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AJ5" s="11" t="inlineStr">
         <is>
@@ -2408,9 +2503,8 @@
       <c r="AK5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AL5" s="17">
-        <f>AK5-AG5</f>
-        <v/>
+      <c r="AL5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AM5" s="11" t="inlineStr">
         <is>
@@ -2420,9 +2514,8 @@
       <c r="AN5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AO5" s="17">
-        <f>AN5-AJ5</f>
-        <v/>
+      <c r="AO5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AP5" s="11" t="inlineStr">
         <is>
@@ -2432,9 +2525,8 @@
       <c r="AQ5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AR5" s="17">
-        <f>AQ5-AM5</f>
-        <v/>
+      <c r="AR5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AS5" s="11" t="inlineStr">
         <is>
@@ -2444,9 +2536,8 @@
       <c r="AT5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AU5" s="17">
-        <f>AT5-AP5</f>
-        <v/>
+      <c r="AU5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AV5" s="11" t="inlineStr">
         <is>
@@ -2456,9 +2547,8 @@
       <c r="AW5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="AX5" s="17">
-        <f>AW5-AS5</f>
-        <v/>
+      <c r="AX5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AY5" s="11" t="inlineStr">
         <is>
@@ -2468,9 +2558,8 @@
       <c r="AZ5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BA5" s="17">
-        <f>AZ5-AV5</f>
-        <v/>
+      <c r="BA5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BB5" s="11" t="inlineStr">
         <is>
@@ -2480,9 +2569,8 @@
       <c r="BC5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BD5" s="17">
-        <f>BC5-AY5</f>
-        <v/>
+      <c r="BD5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BE5" s="11" t="inlineStr">
         <is>
@@ -2492,9 +2580,8 @@
       <c r="BF5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BG5" s="17">
-        <f>BF5-BB5</f>
-        <v/>
+      <c r="BG5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BH5" s="11" t="inlineStr">
         <is>
@@ -2504,9 +2591,8 @@
       <c r="BI5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BJ5" s="17">
-        <f>BI5-BE5</f>
-        <v/>
+      <c r="BJ5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BK5" s="11" t="inlineStr">
         <is>
@@ -2516,9 +2602,8 @@
       <c r="BL5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BM5" s="17">
-        <f>BL5-BH5</f>
-        <v/>
+      <c r="BM5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BN5" s="11" t="inlineStr">
         <is>
@@ -2528,9 +2613,8 @@
       <c r="BO5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BP5" s="17">
-        <f>BO5-BK5</f>
-        <v/>
+      <c r="BP5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BQ5" s="11" t="inlineStr">
         <is>
@@ -2540,9 +2624,8 @@
       <c r="BR5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BS5" s="17">
-        <f>BR5-BN5</f>
-        <v/>
+      <c r="BS5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BT5" s="11" t="inlineStr">
         <is>
@@ -2552,9 +2635,8 @@
       <c r="BU5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BV5" s="17">
-        <f>BU5-BQ5</f>
-        <v/>
+      <c r="BV5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BW5" s="11" t="inlineStr">
         <is>
@@ -2564,9 +2646,8 @@
       <c r="BX5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="BY5" s="17">
-        <f>BX5-BT5</f>
-        <v/>
+      <c r="BY5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="BZ5" s="11" t="inlineStr">
         <is>
@@ -2576,9 +2657,8 @@
       <c r="CA5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="CB5" s="17">
-        <f>CA5-BW5</f>
-        <v/>
+      <c r="CB5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CC5" s="11" t="inlineStr">
         <is>
@@ -2588,9 +2668,8 @@
       <c r="CD5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="CE5" s="17">
-        <f>CD5-BZ5</f>
-        <v/>
+      <c r="CE5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CF5" s="11" t="inlineStr">
         <is>
@@ -2600,9 +2679,8 @@
       <c r="CG5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="CH5" s="17">
-        <f>CG5-CC5</f>
-        <v/>
+      <c r="CH5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CI5" s="11" t="inlineStr">
         <is>
@@ -2612,9 +2690,8 @@
       <c r="CJ5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="CK5" s="17">
-        <f>CJ5-CF5</f>
-        <v/>
+      <c r="CK5" s="17" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="CL5" s="11" t="inlineStr">
         <is>
@@ -2624,39 +2701,42 @@
       <c r="CM5" s="21" t="n">
         <v>17.405</v>
       </c>
-      <c r="CN5" s="17">
-        <f>CM5-CI5</f>
-        <v/>
-      </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP5" t="inlineStr">
+      <c r="CN5" s="17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CO5" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP5" s="79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ5" t="inlineStr">
+      <c r="CQ5" s="80" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR5" s="14" t="n"/>
-      <c r="CS5" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT5" s="24" t="n"/>
+      <c r="CR5" s="20" t="n"/>
+      <c r="CS5" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT5" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="CU5" s="14" t="n"/>
       <c r="CV5" s="11" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="CW5" s="24" t="n"/>
+      <c r="CW5" s="24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
@@ -2686,9 +2766,8 @@
       <c r="G6" s="17" t="n">
         <v>9991.362999999999</v>
       </c>
-      <c r="H6" s="17">
-        <f>G6-E6</f>
-        <v/>
+      <c r="H6" s="17" t="n">
+        <v>0.01199999999880674</v>
       </c>
       <c r="I6" s="10" t="inlineStr">
         <is>
@@ -2698,9 +2777,8 @@
       <c r="J6" s="17" t="n">
         <v>9991.359</v>
       </c>
-      <c r="K6" s="17">
-        <f>J6-G6</f>
-        <v/>
+      <c r="K6" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="L6" s="10" t="inlineStr">
         <is>
@@ -2710,9 +2788,8 @@
       <c r="M6" s="17" t="n">
         <v>9991.356</v>
       </c>
-      <c r="N6" s="17">
-        <f>M6-J6</f>
-        <v/>
+      <c r="N6" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="O6" s="10" t="inlineStr">
         <is>
@@ -2722,9 +2799,8 @@
       <c r="P6" s="17" t="n">
         <v>9991.361000000001</v>
       </c>
-      <c r="Q6" s="17">
-        <f>P6-M6</f>
-        <v/>
+      <c r="Q6" s="17" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="R6" s="10" t="inlineStr">
         <is>
@@ -2734,9 +2810,8 @@
       <c r="S6" s="17" t="n">
         <v>9991.357</v>
       </c>
-      <c r="T6" s="17">
-        <f>S6-P6</f>
-        <v/>
+      <c r="T6" s="17" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="U6" s="10" t="inlineStr">
         <is>
@@ -2746,9 +2821,8 @@
       <c r="V6" s="17" t="n">
         <v>9991.359</v>
       </c>
-      <c r="W6" s="17">
-        <f>V6-S6</f>
-        <v/>
+      <c r="W6" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="X6" s="10" t="inlineStr">
         <is>
@@ -2758,9 +2832,8 @@
       <c r="Y6" s="17" t="n">
         <v>9991.357</v>
       </c>
-      <c r="Z6" s="17">
-        <f>Y6-V6</f>
-        <v/>
+      <c r="Z6" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AA6" s="10" t="inlineStr">
         <is>
@@ -2770,9 +2843,8 @@
       <c r="AB6" s="17" t="n">
         <v>9991.355</v>
       </c>
-      <c r="AC6" s="17">
-        <f>AB6-Y6</f>
-        <v/>
+      <c r="AC6" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AD6" s="10" t="inlineStr">
         <is>
@@ -2782,9 +2854,8 @@
       <c r="AE6" s="17" t="n">
         <v>9991.356</v>
       </c>
-      <c r="AF6" s="17">
-        <f>AE6-AB6</f>
-        <v/>
+      <c r="AF6" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="AG6" s="10" t="inlineStr">
         <is>
@@ -2794,9 +2865,8 @@
       <c r="AH6" s="17" t="n">
         <v>9991.361000000001</v>
       </c>
-      <c r="AI6" s="17">
-        <f>AH6-AE6</f>
-        <v/>
+      <c r="AI6" s="17" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="AJ6" s="10" t="inlineStr">
         <is>
@@ -2806,9 +2876,8 @@
       <c r="AK6" s="17" t="n">
         <v>9991.359</v>
       </c>
-      <c r="AL6" s="17">
-        <f>AK6-AH6</f>
-        <v/>
+      <c r="AL6" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AM6" s="10" t="inlineStr">
         <is>
@@ -2818,9 +2887,8 @@
       <c r="AN6" s="17" t="n">
         <v>9991.360000000001</v>
       </c>
-      <c r="AO6" s="17">
-        <f>AN6-AK6</f>
-        <v/>
+      <c r="AO6" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="AP6" s="10" t="inlineStr">
         <is>
@@ -2845,9 +2913,8 @@
       <c r="AT6" s="17" t="n">
         <v>9991.361999999999</v>
       </c>
-      <c r="AU6" s="17">
-        <f>AT6-AN6</f>
-        <v/>
+      <c r="AU6" s="17" t="n">
+        <v>0.001999999998588464</v>
       </c>
       <c r="AV6" s="10" t="inlineStr">
         <is>
@@ -2857,9 +2924,8 @@
       <c r="AW6" s="17" t="n">
         <v>9991.358</v>
       </c>
-      <c r="AX6" s="17">
-        <f>AW6-AT6</f>
-        <v/>
+      <c r="AX6" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="AY6" s="10" t="inlineStr">
         <is>
@@ -2869,9 +2935,8 @@
       <c r="AZ6" s="17" t="n">
         <v>9991.358</v>
       </c>
-      <c r="BA6" s="17">
-        <f>AZ6-AW6</f>
-        <v/>
+      <c r="BA6" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BB6" s="10" t="inlineStr">
         <is>
@@ -2881,9 +2946,8 @@
       <c r="BC6" s="17" t="n">
         <v>9991.355</v>
       </c>
-      <c r="BD6" s="17">
-        <f>BC6-AZ6</f>
-        <v/>
+      <c r="BD6" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="BE6" s="10" t="inlineStr">
         <is>
@@ -2893,9 +2957,8 @@
       <c r="BF6" s="17" t="n">
         <v>9991.360000000001</v>
       </c>
-      <c r="BG6" s="17">
-        <f>BF6-BC6</f>
-        <v/>
+      <c r="BG6" s="17" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="BH6" s="10" t="inlineStr">
         <is>
@@ -2905,9 +2968,8 @@
       <c r="BI6" s="17" t="n">
         <v>9991.366</v>
       </c>
-      <c r="BJ6" s="17">
-        <f>BI6-BF6</f>
-        <v/>
+      <c r="BJ6" s="17" t="n">
+        <v>0.005999999999403371</v>
       </c>
       <c r="BK6" s="10" t="inlineStr">
         <is>
@@ -2917,9 +2979,8 @@
       <c r="BL6" s="17" t="n">
         <v>9991.366</v>
       </c>
-      <c r="BM6" s="17">
-        <f>BL6-BI6</f>
-        <v/>
+      <c r="BM6" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BN6" s="10" t="inlineStr">
         <is>
@@ -2929,9 +2990,8 @@
       <c r="BO6" s="17" t="n">
         <v>9991.362999999999</v>
       </c>
-      <c r="BP6" s="17">
-        <f>BO6-BL6</f>
-        <v/>
+      <c r="BP6" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="BQ6" s="10" t="inlineStr">
         <is>
@@ -2941,9 +3001,8 @@
       <c r="BR6" s="17" t="n">
         <v>9991.361000000001</v>
       </c>
-      <c r="BS6" s="17">
-        <f>BR6-BO6</f>
-        <v/>
+      <c r="BS6" s="17" t="n">
+        <v>-0.001999999998588464</v>
       </c>
       <c r="BT6" s="10" t="inlineStr">
         <is>
@@ -2953,9 +3012,8 @@
       <c r="BU6" s="17" t="n">
         <v>9991.364</v>
       </c>
-      <c r="BV6" s="17">
-        <f>BU6-BR6</f>
-        <v/>
+      <c r="BV6" s="17" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="BW6" s="10" t="inlineStr">
         <is>
@@ -2965,9 +3023,8 @@
       <c r="BX6" s="17" t="n">
         <v>9991.361000000001</v>
       </c>
-      <c r="BY6" s="17">
-        <f>BX6-BU6</f>
-        <v/>
+      <c r="BY6" s="17" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="BZ6" s="10" t="inlineStr">
         <is>
@@ -2977,9 +3034,8 @@
       <c r="CA6" s="17" t="n">
         <v>9991.360000000001</v>
       </c>
-      <c r="CB6" s="17">
-        <f>CA6-BX6</f>
-        <v/>
+      <c r="CB6" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="CC6" s="10" t="inlineStr">
         <is>
@@ -2989,9 +3045,8 @@
       <c r="CD6" s="17" t="n">
         <v>9991.355</v>
       </c>
-      <c r="CE6" s="17">
-        <f>CD6-CA6</f>
-        <v/>
+      <c r="CE6" s="17" t="n">
+        <v>-0.005000000001018634</v>
       </c>
       <c r="CF6" s="10" t="inlineStr">
         <is>
@@ -3001,9 +3056,8 @@
       <c r="CG6" s="17" t="n">
         <v>9991.355</v>
       </c>
-      <c r="CH6" s="17">
-        <f>CG6-CD6</f>
-        <v/>
+      <c r="CH6" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CI6" s="10" t="inlineStr">
         <is>
@@ -3013,9 +3067,8 @@
       <c r="CJ6" s="17" t="n">
         <v>9991.361000000001</v>
       </c>
-      <c r="CK6" s="17">
-        <f>CJ6-CG6</f>
-        <v/>
+      <c r="CK6" s="17" t="n">
+        <v>0.006000000001222361</v>
       </c>
       <c r="CL6" s="10" t="inlineStr">
         <is>
@@ -3025,30 +3078,28 @@
       <c r="CM6" s="17" t="n">
         <v>9991.358</v>
       </c>
-      <c r="CN6" s="17">
-        <f>CM6-CJ6</f>
-        <v/>
-      </c>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP6" t="n">
+      <c r="CN6" s="17" t="n">
+        <v>-0.00300000000061118</v>
+      </c>
+      <c r="CO6" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP6" s="72" t="n">
         <v>9991.359</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6" s="73" t="n">
         <v>0.001000000000203727</v>
       </c>
-      <c r="CR6" s="14" t="n"/>
-      <c r="CS6" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT6" s="17">
-        <f>CJ6-E6</f>
-        <v/>
+      <c r="CR6" s="20" t="n"/>
+      <c r="CS6" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT6" s="17" t="n">
+        <v>0.007</v>
       </c>
       <c r="CU6" s="14" t="n"/>
       <c r="CV6" s="10" t="inlineStr">
@@ -3056,9 +3107,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW6" s="13">
-        <f>CQ6*12</f>
-        <v/>
+      <c r="CW6" s="13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -3087,9 +3137,8 @@
       <c r="G7" s="18" t="n">
         <v>9990.683000000001</v>
       </c>
-      <c r="H7" s="17">
-        <f>G7-E7</f>
-        <v/>
+      <c r="H7" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
@@ -3099,9 +3148,8 @@
       <c r="J7" s="18" t="n">
         <v>9990.684999999999</v>
       </c>
-      <c r="K7" s="17">
-        <f>J7-G7</f>
-        <v/>
+      <c r="K7" s="17" t="n">
+        <v>0.001999999998588464</v>
       </c>
       <c r="L7" s="10" t="inlineStr">
         <is>
@@ -3111,9 +3159,8 @@
       <c r="M7" s="18" t="n">
         <v>9990.68</v>
       </c>
-      <c r="N7" s="17">
-        <f>M7-J7</f>
-        <v/>
+      <c r="N7" s="17" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="O7" s="10" t="inlineStr">
         <is>
@@ -3123,9 +3170,8 @@
       <c r="P7" s="18" t="n">
         <v>9990.683999999999</v>
       </c>
-      <c r="Q7" s="17">
-        <f>P7-M7</f>
-        <v/>
+      <c r="Q7" s="17" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="R7" s="10" t="inlineStr">
         <is>
@@ -3135,9 +3181,8 @@
       <c r="S7" s="18" t="n">
         <v>9990.683000000001</v>
       </c>
-      <c r="T7" s="17">
-        <f>S7-P7</f>
-        <v/>
+      <c r="T7" s="17" t="n">
+        <v>-0.0009999999983847374</v>
       </c>
       <c r="U7" s="10" t="inlineStr">
         <is>
@@ -3147,9 +3192,8 @@
       <c r="V7" s="18" t="n">
         <v>9990.683000000001</v>
       </c>
-      <c r="W7" s="17">
-        <f>V7-S7</f>
-        <v/>
+      <c r="W7" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="X7" s="10" t="inlineStr">
         <is>
@@ -3159,9 +3203,8 @@
       <c r="Y7" s="18" t="n">
         <v>9990.683999999999</v>
       </c>
-      <c r="Z7" s="17">
-        <f>Y7-V7</f>
-        <v/>
+      <c r="Z7" s="17" t="n">
+        <v>0.0009999999983847374</v>
       </c>
       <c r="AA7" s="10" t="inlineStr">
         <is>
@@ -3171,9 +3214,8 @@
       <c r="AB7" s="18" t="n">
         <v>9990.683999999999</v>
       </c>
-      <c r="AC7" s="17">
-        <f>AB7-Y7</f>
-        <v/>
+      <c r="AC7" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AD7" s="10" t="inlineStr">
         <is>
@@ -3183,9 +3225,8 @@
       <c r="AE7" s="18" t="n">
         <v>9990.679</v>
       </c>
-      <c r="AF7" s="17">
-        <f>AE7-AB7</f>
-        <v/>
+      <c r="AF7" s="17" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="AG7" s="10" t="inlineStr">
         <is>
@@ -3195,9 +3236,8 @@
       <c r="AH7" s="18" t="n">
         <v>9990.689</v>
       </c>
-      <c r="AI7" s="17">
-        <f>AH7-AE7</f>
-        <v/>
+      <c r="AI7" s="17" t="n">
+        <v>0.01000000000021828</v>
       </c>
       <c r="AJ7" s="10" t="inlineStr">
         <is>
@@ -3207,9 +3247,8 @@
       <c r="AK7" s="18" t="n">
         <v>9990.681</v>
       </c>
-      <c r="AL7" s="17">
-        <f>AK7-AH7</f>
-        <v/>
+      <c r="AL7" s="17" t="n">
+        <v>-0.007999999999810825</v>
       </c>
       <c r="AM7" s="10" t="inlineStr">
         <is>
@@ -3219,9 +3258,8 @@
       <c r="AN7" s="18" t="n">
         <v>9990.688</v>
       </c>
-      <c r="AO7" s="17">
-        <f>AN7-AK7</f>
-        <v/>
+      <c r="AO7" s="17" t="n">
+        <v>0.006999999999607098</v>
       </c>
       <c r="AP7" s="10" t="inlineStr">
         <is>
@@ -3246,9 +3284,8 @@
       <c r="AT7" s="18" t="n">
         <v>9990.684999999999</v>
       </c>
-      <c r="AU7" s="17">
-        <f>AT7-AN7</f>
-        <v/>
+      <c r="AU7" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="AV7" s="10" t="inlineStr">
         <is>
@@ -3258,9 +3295,8 @@
       <c r="AW7" s="18" t="n">
         <v>9990.682000000001</v>
       </c>
-      <c r="AX7" s="17">
-        <f>AW7-AT7</f>
-        <v/>
+      <c r="AX7" s="17" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="AY7" s="10" t="inlineStr">
         <is>
@@ -3270,9 +3306,8 @@
       <c r="AZ7" s="18" t="n">
         <v>9990.68</v>
       </c>
-      <c r="BA7" s="17">
-        <f>AZ7-AW7</f>
-        <v/>
+      <c r="BA7" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="BB7" s="10" t="inlineStr">
         <is>
@@ -3282,9 +3317,8 @@
       <c r="BC7" s="18" t="n">
         <v>9990.681</v>
       </c>
-      <c r="BD7" s="17">
-        <f>BC7-AZ7</f>
-        <v/>
+      <c r="BD7" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="BE7" s="10" t="inlineStr">
         <is>
@@ -3294,9 +3328,8 @@
       <c r="BF7" s="18" t="n">
         <v>9990.684999999999</v>
       </c>
-      <c r="BG7" s="17">
-        <f>BF7-BC7</f>
-        <v/>
+      <c r="BG7" s="17" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="BH7" s="10" t="inlineStr">
         <is>
@@ -3306,9 +3339,8 @@
       <c r="BI7" s="18" t="n">
         <v>9990.684999999999</v>
       </c>
-      <c r="BJ7" s="17">
-        <f>BI7-BF7</f>
-        <v/>
+      <c r="BJ7" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BK7" s="10" t="inlineStr">
         <is>
@@ -3318,9 +3350,8 @@
       <c r="BL7" s="18" t="n">
         <v>9990.681</v>
       </c>
-      <c r="BM7" s="17">
-        <f>BL7-BI7</f>
-        <v/>
+      <c r="BM7" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="BN7" s="10" t="inlineStr">
         <is>
@@ -3330,9 +3361,8 @@
       <c r="BO7" s="18" t="n">
         <v>9990.686</v>
       </c>
-      <c r="BP7" s="17">
-        <f>BO7-BL7</f>
-        <v/>
+      <c r="BP7" s="17" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="BQ7" s="10" t="inlineStr">
         <is>
@@ -3342,9 +3372,8 @@
       <c r="BR7" s="18" t="n">
         <v>9990.690000000001</v>
       </c>
-      <c r="BS7" s="17">
-        <f>BR7-BO7</f>
-        <v/>
+      <c r="BS7" s="17" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="BT7" s="10" t="inlineStr">
         <is>
@@ -3354,9 +3383,8 @@
       <c r="BU7" s="18" t="n">
         <v>9990.684999999999</v>
       </c>
-      <c r="BV7" s="17">
-        <f>BU7-BR7</f>
-        <v/>
+      <c r="BV7" s="17" t="n">
+        <v>-0.005000000001018634</v>
       </c>
       <c r="BW7" s="10" t="inlineStr">
         <is>
@@ -3366,9 +3394,8 @@
       <c r="BX7" s="18" t="n">
         <v>9990.687</v>
       </c>
-      <c r="BY7" s="17">
-        <f>BX7-BU7</f>
-        <v/>
+      <c r="BY7" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="BZ7" s="10" t="inlineStr">
         <is>
@@ -3378,9 +3405,8 @@
       <c r="CA7" s="18" t="n">
         <v>9990.689</v>
       </c>
-      <c r="CB7" s="17">
-        <f>CA7-BX7</f>
-        <v/>
+      <c r="CB7" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="CC7" s="10" t="inlineStr">
         <is>
@@ -3390,9 +3416,8 @@
       <c r="CD7" s="18" t="n">
         <v>9990.679</v>
       </c>
-      <c r="CE7" s="17">
-        <f>CD7-CA7</f>
-        <v/>
+      <c r="CE7" s="17" t="n">
+        <v>-0.01000000000021828</v>
       </c>
       <c r="CF7" s="10" t="inlineStr">
         <is>
@@ -3402,9 +3427,8 @@
       <c r="CG7" s="18" t="n">
         <v>9990.683999999999</v>
       </c>
-      <c r="CH7" s="17">
-        <f>CG7-CD7</f>
-        <v/>
+      <c r="CH7" s="17" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="CI7" s="10" t="inlineStr">
         <is>
@@ -3414,9 +3438,8 @@
       <c r="CJ7" s="18" t="n">
         <v>9990.686</v>
       </c>
-      <c r="CK7" s="17">
-        <f>CJ7-CG7</f>
-        <v/>
+      <c r="CK7" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="CL7" s="10" t="inlineStr">
         <is>
@@ -3426,30 +3449,28 @@
       <c r="CM7" s="18" t="n">
         <v>9990.686</v>
       </c>
-      <c r="CN7" s="17">
-        <f>CM7-CJ7</f>
-        <v/>
-      </c>
-      <c r="CO7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP7" t="n">
+      <c r="CN7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP7" s="76" t="n">
         <v>9990.688</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CQ7" s="77" t="n">
         <v>0.002000000000407454</v>
       </c>
-      <c r="CR7" s="14" t="n"/>
-      <c r="CS7" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT7" s="17">
-        <f>CJ7-E7</f>
-        <v/>
+      <c r="CR7" s="20" t="n"/>
+      <c r="CS7" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT7" s="17" t="n">
+        <v>0.006</v>
       </c>
       <c r="CU7" s="14" t="n"/>
       <c r="CV7" s="10" t="inlineStr">
@@ -3457,9 +3478,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW7" s="13">
-        <f>CQ7*12</f>
-        <v/>
+      <c r="CW7" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3488,9 +3508,8 @@
       <c r="G8" s="21" t="n">
         <v>56.775</v>
       </c>
-      <c r="H8" s="17">
-        <f>G8-E8</f>
-        <v/>
+      <c r="H8" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
@@ -3500,9 +3519,8 @@
       <c r="J8" s="21" t="n">
         <v>56.779</v>
       </c>
-      <c r="K8" s="17">
-        <f>J8-G8</f>
-        <v/>
+      <c r="K8" s="17" t="n">
+        <v>0.004000000000004889</v>
       </c>
       <c r="L8" s="11" t="inlineStr">
         <is>
@@ -3512,9 +3530,8 @@
       <c r="M8" s="21" t="n">
         <v>56.777</v>
       </c>
-      <c r="N8" s="17">
-        <f>M8-J8</f>
-        <v/>
+      <c r="N8" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="O8" s="11" t="inlineStr">
         <is>
@@ -3524,9 +3541,8 @@
       <c r="P8" s="21" t="n">
         <v>56.779</v>
       </c>
-      <c r="Q8" s="17">
-        <f>P8-M8</f>
-        <v/>
+      <c r="Q8" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="R8" s="11" t="inlineStr">
         <is>
@@ -3536,9 +3552,8 @@
       <c r="S8" s="21" t="n">
         <v>56.773</v>
       </c>
-      <c r="T8" s="17">
-        <f>S8-P8</f>
-        <v/>
+      <c r="T8" s="17" t="n">
+        <v>-0.006000000000000227</v>
       </c>
       <c r="U8" s="11" t="inlineStr">
         <is>
@@ -3548,9 +3563,8 @@
       <c r="V8" s="21" t="n">
         <v>56.777</v>
       </c>
-      <c r="W8" s="17">
-        <f>V8-S8</f>
-        <v/>
+      <c r="W8" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="X8" s="11" t="inlineStr">
         <is>
@@ -3560,9 +3574,8 @@
       <c r="Y8" s="21" t="n">
         <v>56.776</v>
       </c>
-      <c r="Z8" s="17">
-        <f>Y8-V8</f>
-        <v/>
+      <c r="Z8" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="AA8" s="11" t="inlineStr">
         <is>
@@ -3572,9 +3585,8 @@
       <c r="AB8" s="21" t="n">
         <v>56.783</v>
       </c>
-      <c r="AC8" s="17">
-        <f>AB8-Y8</f>
-        <v/>
+      <c r="AC8" s="17" t="n">
+        <v>0.006999999999997897</v>
       </c>
       <c r="AD8" s="11" t="inlineStr">
         <is>
@@ -3584,9 +3596,8 @@
       <c r="AE8" s="21" t="n">
         <v>56.782</v>
       </c>
-      <c r="AF8" s="17">
-        <f>AE8-AB8</f>
-        <v/>
+      <c r="AF8" s="17" t="n">
+        <v>-0.001000000000004775</v>
       </c>
       <c r="AG8" s="11" t="inlineStr">
         <is>
@@ -3596,9 +3607,8 @@
       <c r="AH8" s="21" t="n">
         <v>56.775</v>
       </c>
-      <c r="AI8" s="17">
-        <f>AH8-AE8</f>
-        <v/>
+      <c r="AI8" s="17" t="n">
+        <v>-0.006999999999997897</v>
       </c>
       <c r="AJ8" s="11" t="inlineStr">
         <is>
@@ -3608,9 +3618,8 @@
       <c r="AK8" s="21" t="n">
         <v>56.777</v>
       </c>
-      <c r="AL8" s="17">
-        <f>AK8-AH8</f>
-        <v/>
+      <c r="AL8" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="AM8" s="11" t="inlineStr">
         <is>
@@ -3620,9 +3629,8 @@
       <c r="AN8" s="21" t="n">
         <v>56.775</v>
       </c>
-      <c r="AO8" s="17">
-        <f>AN8-AK8</f>
-        <v/>
+      <c r="AO8" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="AP8" s="11" t="inlineStr">
         <is>
@@ -3647,9 +3655,8 @@
       <c r="AT8" s="21" t="n">
         <v>56.776</v>
       </c>
-      <c r="AU8" s="17">
-        <f>AT8-AN8</f>
-        <v/>
+      <c r="AU8" s="17" t="n">
+        <v>0.001000000000004775</v>
       </c>
       <c r="AV8" s="11" t="inlineStr">
         <is>
@@ -3659,9 +3666,8 @@
       <c r="AW8" s="21" t="n">
         <v>56.779</v>
       </c>
-      <c r="AX8" s="17">
-        <f>AW8-AT8</f>
-        <v/>
+      <c r="AX8" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="AY8" s="11" t="inlineStr">
         <is>
@@ -3671,9 +3677,8 @@
       <c r="AZ8" s="21" t="n">
         <v>56.781</v>
       </c>
-      <c r="BA8" s="17">
-        <f>AZ8-AW8</f>
-        <v/>
+      <c r="BA8" s="17" t="n">
+        <v>0.001999999999995339</v>
       </c>
       <c r="BB8" s="11" t="inlineStr">
         <is>
@@ -3683,9 +3688,8 @@
       <c r="BC8" s="21" t="n">
         <v>56.776</v>
       </c>
-      <c r="BD8" s="17">
-        <f>BC8-AZ8</f>
-        <v/>
+      <c r="BD8" s="17" t="n">
+        <v>-0.004999999999995453</v>
       </c>
       <c r="BE8" s="11" t="inlineStr">
         <is>
@@ -3695,9 +3699,8 @@
       <c r="BF8" s="21" t="n">
         <v>56.776</v>
       </c>
-      <c r="BG8" s="17">
-        <f>BF8-BC8</f>
-        <v/>
+      <c r="BG8" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BH8" s="11" t="inlineStr">
         <is>
@@ -3707,9 +3710,8 @@
       <c r="BI8" s="21" t="n">
         <v>56.776</v>
       </c>
-      <c r="BJ8" s="17">
-        <f>BI8-BF8</f>
-        <v/>
+      <c r="BJ8" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BK8" s="11" t="inlineStr">
         <is>
@@ -3719,9 +3721,8 @@
       <c r="BL8" s="21" t="n">
         <v>56.781</v>
       </c>
-      <c r="BM8" s="17">
-        <f>BL8-BI8</f>
-        <v/>
+      <c r="BM8" s="17" t="n">
+        <v>0.004999999999995453</v>
       </c>
       <c r="BN8" s="11" t="inlineStr">
         <is>
@@ -3731,9 +3732,8 @@
       <c r="BO8" s="21" t="n">
         <v>56.78</v>
       </c>
-      <c r="BP8" s="17">
-        <f>BO8-BL8</f>
-        <v/>
+      <c r="BP8" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BQ8" s="11" t="inlineStr">
         <is>
@@ -3743,9 +3743,8 @@
       <c r="BR8" s="21" t="n">
         <v>56.777</v>
       </c>
-      <c r="BS8" s="17">
-        <f>BR8-BO8</f>
-        <v/>
+      <c r="BS8" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="BT8" s="11" t="inlineStr">
         <is>
@@ -3755,9 +3754,8 @@
       <c r="BU8" s="21" t="n">
         <v>56.777</v>
       </c>
-      <c r="BV8" s="17">
-        <f>BU8-BR8</f>
-        <v/>
+      <c r="BV8" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BW8" s="11" t="inlineStr">
         <is>
@@ -3767,9 +3765,8 @@
       <c r="BX8" s="21" t="n">
         <v>56.775</v>
       </c>
-      <c r="BY8" s="17">
-        <f>BX8-BU8</f>
-        <v/>
+      <c r="BY8" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="BZ8" s="11" t="inlineStr">
         <is>
@@ -3779,9 +3776,8 @@
       <c r="CA8" s="21" t="n">
         <v>56.777</v>
       </c>
-      <c r="CB8" s="17">
-        <f>CA8-BX8</f>
-        <v/>
+      <c r="CB8" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="CC8" s="11" t="inlineStr">
         <is>
@@ -3791,9 +3787,8 @@
       <c r="CD8" s="21" t="n">
         <v>56.779</v>
       </c>
-      <c r="CE8" s="17">
-        <f>CD8-CA8</f>
-        <v/>
+      <c r="CE8" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="CF8" s="11" t="inlineStr">
         <is>
@@ -3803,9 +3798,8 @@
       <c r="CG8" s="21" t="n">
         <v>56.78</v>
       </c>
-      <c r="CH8" s="17">
-        <f>CG8-CD8</f>
-        <v/>
+      <c r="CH8" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="CI8" s="11" t="inlineStr">
         <is>
@@ -3815,9 +3809,8 @@
       <c r="CJ8" s="21" t="n">
         <v>56.78</v>
       </c>
-      <c r="CK8" s="17">
-        <f>CJ8-CG8</f>
-        <v/>
+      <c r="CK8" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CL8" s="11" t="inlineStr">
         <is>
@@ -3827,30 +3820,28 @@
       <c r="CM8" s="21" t="n">
         <v>56.78</v>
       </c>
-      <c r="CN8" s="17">
-        <f>CM8-CJ8</f>
-        <v/>
-      </c>
-      <c r="CO8" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP8" t="n">
+      <c r="CN8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP8" s="79" t="n">
         <v>56.776</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CQ8" s="80" t="n">
         <v>-0.003999999999997783</v>
       </c>
-      <c r="CR8" s="14" t="n"/>
-      <c r="CS8" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT8" s="24">
-        <f>CJ8-E8</f>
-        <v/>
+      <c r="CR8" s="20" t="n"/>
+      <c r="CS8" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT8" s="24" t="n">
+        <v>0.003</v>
       </c>
       <c r="CU8" s="14" t="n"/>
       <c r="CV8" s="11" t="inlineStr">
@@ -3858,9 +3849,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW8" s="29">
-        <f>CQ8*12</f>
-        <v/>
+      <c r="CW8" s="29" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -3891,9 +3881,8 @@
       <c r="G9" s="20" t="n">
         <v>9988.616</v>
       </c>
-      <c r="H9" s="23">
-        <f>G9-E9</f>
-        <v/>
+      <c r="H9" s="23" t="n">
+        <v>0.01100000000042201</v>
       </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
@@ -3903,9 +3892,8 @@
       <c r="J9" s="20" t="n">
         <v>9988.609</v>
       </c>
-      <c r="K9" s="23">
-        <f>J9-G9</f>
-        <v/>
+      <c r="K9" s="23" t="n">
+        <v>-0.006999999999607098</v>
       </c>
       <c r="L9" s="10" t="inlineStr">
         <is>
@@ -3915,9 +3903,8 @@
       <c r="M9" s="20" t="n">
         <v>9988.611000000001</v>
       </c>
-      <c r="N9" s="23">
-        <f>M9-J9</f>
-        <v/>
+      <c r="N9" s="23" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="O9" s="10" t="inlineStr">
         <is>
@@ -3927,9 +3914,8 @@
       <c r="P9" s="20" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="Q9" s="23">
-        <f>P9-M9</f>
-        <v/>
+      <c r="Q9" s="23" t="n">
+        <v>0.0009999999983847374</v>
       </c>
       <c r="R9" s="10" t="inlineStr">
         <is>
@@ -3939,9 +3925,8 @@
       <c r="S9" s="20" t="n">
         <v>9988.611000000001</v>
       </c>
-      <c r="T9" s="23">
-        <f>S9-P9</f>
-        <v/>
+      <c r="T9" s="23" t="n">
+        <v>-0.0009999999983847374</v>
       </c>
       <c r="U9" s="10" t="inlineStr">
         <is>
@@ -3951,9 +3936,8 @@
       <c r="V9" s="20" t="n">
         <v>9988.611000000001</v>
       </c>
-      <c r="W9" s="23">
-        <f>V9-S9</f>
-        <v/>
+      <c r="W9" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="X9" s="10" t="inlineStr">
         <is>
@@ -3963,9 +3947,8 @@
       <c r="Y9" s="20" t="n">
         <v>9988.610000000001</v>
       </c>
-      <c r="Z9" s="23">
-        <f>Y9-V9</f>
-        <v/>
+      <c r="Z9" s="23" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="AA9" s="10" t="inlineStr">
         <is>
@@ -3975,9 +3958,8 @@
       <c r="AB9" s="20" t="n">
         <v>9988.606</v>
       </c>
-      <c r="AC9" s="23">
-        <f>AB9-Y9</f>
-        <v/>
+      <c r="AC9" s="23" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="AD9" s="10" t="inlineStr">
         <is>
@@ -3987,9 +3969,8 @@
       <c r="AE9" s="20" t="n">
         <v>9988.612999999999</v>
       </c>
-      <c r="AF9" s="23">
-        <f>AE9-AB9</f>
-        <v/>
+      <c r="AF9" s="23" t="n">
+        <v>0.006999999999607098</v>
       </c>
       <c r="AG9" s="10" t="inlineStr">
         <is>
@@ -3999,9 +3980,8 @@
       <c r="AH9" s="20" t="n">
         <v>9988.614</v>
       </c>
-      <c r="AI9" s="23">
-        <f>AH9-AE9</f>
-        <v/>
+      <c r="AI9" s="23" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="AJ9" s="10" t="inlineStr">
         <is>
@@ -4011,9 +3991,8 @@
       <c r="AK9" s="20" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="AL9" s="23">
-        <f>AK9-AH9</f>
-        <v/>
+      <c r="AL9" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AM9" s="10" t="inlineStr">
         <is>
@@ -4023,9 +4002,8 @@
       <c r="AN9" s="20" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="AO9" s="23">
-        <f>AN9-AK9</f>
-        <v/>
+      <c r="AO9" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AP9" s="10" t="inlineStr">
         <is>
@@ -4035,9 +4013,8 @@
       <c r="AQ9" s="20" t="n">
         <v>9988.606</v>
       </c>
-      <c r="AR9" s="23">
-        <f>AQ9-AN9</f>
-        <v/>
+      <c r="AR9" s="23" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="AS9" s="10" t="inlineStr">
         <is>
@@ -4047,9 +4024,8 @@
       <c r="AT9" s="20" t="n">
         <v>9988.615</v>
       </c>
-      <c r="AU9" s="23">
-        <f>AT9-AQ9</f>
-        <v/>
+      <c r="AU9" s="23" t="n">
+        <v>0.009000000000014552</v>
       </c>
       <c r="AV9" s="10" t="inlineStr">
         <is>
@@ -4059,9 +4035,8 @@
       <c r="AW9" s="20" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="AX9" s="23">
-        <f>AW9-AT9</f>
-        <v/>
+      <c r="AX9" s="23" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="AY9" s="10" t="inlineStr">
         <is>
@@ -4071,9 +4046,8 @@
       <c r="AZ9" s="20" t="n">
         <v>9988.615</v>
       </c>
-      <c r="BA9" s="23">
-        <f>AZ9-AW9</f>
-        <v/>
+      <c r="BA9" s="23" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="BB9" s="10" t="inlineStr">
         <is>
@@ -4083,9 +4057,8 @@
       <c r="BC9" s="20" t="n">
         <v>9988.610000000001</v>
       </c>
-      <c r="BD9" s="23">
-        <f>BC9-AZ9</f>
-        <v/>
+      <c r="BD9" s="23" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="BE9" s="10" t="inlineStr">
         <is>
@@ -4095,9 +4068,8 @@
       <c r="BF9" s="20" t="n">
         <v>9988.614</v>
       </c>
-      <c r="BG9" s="23">
-        <f>BF9-BC9</f>
-        <v/>
+      <c r="BG9" s="23" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="BH9" s="10" t="inlineStr">
         <is>
@@ -4107,9 +4079,8 @@
       <c r="BI9" s="20" t="n">
         <v>9988.620999999999</v>
       </c>
-      <c r="BJ9" s="23">
-        <f>BI9-BF9</f>
-        <v/>
+      <c r="BJ9" s="23" t="n">
+        <v>0.006999999999607098</v>
       </c>
       <c r="BK9" s="10" t="inlineStr">
         <is>
@@ -4119,9 +4090,8 @@
       <c r="BL9" s="20" t="n">
         <v>9988.623</v>
       </c>
-      <c r="BM9" s="23">
-        <f>BL9-BI9</f>
-        <v/>
+      <c r="BM9" s="23" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="BN9" s="10" t="inlineStr">
         <is>
@@ -4131,9 +4101,8 @@
       <c r="BO9" s="20" t="n">
         <v>9988.617</v>
       </c>
-      <c r="BP9" s="23">
-        <f>BO9-BL9</f>
-        <v/>
+      <c r="BP9" s="23" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="BQ9" s="10" t="inlineStr">
         <is>
@@ -4143,9 +4112,8 @@
       <c r="BR9" s="20" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="BS9" s="23">
-        <f>BR9-BO9</f>
-        <v/>
+      <c r="BS9" s="23" t="n">
+        <v>-0.005000000001018634</v>
       </c>
       <c r="BT9" s="10" t="inlineStr">
         <is>
@@ -4155,9 +4123,8 @@
       <c r="BU9" s="20" t="n">
         <v>9988.620000000001</v>
       </c>
-      <c r="BV9" s="23">
-        <f>BU9-BR9</f>
-        <v/>
+      <c r="BV9" s="23" t="n">
+        <v>0.008000000001629815</v>
       </c>
       <c r="BW9" s="10" t="inlineStr">
         <is>
@@ -4167,9 +4134,8 @@
       <c r="BX9" s="20" t="n">
         <v>9988.615</v>
       </c>
-      <c r="BY9" s="23">
-        <f>BX9-BU9</f>
-        <v/>
+      <c r="BY9" s="23" t="n">
+        <v>-0.005000000001018634</v>
       </c>
       <c r="BZ9" s="10" t="inlineStr">
         <is>
@@ -4179,9 +4145,8 @@
       <c r="CA9" s="20" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="CB9" s="23">
-        <f>CA9-BX9</f>
-        <v/>
+      <c r="CB9" s="23" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="CC9" s="10" t="inlineStr">
         <is>
@@ -4191,9 +4156,8 @@
       <c r="CD9" s="20" t="n">
         <v>9988.609</v>
       </c>
-      <c r="CE9" s="23">
-        <f>CD9-CA9</f>
-        <v/>
+      <c r="CE9" s="23" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="CF9" s="10" t="inlineStr">
         <is>
@@ -4203,9 +4167,8 @@
       <c r="CG9" s="20" t="n">
         <v>9988.609</v>
       </c>
-      <c r="CH9" s="23">
-        <f>CG9-CD9</f>
-        <v/>
+      <c r="CH9" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="CI9" s="10" t="inlineStr">
         <is>
@@ -4215,9 +4178,8 @@
       <c r="CJ9" s="20" t="n">
         <v>9988.614</v>
       </c>
-      <c r="CK9" s="23">
-        <f>CJ9-CG9</f>
-        <v/>
+      <c r="CK9" s="23" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="CL9" s="10" t="inlineStr">
         <is>
@@ -4227,30 +4189,28 @@
       <c r="CM9" s="20" t="n">
         <v>9988.611000000001</v>
       </c>
-      <c r="CN9" s="23">
-        <f>CM9-CJ9</f>
-        <v/>
-      </c>
-      <c r="CO9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP9" t="n">
+      <c r="CN9" s="23" t="n">
+        <v>-0.002999999998792191</v>
+      </c>
+      <c r="CO9" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP9" s="72" t="n">
         <v>9988.611999999999</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="CQ9" s="73" t="n">
         <v>0.0009999999983847374</v>
       </c>
-      <c r="CR9" s="14" t="n"/>
-      <c r="CS9" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT9" s="17">
-        <f>CJ9-E9</f>
-        <v/>
+      <c r="CR9" s="20" t="n"/>
+      <c r="CS9" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT9" s="17" t="n">
+        <v>0.006</v>
       </c>
       <c r="CU9" s="14" t="n"/>
       <c r="CV9" s="10" t="inlineStr">
@@ -4258,9 +4218,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW9" s="13">
-        <f>CQ9*12</f>
-        <v/>
+      <c r="CW9" s="13" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4289,9 +4248,8 @@
       <c r="G10" s="18" t="n">
         <v>9956.885</v>
       </c>
-      <c r="H10" s="17">
-        <f>G10-E10</f>
-        <v/>
+      <c r="H10" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
@@ -4301,9 +4259,8 @@
       <c r="J10" s="18" t="n">
         <v>9956.885</v>
       </c>
-      <c r="K10" s="17">
-        <f>J10-G10</f>
-        <v/>
+      <c r="K10" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="L10" s="10" t="inlineStr">
         <is>
@@ -4313,9 +4270,8 @@
       <c r="M10" s="18" t="n">
         <v>9956.883</v>
       </c>
-      <c r="N10" s="17">
-        <f>M10-J10</f>
-        <v/>
+      <c r="N10" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="O10" s="10" t="inlineStr">
         <is>
@@ -4325,9 +4281,8 @@
       <c r="P10" s="18" t="n">
         <v>9956.886</v>
       </c>
-      <c r="Q10" s="17">
-        <f>P10-M10</f>
-        <v/>
+      <c r="Q10" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="R10" s="10" t="inlineStr">
         <is>
@@ -4337,9 +4292,8 @@
       <c r="S10" s="18" t="n">
         <v>9956.889999999999</v>
       </c>
-      <c r="T10" s="17">
-        <f>S10-P10</f>
-        <v/>
+      <c r="T10" s="17" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="U10" s="10" t="inlineStr">
         <is>
@@ -4349,9 +4303,8 @@
       <c r="V10" s="18" t="n">
         <v>9956.884</v>
       </c>
-      <c r="W10" s="17">
-        <f>V10-S10</f>
-        <v/>
+      <c r="W10" s="17" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="X10" s="10" t="inlineStr">
         <is>
@@ -4361,9 +4314,8 @@
       <c r="Y10" s="18" t="n">
         <v>9956.884</v>
       </c>
-      <c r="Z10" s="17">
-        <f>Y10-V10</f>
-        <v/>
+      <c r="Z10" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AA10" s="10" t="inlineStr">
         <is>
@@ -4373,9 +4325,8 @@
       <c r="AB10" s="18" t="n">
         <v>9956.884</v>
       </c>
-      <c r="AC10" s="17">
-        <f>AB10-Y10</f>
-        <v/>
+      <c r="AC10" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AD10" s="10" t="inlineStr">
         <is>
@@ -4385,9 +4336,8 @@
       <c r="AE10" s="18" t="n">
         <v>9956.882</v>
       </c>
-      <c r="AF10" s="17">
-        <f>AE10-AB10</f>
-        <v/>
+      <c r="AF10" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AG10" s="10" t="inlineStr">
         <is>
@@ -4397,9 +4347,8 @@
       <c r="AH10" s="18" t="n">
         <v>9956.893</v>
       </c>
-      <c r="AI10" s="17">
-        <f>AH10-AE10</f>
-        <v/>
+      <c r="AI10" s="17" t="n">
+        <v>0.01100000000042201</v>
       </c>
       <c r="AJ10" s="10" t="inlineStr">
         <is>
@@ -4409,9 +4358,8 @@
       <c r="AK10" s="18" t="n">
         <v>9956.883</v>
       </c>
-      <c r="AL10" s="17">
-        <f>AK10-AH10</f>
-        <v/>
+      <c r="AL10" s="17" t="n">
+        <v>-0.01000000000021828</v>
       </c>
       <c r="AM10" s="10" t="inlineStr">
         <is>
@@ -4421,9 +4369,8 @@
       <c r="AN10" s="18" t="n">
         <v>9956.892</v>
       </c>
-      <c r="AO10" s="17">
-        <f>AN10-AK10</f>
-        <v/>
+      <c r="AO10" s="17" t="n">
+        <v>0.009000000000014552</v>
       </c>
       <c r="AP10" s="10" t="inlineStr">
         <is>
@@ -4433,9 +4380,8 @@
       <c r="AQ10" s="18" t="n">
         <v>9956.882</v>
       </c>
-      <c r="AR10" s="17">
-        <f>AQ10-AN10</f>
-        <v/>
+      <c r="AR10" s="17" t="n">
+        <v>-0.01000000000021828</v>
       </c>
       <c r="AS10" s="10" t="inlineStr">
         <is>
@@ -4445,9 +4391,8 @@
       <c r="AT10" s="18" t="n">
         <v>9956.889999999999</v>
       </c>
-      <c r="AU10" s="17">
-        <f>AT10-AQ10</f>
-        <v/>
+      <c r="AU10" s="17" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="AV10" s="10" t="inlineStr">
         <is>
@@ -4457,9 +4402,8 @@
       <c r="AW10" s="18" t="n">
         <v>9956.885</v>
       </c>
-      <c r="AX10" s="17">
-        <f>AW10-AT10</f>
-        <v/>
+      <c r="AX10" s="17" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="AY10" s="10" t="inlineStr">
         <is>
@@ -4469,9 +4413,8 @@
       <c r="AZ10" s="18" t="n">
         <v>9956.883</v>
       </c>
-      <c r="BA10" s="17">
-        <f>AZ10-AW10</f>
-        <v/>
+      <c r="BA10" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="BB10" s="10" t="inlineStr">
         <is>
@@ -4481,9 +4424,8 @@
       <c r="BC10" s="18" t="n">
         <v>9956.883</v>
       </c>
-      <c r="BD10" s="17">
-        <f>BC10-AZ10</f>
-        <v/>
+      <c r="BD10" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BE10" s="10" t="inlineStr">
         <is>
@@ -4493,9 +4435,8 @@
       <c r="BF10" s="18" t="n">
         <v>9956.888999999999</v>
       </c>
-      <c r="BG10" s="17">
-        <f>BF10-BC10</f>
-        <v/>
+      <c r="BG10" s="17" t="n">
+        <v>0.005999999999403371</v>
       </c>
       <c r="BH10" s="10" t="inlineStr">
         <is>
@@ -4505,9 +4446,8 @@
       <c r="BI10" s="18" t="n">
         <v>9956.888999999999</v>
       </c>
-      <c r="BJ10" s="17">
-        <f>BI10-BF10</f>
-        <v/>
+      <c r="BJ10" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BK10" s="10" t="inlineStr">
         <is>
@@ -4517,9 +4457,8 @@
       <c r="BL10" s="18" t="n">
         <v>9956.885</v>
       </c>
-      <c r="BM10" s="17">
-        <f>BL10-BI10</f>
-        <v/>
+      <c r="BM10" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="BN10" s="10" t="inlineStr">
         <is>
@@ -4529,9 +4468,8 @@
       <c r="BO10" s="18" t="n">
         <v>9956.888000000001</v>
       </c>
-      <c r="BP10" s="17">
-        <f>BO10-BL10</f>
-        <v/>
+      <c r="BP10" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="BQ10" s="10" t="inlineStr">
         <is>
@@ -4541,9 +4479,8 @@
       <c r="BR10" s="18" t="n">
         <v>9956.888999999999</v>
       </c>
-      <c r="BS10" s="17">
-        <f>BR10-BO10</f>
-        <v/>
+      <c r="BS10" s="17" t="n">
+        <v>0.0009999999983847374</v>
       </c>
       <c r="BT10" s="10" t="inlineStr">
         <is>
@@ -4553,9 +4490,8 @@
       <c r="BU10" s="18" t="n">
         <v>9956.888000000001</v>
       </c>
-      <c r="BV10" s="17">
-        <f>BU10-BR10</f>
-        <v/>
+      <c r="BV10" s="17" t="n">
+        <v>-0.0009999999983847374</v>
       </c>
       <c r="BW10" s="10" t="inlineStr">
         <is>
@@ -4565,9 +4501,8 @@
       <c r="BX10" s="18" t="n">
         <v>9956.888999999999</v>
       </c>
-      <c r="BY10" s="17">
-        <f>BX10-BU10</f>
-        <v/>
+      <c r="BY10" s="17" t="n">
+        <v>0.0009999999983847374</v>
       </c>
       <c r="BZ10" s="10" t="inlineStr">
         <is>
@@ -4577,9 +4512,8 @@
       <c r="CA10" s="18" t="n">
         <v>9956.891</v>
       </c>
-      <c r="CB10" s="17">
-        <f>CA10-BX10</f>
-        <v/>
+      <c r="CB10" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="CC10" s="10" t="inlineStr">
         <is>
@@ -4589,9 +4523,8 @@
       <c r="CD10" s="18" t="n">
         <v>9956.879000000001</v>
       </c>
-      <c r="CE10" s="17">
-        <f>CD10-CA10</f>
-        <v/>
+      <c r="CE10" s="17" t="n">
+        <v>-0.01199999999880674</v>
       </c>
       <c r="CF10" s="10" t="inlineStr">
         <is>
@@ -4601,9 +4534,8 @@
       <c r="CG10" s="18" t="n">
         <v>9956.888999999999</v>
       </c>
-      <c r="CH10" s="17">
-        <f>CG10-CD10</f>
-        <v/>
+      <c r="CH10" s="17" t="n">
+        <v>0.009999999998399289</v>
       </c>
       <c r="CI10" s="10" t="inlineStr">
         <is>
@@ -4613,9 +4545,8 @@
       <c r="CJ10" s="18" t="n">
         <v>9956.889999999999</v>
       </c>
-      <c r="CK10" s="17">
-        <f>CJ10-CG10</f>
-        <v/>
+      <c r="CK10" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="CL10" s="10" t="inlineStr">
         <is>
@@ -4625,30 +4556,28 @@
       <c r="CM10" s="18" t="n">
         <v>9956.886</v>
       </c>
-      <c r="CN10" s="17">
-        <f>CM10-CJ10</f>
-        <v/>
-      </c>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP10" t="n">
+      <c r="CN10" s="17" t="n">
+        <v>-0.003999999998995918</v>
+      </c>
+      <c r="CO10" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP10" s="76" t="n">
         <v>9956.891</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="CQ10" s="77" t="n">
         <v>0.004999999999199645</v>
       </c>
-      <c r="CR10" s="14" t="n"/>
-      <c r="CS10" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT10" s="17">
-        <f>CJ10-E10</f>
-        <v/>
+      <c r="CR10" s="20" t="n"/>
+      <c r="CS10" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT10" s="17" t="n">
+        <v>0.001</v>
       </c>
       <c r="CU10" s="14" t="n"/>
       <c r="CV10" s="10" t="inlineStr">
@@ -4656,9 +4585,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW10" s="13">
-        <f>CQ10*12</f>
-        <v/>
+      <c r="CW10" s="13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
@@ -4687,9 +4615,8 @@
       <c r="G11" s="21" t="n">
         <v>61.232</v>
       </c>
-      <c r="H11" s="17">
-        <f>G11-E11</f>
-        <v/>
+      <c r="H11" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
@@ -4699,9 +4626,8 @@
       <c r="J11" s="21" t="n">
         <v>61.232</v>
       </c>
-      <c r="K11" s="17">
-        <f>J11-G11</f>
-        <v/>
+      <c r="K11" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="L11" s="11" t="inlineStr">
         <is>
@@ -4711,9 +4637,8 @@
       <c r="M11" s="21" t="n">
         <v>61.232</v>
       </c>
-      <c r="N11" s="17">
-        <f>M11-J11</f>
-        <v/>
+      <c r="N11" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="11" t="inlineStr">
         <is>
@@ -4723,9 +4648,8 @@
       <c r="P11" s="21" t="n">
         <v>61.237</v>
       </c>
-      <c r="Q11" s="17">
-        <f>P11-M11</f>
-        <v/>
+      <c r="Q11" s="17" t="n">
+        <v>0.005000000000002558</v>
       </c>
       <c r="R11" s="11" t="inlineStr">
         <is>
@@ -4735,9 +4659,8 @@
       <c r="S11" s="21" t="n">
         <v>61.229</v>
       </c>
-      <c r="T11" s="17">
-        <f>S11-P11</f>
-        <v/>
+      <c r="T11" s="17" t="n">
+        <v>-0.008000000000002672</v>
       </c>
       <c r="U11" s="11" t="inlineStr">
         <is>
@@ -4747,9 +4670,8 @@
       <c r="V11" s="21" t="n">
         <v>61.232</v>
       </c>
-      <c r="W11" s="17">
-        <f>V11-S11</f>
-        <v/>
+      <c r="W11" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="X11" s="11" t="inlineStr">
         <is>
@@ -4759,9 +4681,8 @@
       <c r="Y11" s="21" t="n">
         <v>61.231</v>
       </c>
-      <c r="Z11" s="17">
-        <f>Y11-V11</f>
-        <v/>
+      <c r="Z11" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="AA11" s="11" t="inlineStr">
         <is>
@@ -4771,9 +4692,8 @@
       <c r="AB11" s="21" t="n">
         <v>61.242</v>
       </c>
-      <c r="AC11" s="17">
-        <f>AB11-Y11</f>
-        <v/>
+      <c r="AC11" s="17" t="n">
+        <v>0.01099999999999568</v>
       </c>
       <c r="AD11" s="11" t="inlineStr">
         <is>
@@ -4783,9 +4703,8 @@
       <c r="AE11" s="21" t="n">
         <v>61.239</v>
       </c>
-      <c r="AF11" s="17">
-        <f>AE11-AB11</f>
-        <v/>
+      <c r="AF11" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="AG11" s="11" t="inlineStr">
         <is>
@@ -4795,9 +4714,8 @@
       <c r="AH11" s="21" t="n">
         <v>61.231</v>
       </c>
-      <c r="AI11" s="17">
-        <f>AH11-AE11</f>
-        <v/>
+      <c r="AI11" s="17" t="n">
+        <v>-0.007999999999995566</v>
       </c>
       <c r="AJ11" s="11" t="inlineStr">
         <is>
@@ -4807,9 +4725,8 @@
       <c r="AK11" s="21" t="n">
         <v>61.235</v>
       </c>
-      <c r="AL11" s="17">
-        <f>AK11-AH11</f>
-        <v/>
+      <c r="AL11" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="AM11" s="11" t="inlineStr">
         <is>
@@ -4819,9 +4736,8 @@
       <c r="AN11" s="21" t="n">
         <v>61.231</v>
       </c>
-      <c r="AO11" s="17">
-        <f>AN11-AK11</f>
-        <v/>
+      <c r="AO11" s="17" t="n">
+        <v>-0.003999999999997783</v>
       </c>
       <c r="AP11" s="11" t="inlineStr">
         <is>
@@ -4831,9 +4747,8 @@
       <c r="AQ11" s="21" t="n">
         <v>61.234</v>
       </c>
-      <c r="AR11" s="17">
-        <f>AQ11-AN11</f>
-        <v/>
+      <c r="AR11" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="AS11" s="11" t="inlineStr">
         <is>
@@ -4843,9 +4758,8 @@
       <c r="AT11" s="21" t="n">
         <v>61.231</v>
       </c>
-      <c r="AU11" s="17">
-        <f>AT11-AQ11</f>
-        <v/>
+      <c r="AU11" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="AV11" s="11" t="inlineStr">
         <is>
@@ -4855,9 +4769,8 @@
       <c r="AW11" s="21" t="n">
         <v>61.235</v>
       </c>
-      <c r="AX11" s="17">
-        <f>AW11-AT11</f>
-        <v/>
+      <c r="AX11" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="AY11" s="11" t="inlineStr">
         <is>
@@ -4867,9 +4780,8 @@
       <c r="AZ11" s="21" t="n">
         <v>61.236</v>
       </c>
-      <c r="BA11" s="17">
-        <f>AZ11-AW11</f>
-        <v/>
+      <c r="BA11" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="BB11" s="11" t="inlineStr">
         <is>
@@ -4879,9 +4791,8 @@
       <c r="BC11" s="21" t="n">
         <v>61.235</v>
       </c>
-      <c r="BD11" s="17">
-        <f>BC11-AZ11</f>
-        <v/>
+      <c r="BD11" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BE11" s="11" t="inlineStr">
         <is>
@@ -4891,9 +4802,8 @@
       <c r="BF11" s="21" t="n">
         <v>61.234</v>
       </c>
-      <c r="BG11" s="17">
-        <f>BF11-BC11</f>
-        <v/>
+      <c r="BG11" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BH11" s="11" t="inlineStr">
         <is>
@@ -4903,9 +4813,8 @@
       <c r="BI11" s="21" t="n">
         <v>61.233</v>
       </c>
-      <c r="BJ11" s="17">
-        <f>BI11-BF11</f>
-        <v/>
+      <c r="BJ11" s="17" t="n">
+        <v>-0.001000000000004775</v>
       </c>
       <c r="BK11" s="11" t="inlineStr">
         <is>
@@ -4915,9 +4824,8 @@
       <c r="BL11" s="21" t="n">
         <v>61.238</v>
       </c>
-      <c r="BM11" s="17">
-        <f>BL11-BI11</f>
-        <v/>
+      <c r="BM11" s="17" t="n">
+        <v>0.005000000000002558</v>
       </c>
       <c r="BN11" s="11" t="inlineStr">
         <is>
@@ -4927,9 +4835,8 @@
       <c r="BO11" s="21" t="n">
         <v>61.237</v>
       </c>
-      <c r="BP11" s="17">
-        <f>BO11-BL11</f>
-        <v/>
+      <c r="BP11" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BQ11" s="11" t="inlineStr">
         <is>
@@ -4939,9 +4846,8 @@
       <c r="BR11" s="21" t="n">
         <v>61.235</v>
       </c>
-      <c r="BS11" s="17">
-        <f>BR11-BO11</f>
-        <v/>
+      <c r="BS11" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="BT11" s="11" t="inlineStr">
         <is>
@@ -4951,9 +4857,8 @@
       <c r="BU11" s="21" t="n">
         <v>61.235</v>
       </c>
-      <c r="BV11" s="17">
-        <f>BU11-BR11</f>
-        <v/>
+      <c r="BV11" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BW11" s="11" t="inlineStr">
         <is>
@@ -4963,9 +4868,8 @@
       <c r="BX11" s="21" t="n">
         <v>61.232</v>
       </c>
-      <c r="BY11" s="17">
-        <f>BX11-BU11</f>
-        <v/>
+      <c r="BY11" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="BZ11" s="11" t="inlineStr">
         <is>
@@ -4975,9 +4879,8 @@
       <c r="CA11" s="21" t="n">
         <v>61.235</v>
       </c>
-      <c r="CB11" s="17">
-        <f>CA11-BX11</f>
-        <v/>
+      <c r="CB11" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="CC11" s="11" t="inlineStr">
         <is>
@@ -4987,9 +4890,8 @@
       <c r="CD11" s="21" t="n">
         <v>61.238</v>
       </c>
-      <c r="CE11" s="17">
-        <f>CD11-CA11</f>
-        <v/>
+      <c r="CE11" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="CF11" s="11" t="inlineStr">
         <is>
@@ -4999,9 +4901,8 @@
       <c r="CG11" s="21" t="n">
         <v>61.24</v>
       </c>
-      <c r="CH11" s="17">
-        <f>CG11-CD11</f>
-        <v/>
+      <c r="CH11" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="CI11" s="11" t="inlineStr">
         <is>
@@ -5011,9 +4912,8 @@
       <c r="CJ11" s="21" t="n">
         <v>61.239</v>
       </c>
-      <c r="CK11" s="17">
-        <f>CJ11-CG11</f>
-        <v/>
+      <c r="CK11" s="17" t="n">
+        <v>-0.001000000000004775</v>
       </c>
       <c r="CL11" s="11" t="inlineStr">
         <is>
@@ -5023,30 +4923,28 @@
       <c r="CM11" s="21" t="n">
         <v>61.238</v>
       </c>
-      <c r="CN11" s="17">
-        <f>CM11-CJ11</f>
-        <v/>
-      </c>
-      <c r="CO11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP11" t="n">
+      <c r="CN11" s="17" t="n">
+        <v>-0.0009999999999976694</v>
+      </c>
+      <c r="CO11" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP11" s="79" t="n">
         <v>61.232</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="CQ11" s="80" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="CR11" s="14" t="n"/>
-      <c r="CS11" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT11" s="24">
-        <f>CJ11-E11</f>
-        <v/>
+      <c r="CR11" s="20" t="n"/>
+      <c r="CS11" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT11" s="24" t="n">
+        <v>0.003</v>
       </c>
       <c r="CU11" s="14" t="n"/>
       <c r="CV11" s="11" t="inlineStr">
@@ -5054,9 +4952,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW11" s="29">
-        <f>CQ11*12</f>
-        <v/>
+      <c r="CW11" s="29" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -5087,9 +4984,8 @@
       <c r="G12" s="17" t="n">
         <v>9983.511</v>
       </c>
-      <c r="H12" s="23">
-        <f>G12-E12</f>
-        <v/>
+      <c r="H12" s="23" t="n">
+        <v>0.01200000000062573</v>
       </c>
       <c r="I12" s="10" t="inlineStr">
         <is>
@@ -5099,9 +4995,8 @@
       <c r="J12" s="17" t="n">
         <v>9983.504999999999</v>
       </c>
-      <c r="K12" s="23">
-        <f>J12-G12</f>
-        <v/>
+      <c r="K12" s="23" t="n">
+        <v>-0.006000000001222361</v>
       </c>
       <c r="L12" s="10" t="inlineStr">
         <is>
@@ -5111,9 +5006,8 @@
       <c r="M12" s="17" t="n">
         <v>9983.503000000001</v>
       </c>
-      <c r="N12" s="23">
-        <f>M12-J12</f>
-        <v/>
+      <c r="N12" s="23" t="n">
+        <v>-0.001999999998588464</v>
       </c>
       <c r="O12" s="10" t="inlineStr">
         <is>
@@ -5123,9 +5017,8 @@
       <c r="P12" s="17" t="n">
         <v>9983.504999999999</v>
       </c>
-      <c r="Q12" s="23">
-        <f>P12-M12</f>
-        <v/>
+      <c r="Q12" s="23" t="n">
+        <v>0.001999999998588464</v>
       </c>
       <c r="R12" s="10" t="inlineStr">
         <is>
@@ -5135,9 +5028,8 @@
       <c r="S12" s="17" t="n">
         <v>9983.501</v>
       </c>
-      <c r="T12" s="23">
-        <f>S12-P12</f>
-        <v/>
+      <c r="T12" s="23" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="U12" s="10" t="inlineStr">
         <is>
@@ -5147,9 +5039,8 @@
       <c r="V12" s="17" t="n">
         <v>9983.504999999999</v>
       </c>
-      <c r="W12" s="23">
-        <f>V12-S12</f>
-        <v/>
+      <c r="W12" s="23" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="X12" s="10" t="inlineStr">
         <is>
@@ -5159,9 +5050,8 @@
       <c r="Y12" s="17" t="n">
         <v>9983.5</v>
       </c>
-      <c r="Z12" s="23">
-        <f>Y12-V12</f>
-        <v/>
+      <c r="Z12" s="23" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="AA12" s="10" t="inlineStr">
         <is>
@@ -5171,9 +5061,8 @@
       <c r="AB12" s="17" t="n">
         <v>9983.504000000001</v>
       </c>
-      <c r="AC12" s="23">
-        <f>AB12-Y12</f>
-        <v/>
+      <c r="AC12" s="23" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="AD12" s="10" t="inlineStr">
         <is>
@@ -5183,9 +5072,8 @@
       <c r="AE12" s="17" t="n">
         <v>9983.509</v>
       </c>
-      <c r="AF12" s="23">
-        <f>AE12-AB12</f>
-        <v/>
+      <c r="AF12" s="23" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="AG12" s="10" t="inlineStr">
         <is>
@@ -5195,9 +5083,8 @@
       <c r="AH12" s="17" t="n">
         <v>9983.505999999999</v>
       </c>
-      <c r="AI12" s="23">
-        <f>AH12-AE12</f>
-        <v/>
+      <c r="AI12" s="23" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="AJ12" s="10" t="inlineStr">
         <is>
@@ -5207,9 +5094,8 @@
       <c r="AK12" s="17" t="n">
         <v>9983.505999999999</v>
       </c>
-      <c r="AL12" s="23">
-        <f>AK12-AH12</f>
-        <v/>
+      <c r="AL12" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AM12" s="10" t="inlineStr">
         <is>
@@ -5219,9 +5105,8 @@
       <c r="AN12" s="17" t="n">
         <v>9983.504999999999</v>
       </c>
-      <c r="AO12" s="23">
-        <f>AN12-AK12</f>
-        <v/>
+      <c r="AO12" s="23" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="AP12" s="10" t="inlineStr">
         <is>
@@ -5231,9 +5116,8 @@
       <c r="AQ12" s="17" t="n">
         <v>9983.498</v>
       </c>
-      <c r="AR12" s="23">
-        <f>AQ12-AN12</f>
-        <v/>
+      <c r="AR12" s="23" t="n">
+        <v>-0.006999999999607098</v>
       </c>
       <c r="AS12" s="10" t="inlineStr">
         <is>
@@ -5243,9 +5127,8 @@
       <c r="AT12" s="17" t="n">
         <v>9983.501</v>
       </c>
-      <c r="AU12" s="23">
-        <f>AT12-AQ12</f>
-        <v/>
+      <c r="AU12" s="23" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="AV12" s="10" t="inlineStr">
         <is>
@@ -5255,9 +5138,8 @@
       <c r="AW12" s="17" t="n">
         <v>9983.504999999999</v>
       </c>
-      <c r="AX12" s="23">
-        <f>AW12-AT12</f>
-        <v/>
+      <c r="AX12" s="23" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="AY12" s="10" t="inlineStr">
         <is>
@@ -5267,9 +5149,8 @@
       <c r="AZ12" s="17" t="n">
         <v>9983.502</v>
       </c>
-      <c r="BA12" s="23">
-        <f>AZ12-AW12</f>
-        <v/>
+      <c r="BA12" s="23" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="BB12" s="10" t="inlineStr">
         <is>
@@ -5279,9 +5160,8 @@
       <c r="BC12" s="17" t="n">
         <v>9983.507</v>
       </c>
-      <c r="BD12" s="23">
-        <f>BC12-AZ12</f>
-        <v/>
+      <c r="BD12" s="23" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="BE12" s="10" t="inlineStr">
         <is>
@@ -5291,9 +5171,8 @@
       <c r="BF12" s="17" t="n">
         <v>9983.504999999999</v>
       </c>
-      <c r="BG12" s="23">
-        <f>BF12-BC12</f>
-        <v/>
+      <c r="BG12" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="BH12" s="10" t="inlineStr">
         <is>
@@ -5303,9 +5182,8 @@
       <c r="BI12" s="17" t="n">
         <v>9983.511</v>
       </c>
-      <c r="BJ12" s="23">
-        <f>BI12-BF12</f>
-        <v/>
+      <c r="BJ12" s="23" t="n">
+        <v>0.006000000001222361</v>
       </c>
       <c r="BK12" s="10" t="inlineStr">
         <is>
@@ -5315,9 +5193,8 @@
       <c r="BL12" s="17" t="n">
         <v>9983.516</v>
       </c>
-      <c r="BM12" s="23">
-        <f>BL12-BI12</f>
-        <v/>
+      <c r="BM12" s="23" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="BN12" s="10" t="inlineStr">
         <is>
@@ -5327,9 +5204,8 @@
       <c r="BO12" s="17" t="n">
         <v>9983.51</v>
       </c>
-      <c r="BP12" s="23">
-        <f>BO12-BL12</f>
-        <v/>
+      <c r="BP12" s="23" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="BQ12" s="10" t="inlineStr">
         <is>
@@ -5339,9 +5215,8 @@
       <c r="BR12" s="17" t="n">
         <v>9983.502</v>
       </c>
-      <c r="BS12" s="23">
-        <f>BR12-BO12</f>
-        <v/>
+      <c r="BS12" s="23" t="n">
+        <v>-0.007999999999810825</v>
       </c>
       <c r="BT12" s="10" t="inlineStr">
         <is>
@@ -5351,9 +5226,8 @@
       <c r="BU12" s="17" t="n">
         <v>9983.51</v>
       </c>
-      <c r="BV12" s="23">
-        <f>BU12-BR12</f>
-        <v/>
+      <c r="BV12" s="23" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="BW12" s="10" t="inlineStr">
         <is>
@@ -5363,9 +5237,8 @@
       <c r="BX12" s="17" t="n">
         <v>9983.505999999999</v>
       </c>
-      <c r="BY12" s="23">
-        <f>BX12-BU12</f>
-        <v/>
+      <c r="BY12" s="23" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="BZ12" s="10" t="inlineStr">
         <is>
@@ -5375,9 +5248,8 @@
       <c r="CA12" s="17" t="n">
         <v>9983.504000000001</v>
       </c>
-      <c r="CB12" s="23">
-        <f>CA12-BX12</f>
-        <v/>
+      <c r="CB12" s="23" t="n">
+        <v>-0.001999999998588464</v>
       </c>
       <c r="CC12" s="10" t="inlineStr">
         <is>
@@ -5387,9 +5259,8 @@
       <c r="CD12" s="17" t="n">
         <v>9983.505999999999</v>
       </c>
-      <c r="CE12" s="23">
-        <f>CD12-CA12</f>
-        <v/>
+      <c r="CE12" s="23" t="n">
+        <v>0.001999999998588464</v>
       </c>
       <c r="CF12" s="10" t="inlineStr">
         <is>
@@ -5436,26 +5307,25 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP12" t="n">
+      <c r="CO12" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP12" s="72" t="n">
         <v>9983.5</v>
       </c>
-      <c r="CQ12" t="n">
+      <c r="CQ12" s="73" t="n">
         <v>-0.005999999999403371</v>
       </c>
-      <c r="CR12" s="14" t="n"/>
-      <c r="CS12" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT12" s="17">
-        <f>CD12-E12</f>
-        <v/>
+      <c r="CR12" s="20" t="n"/>
+      <c r="CS12" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT12" s="17" t="n">
+        <v>0.007</v>
       </c>
       <c r="CU12" s="14" t="n"/>
       <c r="CV12" s="10" t="inlineStr">
@@ -5463,9 +5333,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW12" s="13">
-        <f>CQ12*12</f>
-        <v/>
+      <c r="CW12" s="13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -5494,9 +5363,8 @@
       <c r="G13" s="18" t="n">
         <v>9927.804</v>
       </c>
-      <c r="H13" s="17">
-        <f>G13-E13</f>
-        <v/>
+      <c r="H13" s="17" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
@@ -5506,9 +5374,8 @@
       <c r="J13" s="18" t="n">
         <v>9927.803</v>
       </c>
-      <c r="K13" s="17">
-        <f>J13-G13</f>
-        <v/>
+      <c r="K13" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="L13" s="10" t="inlineStr">
         <is>
@@ -5518,9 +5385,8 @@
       <c r="M13" s="18" t="n">
         <v>9927.799000000001</v>
       </c>
-      <c r="N13" s="17">
-        <f>M13-J13</f>
-        <v/>
+      <c r="N13" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="O13" s="10" t="inlineStr">
         <is>
@@ -5530,9 +5396,8 @@
       <c r="P13" s="18" t="n">
         <v>9927.805</v>
       </c>
-      <c r="Q13" s="17">
-        <f>P13-M13</f>
-        <v/>
+      <c r="Q13" s="17" t="n">
+        <v>0.005999999999403371</v>
       </c>
       <c r="R13" s="10" t="inlineStr">
         <is>
@@ -5542,9 +5407,8 @@
       <c r="S13" s="18" t="n">
         <v>9927.804</v>
       </c>
-      <c r="T13" s="17">
-        <f>S13-P13</f>
-        <v/>
+      <c r="T13" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="U13" s="10" t="inlineStr">
         <is>
@@ -5554,9 +5418,8 @@
       <c r="V13" s="18" t="n">
         <v>9927.804</v>
       </c>
-      <c r="W13" s="17">
-        <f>V13-S13</f>
-        <v/>
+      <c r="W13" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="X13" s="10" t="inlineStr">
         <is>
@@ -5566,9 +5429,8 @@
       <c r="Y13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="Z13" s="17">
-        <f>Y13-V13</f>
-        <v/>
+      <c r="Z13" s="17" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="AA13" s="10" t="inlineStr">
         <is>
@@ -5578,9 +5440,8 @@
       <c r="AB13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="AC13" s="17">
-        <f>AB13-Y13</f>
-        <v/>
+      <c r="AC13" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AD13" s="10" t="inlineStr">
         <is>
@@ -5590,9 +5451,8 @@
       <c r="AE13" s="18" t="n">
         <v>9927.797</v>
       </c>
-      <c r="AF13" s="17">
-        <f>AE13-AB13</f>
-        <v/>
+      <c r="AF13" s="17" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="AG13" s="10" t="inlineStr">
         <is>
@@ -5602,9 +5462,8 @@
       <c r="AH13" s="18" t="n">
         <v>9927.808999999999</v>
       </c>
-      <c r="AI13" s="17">
-        <f>AH13-AE13</f>
-        <v/>
+      <c r="AI13" s="17" t="n">
+        <v>0.01199999999880674</v>
       </c>
       <c r="AJ13" s="10" t="inlineStr">
         <is>
@@ -5614,9 +5473,8 @@
       <c r="AK13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="AL13" s="17">
-        <f>AK13-AH13</f>
-        <v/>
+      <c r="AL13" s="17" t="n">
+        <v>-0.009000000000014552</v>
       </c>
       <c r="AM13" s="10" t="inlineStr">
         <is>
@@ -5626,9 +5484,8 @@
       <c r="AN13" s="18" t="n">
         <v>9927.808999999999</v>
       </c>
-      <c r="AO13" s="17">
-        <f>AN13-AK13</f>
-        <v/>
+      <c r="AO13" s="17" t="n">
+        <v>0.009000000000014552</v>
       </c>
       <c r="AP13" s="10" t="inlineStr">
         <is>
@@ -5638,9 +5495,8 @@
       <c r="AQ13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="AR13" s="17">
-        <f>AQ13-AN13</f>
-        <v/>
+      <c r="AR13" s="17" t="n">
+        <v>-0.009000000000014552</v>
       </c>
       <c r="AS13" s="10" t="inlineStr">
         <is>
@@ -5650,9 +5506,8 @@
       <c r="AT13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="AU13" s="17">
-        <f>AT13-AQ13</f>
-        <v/>
+      <c r="AU13" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AV13" s="10" t="inlineStr">
         <is>
@@ -5662,9 +5517,8 @@
       <c r="AW13" s="18" t="n">
         <v>9927.798000000001</v>
       </c>
-      <c r="AX13" s="17">
-        <f>AW13-AT13</f>
-        <v/>
+      <c r="AX13" s="17" t="n">
+        <v>-0.001999999998588464</v>
       </c>
       <c r="AY13" s="10" t="inlineStr">
         <is>
@@ -5674,9 +5528,8 @@
       <c r="AZ13" s="18" t="n">
         <v>9927.790999999999</v>
       </c>
-      <c r="BA13" s="17">
-        <f>AZ13-AW13</f>
-        <v/>
+      <c r="BA13" s="17" t="n">
+        <v>-0.007000000001426088</v>
       </c>
       <c r="BB13" s="10" t="inlineStr">
         <is>
@@ -5686,9 +5539,8 @@
       <c r="BC13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="BD13" s="17">
-        <f>BC13-AZ13</f>
-        <v/>
+      <c r="BD13" s="17" t="n">
+        <v>0.009000000000014552</v>
       </c>
       <c r="BE13" s="10" t="inlineStr">
         <is>
@@ -5698,9 +5550,8 @@
       <c r="BF13" s="18" t="n">
         <v>9927.803</v>
       </c>
-      <c r="BG13" s="17">
-        <f>BF13-BC13</f>
-        <v/>
+      <c r="BG13" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="BH13" s="10" t="inlineStr">
         <is>
@@ -5710,9 +5561,8 @@
       <c r="BI13" s="18" t="n">
         <v>9927.797</v>
       </c>
-      <c r="BJ13" s="17">
-        <f>BI13-BF13</f>
-        <v/>
+      <c r="BJ13" s="17" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="BK13" s="10" t="inlineStr">
         <is>
@@ -5722,9 +5572,8 @@
       <c r="BL13" s="18" t="n">
         <v>9927.799000000001</v>
       </c>
-      <c r="BM13" s="17">
-        <f>BL13-BI13</f>
-        <v/>
+      <c r="BM13" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="BN13" s="10" t="inlineStr">
         <is>
@@ -5734,9 +5583,8 @@
       <c r="BO13" s="18" t="n">
         <v>9927.804</v>
       </c>
-      <c r="BP13" s="17">
-        <f>BO13-BL13</f>
-        <v/>
+      <c r="BP13" s="17" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="BQ13" s="10" t="inlineStr">
         <is>
@@ -5746,9 +5594,8 @@
       <c r="BR13" s="18" t="n">
         <v>9927.806</v>
       </c>
-      <c r="BS13" s="17">
-        <f>BR13-BO13</f>
-        <v/>
+      <c r="BS13" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="BT13" s="10" t="inlineStr">
         <is>
@@ -5758,9 +5605,8 @@
       <c r="BU13" s="18" t="n">
         <v>9927.799999999999</v>
       </c>
-      <c r="BV13" s="17">
-        <f>BU13-BR13</f>
-        <v/>
+      <c r="BV13" s="17" t="n">
+        <v>-0.006000000001222361</v>
       </c>
       <c r="BW13" s="10" t="inlineStr">
         <is>
@@ -5770,9 +5616,8 @@
       <c r="BX13" s="18" t="n">
         <v>9927.806</v>
       </c>
-      <c r="BY13" s="17">
-        <f>BX13-BU13</f>
-        <v/>
+      <c r="BY13" s="17" t="n">
+        <v>0.006000000001222361</v>
       </c>
       <c r="BZ13" s="10" t="inlineStr">
         <is>
@@ -5782,9 +5627,8 @@
       <c r="CA13" s="18" t="n">
         <v>9927.808999999999</v>
       </c>
-      <c r="CB13" s="17">
-        <f>CA13-BX13</f>
-        <v/>
+      <c r="CB13" s="17" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="CC13" s="10" t="inlineStr">
         <is>
@@ -5794,9 +5638,8 @@
       <c r="CD13" s="18" t="n">
         <v>9927.797</v>
       </c>
-      <c r="CE13" s="17">
-        <f>CD13-CA13</f>
-        <v/>
+      <c r="CE13" s="17" t="n">
+        <v>-0.01199999999880674</v>
       </c>
       <c r="CF13" s="10" t="inlineStr">
         <is>
@@ -5843,26 +5686,25 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP13" t="n">
+      <c r="CO13" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP13" s="76" t="n">
         <v>9927.808000000001</v>
       </c>
-      <c r="CQ13" t="n">
+      <c r="CQ13" s="77" t="n">
         <v>0.01100000000042201</v>
       </c>
-      <c r="CR13" s="14" t="n"/>
-      <c r="CS13" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT13" s="17">
-        <f>CD13-E13</f>
-        <v/>
+      <c r="CR13" s="20" t="n"/>
+      <c r="CS13" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT13" s="17" t="n">
+        <v>-0.003</v>
       </c>
       <c r="CU13" s="14" t="n"/>
       <c r="CV13" s="10" t="inlineStr">
@@ -5870,9 +5712,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW13" s="13">
-        <f>CQ13*12</f>
-        <v/>
+      <c r="CW13" s="13" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="14">
@@ -5901,9 +5742,8 @@
       <c r="G14" s="21" t="n">
         <v>60.097</v>
       </c>
-      <c r="H14" s="17">
-        <f>G14-E14</f>
-        <v/>
+      <c r="H14" s="17" t="n">
+        <v>-0.003999999999997783</v>
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
@@ -5913,9 +5753,8 @@
       <c r="J14" s="21" t="n">
         <v>60.099</v>
       </c>
-      <c r="K14" s="17">
-        <f>J14-G14</f>
-        <v/>
+      <c r="K14" s="17" t="n">
+        <v>0.001999999999995339</v>
       </c>
       <c r="L14" s="11" t="inlineStr">
         <is>
@@ -5925,9 +5764,8 @@
       <c r="M14" s="21" t="n">
         <v>60.097</v>
       </c>
-      <c r="N14" s="17">
-        <f>M14-J14</f>
-        <v/>
+      <c r="N14" s="17" t="n">
+        <v>-0.001999999999995339</v>
       </c>
       <c r="O14" s="11" t="inlineStr">
         <is>
@@ -5937,9 +5775,8 @@
       <c r="P14" s="21" t="n">
         <v>60.104</v>
       </c>
-      <c r="Q14" s="17">
-        <f>P14-M14</f>
-        <v/>
+      <c r="Q14" s="17" t="n">
+        <v>0.006999999999997897</v>
       </c>
       <c r="R14" s="11" t="inlineStr">
         <is>
@@ -5949,9 +5786,8 @@
       <c r="S14" s="21" t="n">
         <v>60.096</v>
       </c>
-      <c r="T14" s="17">
-        <f>S14-P14</f>
-        <v/>
+      <c r="T14" s="17" t="n">
+        <v>-0.008000000000002672</v>
       </c>
       <c r="U14" s="11" t="inlineStr">
         <is>
@@ -5961,9 +5797,8 @@
       <c r="V14" s="21" t="n">
         <v>60.098</v>
       </c>
-      <c r="W14" s="17">
-        <f>V14-S14</f>
-        <v/>
+      <c r="W14" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="X14" s="11" t="inlineStr">
         <is>
@@ -5973,9 +5808,8 @@
       <c r="Y14" s="21" t="n">
         <v>60.099</v>
       </c>
-      <c r="Z14" s="17">
-        <f>Y14-V14</f>
-        <v/>
+      <c r="Z14" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="AA14" s="11" t="inlineStr">
         <is>
@@ -5985,9 +5819,8 @@
       <c r="AB14" s="21" t="n">
         <v>60.106</v>
       </c>
-      <c r="AC14" s="17">
-        <f>AB14-Y14</f>
-        <v/>
+      <c r="AC14" s="17" t="n">
+        <v>0.007000000000005002</v>
       </c>
       <c r="AD14" s="11" t="inlineStr">
         <is>
@@ -5997,9 +5830,8 @@
       <c r="AE14" s="21" t="n">
         <v>60.106</v>
       </c>
-      <c r="AF14" s="17">
-        <f>AE14-AB14</f>
-        <v/>
+      <c r="AF14" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AG14" s="11" t="inlineStr">
         <is>
@@ -6009,9 +5841,8 @@
       <c r="AH14" s="21" t="n">
         <v>60.097</v>
       </c>
-      <c r="AI14" s="17">
-        <f>AH14-AE14</f>
-        <v/>
+      <c r="AI14" s="17" t="n">
+        <v>-0.009000000000000341</v>
       </c>
       <c r="AJ14" s="11" t="inlineStr">
         <is>
@@ -6021,9 +5852,8 @@
       <c r="AK14" s="21" t="n">
         <v>60.098</v>
       </c>
-      <c r="AL14" s="17">
-        <f>AK14-AH14</f>
-        <v/>
+      <c r="AL14" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="AM14" s="11" t="inlineStr">
         <is>
@@ -6033,9 +5863,8 @@
       <c r="AN14" s="21" t="n">
         <v>60.099</v>
       </c>
-      <c r="AO14" s="17">
-        <f>AN14-AK14</f>
-        <v/>
+      <c r="AO14" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="AP14" s="11" t="inlineStr">
         <is>
@@ -6045,9 +5874,8 @@
       <c r="AQ14" s="21" t="n">
         <v>60.101</v>
       </c>
-      <c r="AR14" s="17">
-        <f>AQ14-AN14</f>
-        <v/>
+      <c r="AR14" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="AS14" s="11" t="inlineStr">
         <is>
@@ -6057,9 +5885,8 @@
       <c r="AT14" s="21" t="n">
         <v>60.097</v>
       </c>
-      <c r="AU14" s="17">
-        <f>AT14-AQ14</f>
-        <v/>
+      <c r="AU14" s="17" t="n">
+        <v>-0.003999999999997783</v>
       </c>
       <c r="AV14" s="11" t="inlineStr">
         <is>
@@ -6069,9 +5896,8 @@
       <c r="AW14" s="21" t="n">
         <v>60.102</v>
       </c>
-      <c r="AX14" s="17">
-        <f>AW14-AT14</f>
-        <v/>
+      <c r="AX14" s="17" t="n">
+        <v>0.004999999999995453</v>
       </c>
       <c r="AY14" s="11" t="inlineStr">
         <is>
@@ -6081,9 +5907,8 @@
       <c r="AZ14" s="21" t="n">
         <v>60.102</v>
       </c>
-      <c r="BA14" s="17">
-        <f>AZ14-AW14</f>
-        <v/>
+      <c r="BA14" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BB14" s="11" t="inlineStr">
         <is>
@@ -6093,9 +5918,8 @@
       <c r="BC14" s="21" t="n">
         <v>60.102</v>
       </c>
-      <c r="BD14" s="17">
-        <f>BC14-AZ14</f>
-        <v/>
+      <c r="BD14" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BE14" s="11" t="inlineStr">
         <is>
@@ -6105,9 +5929,8 @@
       <c r="BF14" s="21" t="n">
         <v>60.101</v>
       </c>
-      <c r="BG14" s="17">
-        <f>BF14-BC14</f>
-        <v/>
+      <c r="BG14" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BH14" s="11" t="inlineStr">
         <is>
@@ -6117,9 +5940,8 @@
       <c r="BI14" s="21" t="n">
         <v>60.101</v>
       </c>
-      <c r="BJ14" s="17">
-        <f>BI14-BF14</f>
-        <v/>
+      <c r="BJ14" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BK14" s="11" t="inlineStr">
         <is>
@@ -6129,9 +5951,8 @@
       <c r="BL14" s="21" t="n">
         <v>60.102</v>
       </c>
-      <c r="BM14" s="17">
-        <f>BL14-BI14</f>
-        <v/>
+      <c r="BM14" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="BN14" s="11" t="inlineStr">
         <is>
@@ -6141,9 +5962,8 @@
       <c r="BO14" s="21" t="n">
         <v>60.103</v>
       </c>
-      <c r="BP14" s="17">
-        <f>BO14-BL14</f>
-        <v/>
+      <c r="BP14" s="17" t="n">
+        <v>0.001000000000004775</v>
       </c>
       <c r="BQ14" s="11" t="inlineStr">
         <is>
@@ -6153,9 +5973,8 @@
       <c r="BR14" s="21" t="n">
         <v>60.101</v>
       </c>
-      <c r="BS14" s="17">
-        <f>BR14-BO14</f>
-        <v/>
+      <c r="BS14" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="BT14" s="11" t="inlineStr">
         <is>
@@ -6165,9 +5984,8 @@
       <c r="BU14" s="21" t="n">
         <v>60.101</v>
       </c>
-      <c r="BV14" s="17">
-        <f>BU14-BR14</f>
-        <v/>
+      <c r="BV14" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BW14" s="11" t="inlineStr">
         <is>
@@ -6177,9 +5995,8 @@
       <c r="BX14" s="21" t="n">
         <v>60.098</v>
       </c>
-      <c r="BY14" s="17">
-        <f>BX14-BU14</f>
-        <v/>
+      <c r="BY14" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="BZ14" s="11" t="inlineStr">
         <is>
@@ -6189,9 +6006,8 @@
       <c r="CA14" s="21" t="n">
         <v>60.101</v>
       </c>
-      <c r="CB14" s="17">
-        <f>CA14-BX14</f>
-        <v/>
+      <c r="CB14" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="CC14" s="11" t="inlineStr">
         <is>
@@ -6201,9 +6017,8 @@
       <c r="CD14" s="21" t="n">
         <v>60.103</v>
       </c>
-      <c r="CE14" s="17">
-        <f>CD14-CA14</f>
-        <v/>
+      <c r="CE14" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="CF14" s="11" t="inlineStr">
         <is>
@@ -6250,26 +6065,25 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO14" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP14" t="n">
+      <c r="CO14" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP14" s="79" t="n">
         <v>60.097</v>
       </c>
-      <c r="CQ14" t="n">
+      <c r="CQ14" s="80" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="CR14" s="14" t="n"/>
-      <c r="CS14" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT14" s="24">
-        <f>CD14-E14</f>
-        <v/>
+      <c r="CR14" s="20" t="n"/>
+      <c r="CS14" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT14" s="24" t="n">
+        <v>0.002</v>
       </c>
       <c r="CU14" s="14" t="n"/>
       <c r="CV14" s="11" t="inlineStr">
@@ -6277,9 +6091,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW14" s="29">
-        <f>CQ14*12</f>
-        <v/>
+      <c r="CW14" s="29" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -6310,9 +6123,8 @@
       <c r="G15" s="17" t="n">
         <v>10077.123</v>
       </c>
-      <c r="H15" s="23">
-        <f>G15-E15</f>
-        <v/>
+      <c r="H15" s="23" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
@@ -6322,9 +6134,8 @@
       <c r="J15" s="17" t="n">
         <v>10077.121</v>
       </c>
-      <c r="K15" s="23">
-        <f>J15-G15</f>
-        <v/>
+      <c r="K15" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="L15" s="10" t="inlineStr">
         <is>
@@ -6334,9 +6145,8 @@
       <c r="M15" s="17" t="n">
         <v>10077.121</v>
       </c>
-      <c r="N15" s="23">
-        <f>M15-J15</f>
-        <v/>
+      <c r="N15" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="O15" s="10" t="inlineStr">
         <is>
@@ -6346,9 +6156,8 @@
       <c r="P15" s="17" t="n">
         <v>10077.123</v>
       </c>
-      <c r="Q15" s="23">
-        <f>P15-M15</f>
-        <v/>
+      <c r="Q15" s="23" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="R15" s="10" t="inlineStr">
         <is>
@@ -6358,9 +6167,8 @@
       <c r="S15" s="17" t="n">
         <v>10077.118</v>
       </c>
-      <c r="T15" s="23">
-        <f>S15-P15</f>
-        <v/>
+      <c r="T15" s="23" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="U15" s="10" t="inlineStr">
         <is>
@@ -6370,9 +6178,8 @@
       <c r="V15" s="17" t="n">
         <v>10077.123</v>
       </c>
-      <c r="W15" s="23">
-        <f>V15-S15</f>
-        <v/>
+      <c r="W15" s="23" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="X15" s="10" t="inlineStr">
         <is>
@@ -6382,9 +6189,8 @@
       <c r="Y15" s="17" t="n">
         <v>10077.123</v>
       </c>
-      <c r="Z15" s="23">
-        <f>Y15-V15</f>
-        <v/>
+      <c r="Z15" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AA15" s="10" t="inlineStr">
         <is>
@@ -6394,9 +6200,8 @@
       <c r="AB15" s="17" t="n">
         <v>10077.122</v>
       </c>
-      <c r="AC15" s="23">
-        <f>AB15-Y15</f>
-        <v/>
+      <c r="AC15" s="23" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="AD15" s="10" t="inlineStr">
         <is>
@@ -6406,9 +6211,8 @@
       <c r="AE15" s="17" t="n">
         <v>10077.123</v>
       </c>
-      <c r="AF15" s="23">
-        <f>AE15-AB15</f>
-        <v/>
+      <c r="AF15" s="23" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="AG15" s="10" t="inlineStr">
         <is>
@@ -6418,9 +6222,8 @@
       <c r="AH15" s="17" t="n">
         <v>10077.116</v>
       </c>
-      <c r="AI15" s="23">
-        <f>AH15-AE15</f>
-        <v/>
+      <c r="AI15" s="23" t="n">
+        <v>-0.006999999999607098</v>
       </c>
       <c r="AJ15" s="10" t="inlineStr">
         <is>
@@ -6430,9 +6233,8 @@
       <c r="AK15" s="17" t="n">
         <v>10077.124</v>
       </c>
-      <c r="AL15" s="23">
-        <f>AK15-AH15</f>
-        <v/>
+      <c r="AL15" s="23" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="AM15" s="10" t="inlineStr">
         <is>
@@ -6442,9 +6244,8 @@
       <c r="AN15" s="17" t="n">
         <v>10077.117</v>
       </c>
-      <c r="AO15" s="23">
-        <f>AN15-AK15</f>
-        <v/>
+      <c r="AO15" s="23" t="n">
+        <v>-0.006999999999607098</v>
       </c>
       <c r="AP15" s="10" t="inlineStr">
         <is>
@@ -6454,9 +6255,8 @@
       <c r="AQ15" s="17" t="n">
         <v>10077.124</v>
       </c>
-      <c r="AR15" s="23">
-        <f>AQ15-AN15</f>
-        <v/>
+      <c r="AR15" s="23" t="n">
+        <v>0.006999999999607098</v>
       </c>
       <c r="AS15" s="10" t="inlineStr">
         <is>
@@ -6466,9 +6266,8 @@
       <c r="AT15" s="17" t="n">
         <v>10077.117</v>
       </c>
-      <c r="AU15" s="23">
-        <f>AT15-AQ15</f>
-        <v/>
+      <c r="AU15" s="23" t="n">
+        <v>-0.006999999999607098</v>
       </c>
       <c r="AV15" s="10" t="inlineStr">
         <is>
@@ -6478,9 +6277,8 @@
       <c r="AW15" s="17" t="n">
         <v>10077.122</v>
       </c>
-      <c r="AX15" s="23">
-        <f>AW15-AT15</f>
-        <v/>
+      <c r="AX15" s="23" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="AY15" s="10" t="inlineStr">
         <is>
@@ -6490,9 +6288,8 @@
       <c r="AZ15" s="17" t="n">
         <v>10077.122</v>
       </c>
-      <c r="BA15" s="23">
-        <f>AZ15-AW15</f>
-        <v/>
+      <c r="BA15" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="BB15" s="10" t="inlineStr">
         <is>
@@ -6502,9 +6299,8 @@
       <c r="BC15" s="17" t="n">
         <v>10077.122</v>
       </c>
-      <c r="BD15" s="23">
-        <f>BC15-AZ15</f>
-        <v/>
+      <c r="BD15" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="BE15" s="10" t="inlineStr">
         <is>
@@ -6514,9 +6310,8 @@
       <c r="BF15" s="17" t="n">
         <v>10077.115</v>
       </c>
-      <c r="BG15" s="23">
-        <f>BF15-BC15</f>
-        <v/>
+      <c r="BG15" s="23" t="n">
+        <v>-0.006999999999607098</v>
       </c>
       <c r="BH15" s="10" t="inlineStr">
         <is>
@@ -6526,9 +6321,8 @@
       <c r="BI15" s="17" t="n">
         <v>10077.12</v>
       </c>
-      <c r="BJ15" s="23">
-        <f>BI15-BF15</f>
-        <v/>
+      <c r="BJ15" s="23" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="BK15" s="10" t="inlineStr">
         <is>
@@ -6538,9 +6332,8 @@
       <c r="BL15" s="17" t="n">
         <v>10077.123</v>
       </c>
-      <c r="BM15" s="23">
-        <f>BL15-BI15</f>
-        <v/>
+      <c r="BM15" s="23" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="BN15" s="10" t="inlineStr">
         <is>
@@ -6550,9 +6343,8 @@
       <c r="BO15" s="17" t="n">
         <v>10077.119</v>
       </c>
-      <c r="BP15" s="23">
-        <f>BO15-BL15</f>
-        <v/>
+      <c r="BP15" s="23" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="BQ15" s="10" t="inlineStr">
         <is>
@@ -6562,9 +6354,8 @@
       <c r="BR15" s="17" t="n">
         <v>10077.118</v>
       </c>
-      <c r="BS15" s="23">
-        <f>BR15-BO15</f>
-        <v/>
+      <c r="BS15" s="23" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="BT15" s="10" t="inlineStr">
         <is>
@@ -6574,9 +6365,8 @@
       <c r="BU15" s="17" t="n">
         <v>10077.12</v>
       </c>
-      <c r="BV15" s="23">
-        <f>BU15-BR15</f>
-        <v/>
+      <c r="BV15" s="23" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="BW15" s="10" t="inlineStr">
         <is>
@@ -6586,9 +6376,8 @@
       <c r="BX15" s="17" t="n">
         <v>10077.121</v>
       </c>
-      <c r="BY15" s="23">
-        <f>BX15-BU15</f>
-        <v/>
+      <c r="BY15" s="23" t="n">
+        <v>0.0009999999983847374</v>
       </c>
       <c r="BZ15" s="10" t="inlineStr">
         <is>
@@ -6598,9 +6387,8 @@
       <c r="CA15" s="17" t="n">
         <v>10077.115</v>
       </c>
-      <c r="CB15" s="23">
-        <f>CA15-BX15</f>
-        <v/>
+      <c r="CB15" s="23" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="CC15" s="10" t="inlineStr">
         <is>
@@ -6610,9 +6398,8 @@
       <c r="CD15" s="17" t="n">
         <v>10077.122</v>
       </c>
-      <c r="CE15" s="23">
-        <f>CD15-CA15</f>
-        <v/>
+      <c r="CE15" s="23" t="n">
+        <v>0.006999999999607098</v>
       </c>
       <c r="CF15" s="10" t="inlineStr">
         <is>
@@ -6622,9 +6409,8 @@
       <c r="CG15" s="17" t="n">
         <v>10077.119</v>
       </c>
-      <c r="CH15" s="23">
-        <f>CG15-CD15</f>
-        <v/>
+      <c r="CH15" s="23" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="CI15" s="10" t="inlineStr">
         <is>
@@ -6634,9 +6420,8 @@
       <c r="CJ15" s="17" t="n">
         <v>10077.116</v>
       </c>
-      <c r="CK15" s="23">
-        <f>CJ15-CG15</f>
-        <v/>
+      <c r="CK15" s="23" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="CL15" s="10" t="inlineStr">
         <is>
@@ -6646,30 +6431,28 @@
       <c r="CM15" s="17" t="n">
         <v>10077.118</v>
       </c>
-      <c r="CN15" s="23">
-        <f>CM15-CJ15</f>
-        <v/>
-      </c>
-      <c r="CO15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP15" t="n">
+      <c r="CN15" s="23" t="n">
+        <v>0.002000000000407454</v>
+      </c>
+      <c r="CO15" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP15" s="72" t="n">
         <v>10077.114</v>
       </c>
-      <c r="CQ15" t="n">
+      <c r="CQ15" s="73" t="n">
         <v>-0.004000000000814907</v>
       </c>
-      <c r="CR15" s="14" t="n"/>
-      <c r="CS15" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT15" s="17">
-        <f>CJ15-E15</f>
-        <v/>
+      <c r="CR15" s="20" t="n"/>
+      <c r="CS15" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT15" s="17" t="n">
+        <v>-0.002</v>
       </c>
       <c r="CU15" s="14" t="n"/>
       <c r="CV15" s="10" t="inlineStr">
@@ -6677,9 +6460,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW15" s="13">
-        <f>CQ15*12</f>
-        <v/>
+      <c r="CW15" s="13" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
@@ -6708,9 +6490,8 @@
       <c r="G16" s="18" t="n">
         <v>9993.545</v>
       </c>
-      <c r="H16" s="17">
-        <f>G16-E16</f>
-        <v/>
+      <c r="H16" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
@@ -6720,9 +6501,8 @@
       <c r="J16" s="18" t="n">
         <v>9993.546</v>
       </c>
-      <c r="K16" s="17">
-        <f>J16-G16</f>
-        <v/>
+      <c r="K16" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="L16" s="10" t="inlineStr">
         <is>
@@ -6732,9 +6512,8 @@
       <c r="M16" s="18" t="n">
         <v>9993.545</v>
       </c>
-      <c r="N16" s="17">
-        <f>M16-J16</f>
-        <v/>
+      <c r="N16" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="O16" s="10" t="inlineStr">
         <is>
@@ -6744,9 +6523,8 @@
       <c r="P16" s="18" t="n">
         <v>9993.547</v>
       </c>
-      <c r="Q16" s="17">
-        <f>P16-M16</f>
-        <v/>
+      <c r="Q16" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="R16" s="10" t="inlineStr">
         <is>
@@ -6756,9 +6534,8 @@
       <c r="S16" s="18" t="n">
         <v>9993.545</v>
       </c>
-      <c r="T16" s="17">
-        <f>S16-P16</f>
-        <v/>
+      <c r="T16" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="U16" s="10" t="inlineStr">
         <is>
@@ -6768,9 +6545,8 @@
       <c r="V16" s="18" t="n">
         <v>9993.545</v>
       </c>
-      <c r="W16" s="17">
-        <f>V16-S16</f>
-        <v/>
+      <c r="W16" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="X16" s="10" t="inlineStr">
         <is>
@@ -6780,9 +6556,8 @@
       <c r="Y16" s="18" t="n">
         <v>9993.546</v>
       </c>
-      <c r="Z16" s="17">
-        <f>Y16-V16</f>
-        <v/>
+      <c r="Z16" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="AA16" s="10" t="inlineStr">
         <is>
@@ -6792,9 +6567,8 @@
       <c r="AB16" s="18" t="n">
         <v>9993.546</v>
       </c>
-      <c r="AC16" s="17">
-        <f>AB16-Y16</f>
-        <v/>
+      <c r="AC16" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AD16" s="10" t="inlineStr">
         <is>
@@ -6804,9 +6578,8 @@
       <c r="AE16" s="18" t="n">
         <v>9993.544</v>
       </c>
-      <c r="AF16" s="17">
-        <f>AE16-AB16</f>
-        <v/>
+      <c r="AF16" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AG16" s="10" t="inlineStr">
         <is>
@@ -6816,9 +6589,8 @@
       <c r="AH16" s="18" t="n">
         <v>9993.549000000001</v>
       </c>
-      <c r="AI16" s="17">
-        <f>AH16-AE16</f>
-        <v/>
+      <c r="AI16" s="17" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="AJ16" s="10" t="inlineStr">
         <is>
@@ -6828,9 +6600,8 @@
       <c r="AK16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="AL16" s="17">
-        <f>AK16-AH16</f>
-        <v/>
+      <c r="AL16" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="AM16" s="10" t="inlineStr">
         <is>
@@ -6840,9 +6611,8 @@
       <c r="AN16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="AO16" s="17">
-        <f>AN16-AK16</f>
-        <v/>
+      <c r="AO16" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AP16" s="10" t="inlineStr">
         <is>
@@ -6852,9 +6622,8 @@
       <c r="AQ16" s="18" t="n">
         <v>9993.544</v>
       </c>
-      <c r="AR16" s="17">
-        <f>AQ16-AN16</f>
-        <v/>
+      <c r="AR16" s="17" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="AS16" s="10" t="inlineStr">
         <is>
@@ -6864,9 +6633,8 @@
       <c r="AT16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="AU16" s="17">
-        <f>AT16-AQ16</f>
-        <v/>
+      <c r="AU16" s="17" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="AV16" s="10" t="inlineStr">
         <is>
@@ -6876,9 +6644,8 @@
       <c r="AW16" s="18" t="n">
         <v>9993.547</v>
       </c>
-      <c r="AX16" s="17">
-        <f>AW16-AT16</f>
-        <v/>
+      <c r="AX16" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="AY16" s="10" t="inlineStr">
         <is>
@@ -6888,9 +6655,8 @@
       <c r="AZ16" s="18" t="n">
         <v>9993.544</v>
       </c>
-      <c r="BA16" s="17">
-        <f>AZ16-AW16</f>
-        <v/>
+      <c r="BA16" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="BB16" s="10" t="inlineStr">
         <is>
@@ -6900,9 +6666,8 @@
       <c r="BC16" s="18" t="n">
         <v>9993.547</v>
       </c>
-      <c r="BD16" s="17">
-        <f>BC16-AZ16</f>
-        <v/>
+      <c r="BD16" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="BE16" s="10" t="inlineStr">
         <is>
@@ -6912,9 +6677,8 @@
       <c r="BF16" s="18" t="n">
         <v>9993.549000000001</v>
       </c>
-      <c r="BG16" s="17">
-        <f>BF16-BC16</f>
-        <v/>
+      <c r="BG16" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="BH16" s="10" t="inlineStr">
         <is>
@@ -6924,9 +6688,8 @@
       <c r="BI16" s="18" t="n">
         <v>9993.552</v>
       </c>
-      <c r="BJ16" s="17">
-        <f>BI16-BF16</f>
-        <v/>
+      <c r="BJ16" s="17" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="BK16" s="10" t="inlineStr">
         <is>
@@ -6936,9 +6699,8 @@
       <c r="BL16" s="18" t="n">
         <v>9993.549999999999</v>
       </c>
-      <c r="BM16" s="17">
-        <f>BL16-BI16</f>
-        <v/>
+      <c r="BM16" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="BN16" s="10" t="inlineStr">
         <is>
@@ -6948,9 +6710,8 @@
       <c r="BO16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="BP16" s="17">
-        <f>BO16-BL16</f>
-        <v/>
+      <c r="BP16" s="17" t="n">
+        <v>-0.001999999998588464</v>
       </c>
       <c r="BQ16" s="10" t="inlineStr">
         <is>
@@ -6960,9 +6721,8 @@
       <c r="BR16" s="18" t="n">
         <v>9993.549000000001</v>
       </c>
-      <c r="BS16" s="17">
-        <f>BR16-BO16</f>
-        <v/>
+      <c r="BS16" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="BT16" s="10" t="inlineStr">
         <is>
@@ -6972,9 +6732,8 @@
       <c r="BU16" s="18" t="n">
         <v>9993.549999999999</v>
       </c>
-      <c r="BV16" s="17">
-        <f>BU16-BR16</f>
-        <v/>
+      <c r="BV16" s="17" t="n">
+        <v>0.0009999999983847374</v>
       </c>
       <c r="BW16" s="10" t="inlineStr">
         <is>
@@ -6984,9 +6743,8 @@
       <c r="BX16" s="18" t="n">
         <v>9993.547</v>
       </c>
-      <c r="BY16" s="17">
-        <f>BX16-BU16</f>
-        <v/>
+      <c r="BY16" s="17" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="BZ16" s="10" t="inlineStr">
         <is>
@@ -6996,9 +6754,8 @@
       <c r="CA16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="CB16" s="17">
-        <f>CA16-BX16</f>
-        <v/>
+      <c r="CB16" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="CC16" s="10" t="inlineStr">
         <is>
@@ -7008,9 +6765,8 @@
       <c r="CD16" s="18" t="n">
         <v>9993.547</v>
       </c>
-      <c r="CE16" s="17">
-        <f>CD16-CA16</f>
-        <v/>
+      <c r="CE16" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="CF16" s="10" t="inlineStr">
         <is>
@@ -7020,9 +6776,8 @@
       <c r="CG16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="CH16" s="17">
-        <f>CG16-CD16</f>
-        <v/>
+      <c r="CH16" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="CI16" s="10" t="inlineStr">
         <is>
@@ -7032,9 +6787,8 @@
       <c r="CJ16" s="18" t="n">
         <v>9993.548000000001</v>
       </c>
-      <c r="CK16" s="17">
-        <f>CJ16-CG16</f>
-        <v/>
+      <c r="CK16" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CL16" s="10" t="inlineStr">
         <is>
@@ -7044,30 +6798,28 @@
       <c r="CM16" s="18" t="n">
         <v>9993.549999999999</v>
       </c>
-      <c r="CN16" s="17">
-        <f>CM16-CJ16</f>
-        <v/>
-      </c>
-      <c r="CO16" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP16" t="n">
+      <c r="CN16" s="17" t="n">
+        <v>0.001999999998588464</v>
+      </c>
+      <c r="CO16" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP16" s="76" t="n">
         <v>9993.547</v>
       </c>
-      <c r="CQ16" t="n">
+      <c r="CQ16" s="77" t="n">
         <v>-0.002999999998792191</v>
       </c>
-      <c r="CR16" s="14" t="n"/>
-      <c r="CS16" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT16" s="17">
-        <f>CJ16-E16</f>
-        <v/>
+      <c r="CR16" s="20" t="n"/>
+      <c r="CS16" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT16" s="17" t="n">
+        <v>0.007</v>
       </c>
       <c r="CU16" s="14" t="n"/>
       <c r="CV16" s="10" t="inlineStr">
@@ -7075,9 +6827,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW16" s="13">
-        <f>CQ16*12</f>
-        <v/>
+      <c r="CW16" s="13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
@@ -7106,9 +6857,8 @@
       <c r="G17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="H17" s="17">
-        <f>G17-E17</f>
-        <v/>
+      <c r="H17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
@@ -7118,9 +6868,8 @@
       <c r="J17" s="21" t="n">
         <v>57.093</v>
       </c>
-      <c r="K17" s="17">
-        <f>J17-G17</f>
-        <v/>
+      <c r="K17" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="L17" s="11" t="inlineStr">
         <is>
@@ -7130,9 +6879,8 @@
       <c r="M17" s="21" t="n">
         <v>57.093</v>
       </c>
-      <c r="N17" s="17">
-        <f>M17-J17</f>
-        <v/>
+      <c r="N17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="O17" s="11" t="inlineStr">
         <is>
@@ -7142,9 +6890,8 @@
       <c r="P17" s="21" t="n">
         <v>57.094</v>
       </c>
-      <c r="Q17" s="17">
-        <f>P17-M17</f>
-        <v/>
+      <c r="Q17" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="R17" s="11" t="inlineStr">
         <is>
@@ -7154,9 +6901,8 @@
       <c r="S17" s="21" t="n">
         <v>57.089</v>
       </c>
-      <c r="T17" s="17">
-        <f>S17-P17</f>
-        <v/>
+      <c r="T17" s="17" t="n">
+        <v>-0.005000000000002558</v>
       </c>
       <c r="U17" s="11" t="inlineStr">
         <is>
@@ -7166,9 +6912,8 @@
       <c r="V17" s="21" t="n">
         <v>57.093</v>
       </c>
-      <c r="W17" s="17">
-        <f>V17-S17</f>
-        <v/>
+      <c r="W17" s="17" t="n">
+        <v>0.004000000000004889</v>
       </c>
       <c r="X17" s="11" t="inlineStr">
         <is>
@@ -7178,9 +6923,8 @@
       <c r="Y17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="Z17" s="17">
-        <f>Y17-V17</f>
-        <v/>
+      <c r="Z17" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="AA17" s="11" t="inlineStr">
         <is>
@@ -7190,9 +6934,8 @@
       <c r="AB17" s="21" t="n">
         <v>57.097</v>
       </c>
-      <c r="AC17" s="17">
-        <f>AB17-Y17</f>
-        <v/>
+      <c r="AC17" s="17" t="n">
+        <v>0.006000000000000227</v>
       </c>
       <c r="AD17" s="11" t="inlineStr">
         <is>
@@ -7202,9 +6945,8 @@
       <c r="AE17" s="21" t="n">
         <v>57.099</v>
       </c>
-      <c r="AF17" s="17">
-        <f>AE17-AB17</f>
-        <v/>
+      <c r="AF17" s="17" t="n">
+        <v>0.001999999999995339</v>
       </c>
       <c r="AG17" s="11" t="inlineStr">
         <is>
@@ -7214,9 +6956,8 @@
       <c r="AH17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="AI17" s="17">
-        <f>AH17-AE17</f>
-        <v/>
+      <c r="AI17" s="17" t="n">
+        <v>-0.007999999999995566</v>
       </c>
       <c r="AJ17" s="11" t="inlineStr">
         <is>
@@ -7226,9 +6967,8 @@
       <c r="AK17" s="21" t="n">
         <v>57.092</v>
       </c>
-      <c r="AL17" s="17">
-        <f>AK17-AH17</f>
-        <v/>
+      <c r="AL17" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="AM17" s="11" t="inlineStr">
         <is>
@@ -7238,9 +6978,8 @@
       <c r="AN17" s="21" t="n">
         <v>57.09</v>
       </c>
-      <c r="AO17" s="17">
-        <f>AN17-AK17</f>
-        <v/>
+      <c r="AO17" s="17" t="n">
+        <v>-0.001999999999995339</v>
       </c>
       <c r="AP17" s="11" t="inlineStr">
         <is>
@@ -7250,9 +6989,8 @@
       <c r="AQ17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="AR17" s="17">
-        <f>AQ17-AN17</f>
-        <v/>
+      <c r="AR17" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="AS17" s="11" t="inlineStr">
         <is>
@@ -7262,9 +7000,8 @@
       <c r="AT17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="AU17" s="17">
-        <f>AT17-AQ17</f>
-        <v/>
+      <c r="AU17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AV17" s="11" t="inlineStr">
         <is>
@@ -7274,9 +7011,8 @@
       <c r="AW17" s="21" t="n">
         <v>57.093</v>
       </c>
-      <c r="AX17" s="17">
-        <f>AW17-AT17</f>
-        <v/>
+      <c r="AX17" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="AY17" s="11" t="inlineStr">
         <is>
@@ -7286,9 +7022,8 @@
       <c r="AZ17" s="21" t="n">
         <v>57.094</v>
       </c>
-      <c r="BA17" s="17">
-        <f>AZ17-AW17</f>
-        <v/>
+      <c r="BA17" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="BB17" s="11" t="inlineStr">
         <is>
@@ -7298,9 +7033,8 @@
       <c r="BC17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="BD17" s="17">
-        <f>BC17-AZ17</f>
-        <v/>
+      <c r="BD17" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="BE17" s="11" t="inlineStr">
         <is>
@@ -7310,9 +7044,8 @@
       <c r="BF17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="BG17" s="17">
-        <f>BF17-BC17</f>
-        <v/>
+      <c r="BG17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BH17" s="11" t="inlineStr">
         <is>
@@ -7322,9 +7055,8 @@
       <c r="BI17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="BJ17" s="17">
-        <f>BI17-BF17</f>
-        <v/>
+      <c r="BJ17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BK17" s="11" t="inlineStr">
         <is>
@@ -7334,9 +7066,8 @@
       <c r="BL17" s="21" t="n">
         <v>57.095</v>
       </c>
-      <c r="BM17" s="17">
-        <f>BL17-BI17</f>
-        <v/>
+      <c r="BM17" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="BN17" s="11" t="inlineStr">
         <is>
@@ -7346,9 +7077,8 @@
       <c r="BO17" s="21" t="n">
         <v>57.094</v>
       </c>
-      <c r="BP17" s="17">
-        <f>BO17-BL17</f>
-        <v/>
+      <c r="BP17" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BQ17" s="11" t="inlineStr">
         <is>
@@ -7358,9 +7088,8 @@
       <c r="BR17" s="21" t="n">
         <v>57.094</v>
       </c>
-      <c r="BS17" s="17">
-        <f>BR17-BO17</f>
-        <v/>
+      <c r="BS17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BT17" s="11" t="inlineStr">
         <is>
@@ -7370,9 +7099,8 @@
       <c r="BU17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="BV17" s="17">
-        <f>BU17-BR17</f>
-        <v/>
+      <c r="BV17" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="BW17" s="11" t="inlineStr">
         <is>
@@ -7382,9 +7110,8 @@
       <c r="BX17" s="21" t="n">
         <v>57.091</v>
       </c>
-      <c r="BY17" s="17">
-        <f>BX17-BU17</f>
-        <v/>
+      <c r="BY17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BZ17" s="11" t="inlineStr">
         <is>
@@ -7394,9 +7121,8 @@
       <c r="CA17" s="21" t="n">
         <v>57.093</v>
       </c>
-      <c r="CB17" s="17">
-        <f>CA17-BX17</f>
-        <v/>
+      <c r="CB17" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="CC17" s="11" t="inlineStr">
         <is>
@@ -7406,9 +7132,8 @@
       <c r="CD17" s="21" t="n">
         <v>57.093</v>
       </c>
-      <c r="CE17" s="17">
-        <f>CD17-CA17</f>
-        <v/>
+      <c r="CE17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CF17" s="11" t="inlineStr">
         <is>
@@ -7418,9 +7143,8 @@
       <c r="CG17" s="21" t="n">
         <v>57.095</v>
       </c>
-      <c r="CH17" s="17">
-        <f>CG17-CD17</f>
-        <v/>
+      <c r="CH17" s="17" t="n">
+        <v>0.001999999999995339</v>
       </c>
       <c r="CI17" s="11" t="inlineStr">
         <is>
@@ -7430,9 +7154,8 @@
       <c r="CJ17" s="21" t="n">
         <v>57.095</v>
       </c>
-      <c r="CK17" s="17">
-        <f>CJ17-CG17</f>
-        <v/>
+      <c r="CK17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CL17" s="11" t="inlineStr">
         <is>
@@ -7442,30 +7165,28 @@
       <c r="CM17" s="21" t="n">
         <v>57.095</v>
       </c>
-      <c r="CN17" s="17">
-        <f>CM17-CJ17</f>
-        <v/>
-      </c>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP17" t="n">
+      <c r="CN17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP17" s="79" t="n">
         <v>57.091</v>
       </c>
-      <c r="CQ17" t="n">
+      <c r="CQ17" s="80" t="n">
         <v>-0.003999999999997783</v>
       </c>
-      <c r="CR17" s="14" t="n"/>
-      <c r="CS17" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT17" s="24">
-        <f>CJ17-E17</f>
-        <v/>
+      <c r="CR17" s="20" t="n"/>
+      <c r="CS17" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT17" s="24" t="n">
+        <v>0.004</v>
       </c>
       <c r="CU17" s="14" t="n"/>
       <c r="CV17" s="11" t="inlineStr">
@@ -7473,9 +7194,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW17" s="29">
-        <f>CQ17*12</f>
-        <v/>
+      <c r="CW17" s="29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
@@ -7506,9 +7226,8 @@
       <c r="G18" s="17" t="n">
         <v>10082.367</v>
       </c>
-      <c r="H18" s="23">
-        <f>G18-E18</f>
-        <v/>
+      <c r="H18" s="23" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
@@ -7518,9 +7237,8 @@
       <c r="J18" s="17" t="n">
         <v>10082.378</v>
       </c>
-      <c r="K18" s="23">
-        <f>J18-G18</f>
-        <v/>
+      <c r="K18" s="23" t="n">
+        <v>0.01100000000042201</v>
       </c>
       <c r="L18" s="10" t="inlineStr">
         <is>
@@ -7530,9 +7248,8 @@
       <c r="M18" s="17" t="n">
         <v>10082.376</v>
       </c>
-      <c r="N18" s="23">
-        <f>M18-J18</f>
-        <v/>
+      <c r="N18" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="O18" s="10" t="inlineStr">
         <is>
@@ -7542,9 +7259,8 @@
       <c r="P18" s="17" t="n">
         <v>10082.376</v>
       </c>
-      <c r="Q18" s="23">
-        <f>P18-M18</f>
-        <v/>
+      <c r="Q18" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R18" s="10" t="inlineStr">
         <is>
@@ -7554,9 +7270,8 @@
       <c r="S18" s="17" t="n">
         <v>10082.374</v>
       </c>
-      <c r="T18" s="23">
-        <f>S18-P18</f>
-        <v/>
+      <c r="T18" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="U18" s="10" t="inlineStr">
         <is>
@@ -7566,9 +7281,8 @@
       <c r="V18" s="17" t="n">
         <v>10082.379</v>
       </c>
-      <c r="W18" s="23">
-        <f>V18-S18</f>
-        <v/>
+      <c r="W18" s="23" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="X18" s="10" t="inlineStr">
         <is>
@@ -7578,9 +7292,8 @@
       <c r="Y18" s="17" t="n">
         <v>10082.377</v>
       </c>
-      <c r="Z18" s="23">
-        <f>Y18-V18</f>
-        <v/>
+      <c r="Z18" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AA18" s="10" t="inlineStr">
         <is>
@@ -7590,9 +7303,8 @@
       <c r="AB18" s="17" t="n">
         <v>10082.377</v>
       </c>
-      <c r="AC18" s="23">
-        <f>AB18-Y18</f>
-        <v/>
+      <c r="AC18" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AD18" s="10" t="inlineStr">
         <is>
@@ -7602,9 +7314,8 @@
       <c r="AE18" s="17" t="n">
         <v>10082.378</v>
       </c>
-      <c r="AF18" s="23">
-        <f>AE18-AB18</f>
-        <v/>
+      <c r="AF18" s="23" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="AG18" s="10" t="inlineStr">
         <is>
@@ -7614,9 +7325,8 @@
       <c r="AH18" s="17" t="n">
         <v>10082.371</v>
       </c>
-      <c r="AI18" s="23">
-        <f>AH18-AE18</f>
-        <v/>
+      <c r="AI18" s="23" t="n">
+        <v>-0.007000000001426088</v>
       </c>
       <c r="AJ18" s="10" t="inlineStr">
         <is>
@@ -7626,9 +7336,8 @@
       <c r="AK18" s="17" t="n">
         <v>10082.381</v>
       </c>
-      <c r="AL18" s="23">
-        <f>AK18-AH18</f>
-        <v/>
+      <c r="AL18" s="23" t="n">
+        <v>0.01000000000021828</v>
       </c>
       <c r="AM18" s="10" t="inlineStr">
         <is>
@@ -7638,9 +7347,8 @@
       <c r="AN18" s="17" t="n">
         <v>10082.373</v>
       </c>
-      <c r="AO18" s="23">
-        <f>AN18-AK18</f>
-        <v/>
+      <c r="AO18" s="23" t="n">
+        <v>-0.007999999999810825</v>
       </c>
       <c r="AP18" s="10" t="inlineStr">
         <is>
@@ -7650,9 +7358,8 @@
       <c r="AQ18" s="17" t="n">
         <v>10082.377</v>
       </c>
-      <c r="AR18" s="23">
-        <f>AQ18-AN18</f>
-        <v/>
+      <c r="AR18" s="23" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="AS18" s="10" t="inlineStr">
         <is>
@@ -7662,9 +7369,8 @@
       <c r="AT18" s="17" t="n">
         <v>10082.375</v>
       </c>
-      <c r="AU18" s="23">
-        <f>AT18-AQ18</f>
-        <v/>
+      <c r="AU18" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AV18" s="10" t="inlineStr">
         <is>
@@ -7674,9 +7380,8 @@
       <c r="AW18" s="17" t="n">
         <v>10082.379</v>
       </c>
-      <c r="AX18" s="23">
-        <f>AW18-AT18</f>
-        <v/>
+      <c r="AX18" s="23" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="AY18" s="10" t="inlineStr">
         <is>
@@ -7686,9 +7391,8 @@
       <c r="AZ18" s="17" t="n">
         <v>10082.379</v>
       </c>
-      <c r="BA18" s="23">
-        <f>AZ18-AW18</f>
-        <v/>
+      <c r="BA18" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="BB18" s="10" t="inlineStr">
         <is>
@@ -7698,9 +7402,8 @@
       <c r="BC18" s="17" t="n">
         <v>10082.379</v>
       </c>
-      <c r="BD18" s="23">
-        <f>BC18-AZ18</f>
-        <v/>
+      <c r="BD18" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="BE18" s="10" t="inlineStr">
         <is>
@@ -7710,9 +7413,8 @@
       <c r="BF18" s="17" t="n">
         <v>10082.372</v>
       </c>
-      <c r="BG18" s="23">
-        <f>BF18-BC18</f>
-        <v/>
+      <c r="BG18" s="23" t="n">
+        <v>-0.007000000001426088</v>
       </c>
       <c r="BH18" s="10" t="inlineStr">
         <is>
@@ -7722,9 +7424,8 @@
       <c r="BI18" s="17" t="n">
         <v>10082.38</v>
       </c>
-      <c r="BJ18" s="23">
-        <f>BI18-BF18</f>
-        <v/>
+      <c r="BJ18" s="23" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="BK18" s="10" t="inlineStr">
         <is>
@@ -7876,30 +7577,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP18" t="inlineStr">
+      <c r="CO18" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP18" s="72" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ18" t="inlineStr">
+      <c r="CQ18" s="73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR18" s="14" t="n"/>
-      <c r="CS18" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT18" s="17">
-        <f>BI18-E18</f>
-        <v/>
+      <c r="CR18" s="20" t="n"/>
+      <c r="CS18" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT18" s="17" t="n">
+        <v>0.008999999999999999</v>
       </c>
       <c r="CU18" s="14" t="n"/>
       <c r="CV18" s="10" t="inlineStr">
@@ -7907,9 +7607,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW18" s="13">
-        <f>CQ18*12</f>
-        <v/>
+      <c r="CW18" s="13" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
@@ -7938,9 +7637,8 @@
       <c r="G19" s="18" t="n">
         <v>9955.352000000001</v>
       </c>
-      <c r="H19" s="17">
-        <f>G19-E19</f>
-        <v/>
+      <c r="H19" s="17" t="n">
+        <v>0.005000000001018634</v>
       </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
@@ -7950,9 +7648,8 @@
       <c r="J19" s="18" t="n">
         <v>9955.353999999999</v>
       </c>
-      <c r="K19" s="17">
-        <f>J19-G19</f>
-        <v/>
+      <c r="K19" s="17" t="n">
+        <v>0.001999999998588464</v>
       </c>
       <c r="L19" s="10" t="inlineStr">
         <is>
@@ -7962,9 +7659,8 @@
       <c r="M19" s="18" t="n">
         <v>9955.35</v>
       </c>
-      <c r="N19" s="17">
-        <f>M19-J19</f>
-        <v/>
+      <c r="N19" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="O19" s="10" t="inlineStr">
         <is>
@@ -7974,9 +7670,8 @@
       <c r="P19" s="18" t="n">
         <v>9955.352000000001</v>
       </c>
-      <c r="Q19" s="17">
-        <f>P19-M19</f>
-        <v/>
+      <c r="Q19" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="R19" s="10" t="inlineStr">
         <is>
@@ -7986,9 +7681,8 @@
       <c r="S19" s="18" t="n">
         <v>9955.351000000001</v>
       </c>
-      <c r="T19" s="17">
-        <f>S19-P19</f>
-        <v/>
+      <c r="T19" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="U19" s="10" t="inlineStr">
         <is>
@@ -7998,9 +7692,8 @@
       <c r="V19" s="18" t="n">
         <v>9955.351000000001</v>
       </c>
-      <c r="W19" s="17">
-        <f>V19-S19</f>
-        <v/>
+      <c r="W19" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="X19" s="10" t="inlineStr">
         <is>
@@ -8010,9 +7703,8 @@
       <c r="Y19" s="18" t="n">
         <v>9955.349</v>
       </c>
-      <c r="Z19" s="17">
-        <f>Y19-V19</f>
-        <v/>
+      <c r="Z19" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AA19" s="10" t="inlineStr">
         <is>
@@ -8022,9 +7714,8 @@
       <c r="AB19" s="18" t="n">
         <v>9955.352999999999</v>
       </c>
-      <c r="AC19" s="17">
-        <f>AB19-Y19</f>
-        <v/>
+      <c r="AC19" s="17" t="n">
+        <v>0.003999999998995918</v>
       </c>
       <c r="AD19" s="10" t="inlineStr">
         <is>
@@ -8034,9 +7725,8 @@
       <c r="AE19" s="18" t="n">
         <v>9955.347</v>
       </c>
-      <c r="AF19" s="17">
-        <f>AE19-AB19</f>
-        <v/>
+      <c r="AF19" s="17" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="AG19" s="10" t="inlineStr">
         <is>
@@ -8046,9 +7736,8 @@
       <c r="AH19" s="18" t="n">
         <v>9955.353999999999</v>
       </c>
-      <c r="AI19" s="17">
-        <f>AH19-AE19</f>
-        <v/>
+      <c r="AI19" s="17" t="n">
+        <v>0.006999999999607098</v>
       </c>
       <c r="AJ19" s="10" t="inlineStr">
         <is>
@@ -8058,9 +7747,8 @@
       <c r="AK19" s="18" t="n">
         <v>9955.35</v>
       </c>
-      <c r="AL19" s="17">
-        <f>AK19-AH19</f>
-        <v/>
+      <c r="AL19" s="17" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="AM19" s="10" t="inlineStr">
         <is>
@@ -8070,9 +7758,8 @@
       <c r="AN19" s="18" t="n">
         <v>9955.352000000001</v>
       </c>
-      <c r="AO19" s="17">
-        <f>AN19-AK19</f>
-        <v/>
+      <c r="AO19" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="AP19" s="10" t="inlineStr">
         <is>
@@ -8082,9 +7769,8 @@
       <c r="AQ19" s="18" t="n">
         <v>9955.348</v>
       </c>
-      <c r="AR19" s="17">
-        <f>AQ19-AN19</f>
-        <v/>
+      <c r="AR19" s="17" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="AS19" s="10" t="inlineStr">
         <is>
@@ -8094,9 +7780,8 @@
       <c r="AT19" s="18" t="n">
         <v>9955.352000000001</v>
       </c>
-      <c r="AU19" s="17">
-        <f>AT19-AQ19</f>
-        <v/>
+      <c r="AU19" s="17" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="AV19" s="10" t="inlineStr">
         <is>
@@ -8106,9 +7791,8 @@
       <c r="AW19" s="18" t="n">
         <v>9955.351000000001</v>
       </c>
-      <c r="AX19" s="17">
-        <f>AW19-AT19</f>
-        <v/>
+      <c r="AX19" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="AY19" s="10" t="inlineStr">
         <is>
@@ -8118,9 +7802,8 @@
       <c r="AZ19" s="18" t="n">
         <v>9955.349</v>
       </c>
-      <c r="BA19" s="17">
-        <f>AZ19-AW19</f>
-        <v/>
+      <c r="BA19" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="BB19" s="10" t="inlineStr">
         <is>
@@ -8130,9 +7813,8 @@
       <c r="BC19" s="18" t="n">
         <v>9955.349</v>
       </c>
-      <c r="BD19" s="17">
-        <f>BC19-AZ19</f>
-        <v/>
+      <c r="BD19" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BE19" s="10" t="inlineStr">
         <is>
@@ -8142,9 +7824,8 @@
       <c r="BF19" s="18" t="n">
         <v>9955.352000000001</v>
       </c>
-      <c r="BG19" s="17">
-        <f>BF19-BC19</f>
-        <v/>
+      <c r="BG19" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="BH19" s="10" t="inlineStr">
         <is>
@@ -8154,9 +7835,8 @@
       <c r="BI19" s="18" t="n">
         <v>9955.355</v>
       </c>
-      <c r="BJ19" s="17">
-        <f>BI19-BF19</f>
-        <v/>
+      <c r="BJ19" s="17" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="BK19" s="10" t="inlineStr">
         <is>
@@ -8308,30 +7988,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO19" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP19" t="inlineStr">
+      <c r="CO19" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP19" s="76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ19" t="inlineStr">
+      <c r="CQ19" s="77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR19" s="5" t="n"/>
-      <c r="CS19" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT19" s="17">
-        <f>BI19-E19</f>
-        <v/>
+      <c r="CR19" s="20" t="n"/>
+      <c r="CS19" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT19" s="17" t="n">
+        <v>0.008</v>
       </c>
       <c r="CU19" s="5" t="n"/>
       <c r="CV19" s="10" t="inlineStr">
@@ -8339,9 +8018,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW19" s="13">
-        <f>CQ19*12</f>
-        <v/>
+      <c r="CW19" s="13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -8370,9 +8048,8 @@
       <c r="G20" s="21" t="n">
         <v>61.254</v>
       </c>
-      <c r="H20" s="17">
-        <f>G20-E20</f>
-        <v/>
+      <c r="H20" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
@@ -8382,9 +8059,8 @@
       <c r="J20" s="21" t="n">
         <v>61.255</v>
       </c>
-      <c r="K20" s="17">
-        <f>J20-G20</f>
-        <v/>
+      <c r="K20" s="17" t="n">
+        <v>0.001000000000004775</v>
       </c>
       <c r="L20" s="11" t="inlineStr">
         <is>
@@ -8394,9 +8070,8 @@
       <c r="M20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="N20" s="17">
-        <f>M20-J20</f>
-        <v/>
+      <c r="N20" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="O20" s="11" t="inlineStr">
         <is>
@@ -8406,9 +8081,8 @@
       <c r="P20" s="21" t="n">
         <v>61.259</v>
       </c>
-      <c r="Q20" s="17">
-        <f>P20-M20</f>
-        <v/>
+      <c r="Q20" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="R20" s="11" t="inlineStr">
         <is>
@@ -8418,9 +8092,8 @@
       <c r="S20" s="21" t="n">
         <v>61.255</v>
       </c>
-      <c r="T20" s="17">
-        <f>S20-P20</f>
-        <v/>
+      <c r="T20" s="17" t="n">
+        <v>-0.003999999999997783</v>
       </c>
       <c r="U20" s="11" t="inlineStr">
         <is>
@@ -8430,9 +8103,8 @@
       <c r="V20" s="21" t="n">
         <v>61.259</v>
       </c>
-      <c r="W20" s="17">
-        <f>V20-S20</f>
-        <v/>
+      <c r="W20" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="X20" s="11" t="inlineStr">
         <is>
@@ -8442,9 +8114,8 @@
       <c r="Y20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="Z20" s="17">
-        <f>Y20-V20</f>
-        <v/>
+      <c r="Z20" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="AA20" s="11" t="inlineStr">
         <is>
@@ -8454,9 +8125,8 @@
       <c r="AB20" s="21" t="n">
         <v>61.264</v>
       </c>
-      <c r="AC20" s="17">
-        <f>AB20-Y20</f>
-        <v/>
+      <c r="AC20" s="17" t="n">
+        <v>0.008000000000002672</v>
       </c>
       <c r="AD20" s="11" t="inlineStr">
         <is>
@@ -8466,9 +8136,8 @@
       <c r="AE20" s="21" t="n">
         <v>61.265</v>
       </c>
-      <c r="AF20" s="17">
-        <f>AE20-AB20</f>
-        <v/>
+      <c r="AF20" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="AG20" s="11" t="inlineStr">
         <is>
@@ -8478,9 +8147,8 @@
       <c r="AH20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="AI20" s="17">
-        <f>AH20-AE20</f>
-        <v/>
+      <c r="AI20" s="17" t="n">
+        <v>-0.009000000000000341</v>
       </c>
       <c r="AJ20" s="11" t="inlineStr">
         <is>
@@ -8490,9 +8158,8 @@
       <c r="AK20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="AL20" s="17">
-        <f>AK20-AH20</f>
-        <v/>
+      <c r="AL20" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AM20" s="11" t="inlineStr">
         <is>
@@ -8502,9 +8169,8 @@
       <c r="AN20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="AO20" s="17">
-        <f>AN20-AK20</f>
-        <v/>
+      <c r="AO20" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AP20" s="11" t="inlineStr">
         <is>
@@ -8514,9 +8180,8 @@
       <c r="AQ20" s="21" t="n">
         <v>61.258</v>
       </c>
-      <c r="AR20" s="17">
-        <f>AQ20-AN20</f>
-        <v/>
+      <c r="AR20" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="AS20" s="11" t="inlineStr">
         <is>
@@ -8526,9 +8191,8 @@
       <c r="AT20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="AU20" s="17">
-        <f>AT20-AQ20</f>
-        <v/>
+      <c r="AU20" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="AV20" s="11" t="inlineStr">
         <is>
@@ -8538,9 +8202,8 @@
       <c r="AW20" s="21" t="n">
         <v>61.259</v>
       </c>
-      <c r="AX20" s="17">
-        <f>AW20-AT20</f>
-        <v/>
+      <c r="AX20" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="AY20" s="11" t="inlineStr">
         <is>
@@ -8550,9 +8213,8 @@
       <c r="AZ20" s="21" t="n">
         <v>61.26</v>
       </c>
-      <c r="BA20" s="17">
-        <f>AZ20-AW20</f>
-        <v/>
+      <c r="BA20" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="BB20" s="11" t="inlineStr">
         <is>
@@ -8562,9 +8224,8 @@
       <c r="BC20" s="21" t="n">
         <v>61.258</v>
       </c>
-      <c r="BD20" s="17">
-        <f>BC20-AZ20</f>
-        <v/>
+      <c r="BD20" s="17" t="n">
+        <v>-0.001999999999995339</v>
       </c>
       <c r="BE20" s="11" t="inlineStr">
         <is>
@@ -8574,9 +8235,8 @@
       <c r="BF20" s="21" t="n">
         <v>61.257</v>
       </c>
-      <c r="BG20" s="17">
-        <f>BF20-BC20</f>
-        <v/>
+      <c r="BG20" s="17" t="n">
+        <v>-0.001000000000004775</v>
       </c>
       <c r="BH20" s="11" t="inlineStr">
         <is>
@@ -8586,9 +8246,8 @@
       <c r="BI20" s="21" t="n">
         <v>61.256</v>
       </c>
-      <c r="BJ20" s="17">
-        <f>BI20-BF20</f>
-        <v/>
+      <c r="BJ20" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="BK20" s="11" t="inlineStr">
         <is>
@@ -8740,30 +8399,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO20" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP20" t="inlineStr">
+      <c r="CO20" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP20" s="79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ20" t="inlineStr">
+      <c r="CQ20" s="80" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR20" s="5" t="n"/>
-      <c r="CS20" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT20" s="24">
-        <f>BI20-E20</f>
-        <v/>
+      <c r="CR20" s="20" t="n"/>
+      <c r="CS20" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT20" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="CU20" s="5" t="n"/>
       <c r="CV20" s="11" t="inlineStr">
@@ -8771,9 +8429,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW20" s="29">
-        <f>CQ20*12</f>
-        <v/>
+      <c r="CW20" s="29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8804,9 +8461,8 @@
       <c r="G21" s="17" t="n">
         <v>10087.123</v>
       </c>
-      <c r="H21" s="23">
-        <f>G21-E21</f>
-        <v/>
+      <c r="H21" s="23" t="n">
+        <v>0.009000000000014552</v>
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
@@ -8816,9 +8472,8 @@
       <c r="J21" s="17" t="n">
         <v>10087.125</v>
       </c>
-      <c r="K21" s="23">
-        <f>J21-G21</f>
-        <v/>
+      <c r="K21" s="23" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="L21" s="10" t="inlineStr">
         <is>
@@ -8828,9 +8483,8 @@
       <c r="M21" s="17" t="n">
         <v>10087.124</v>
       </c>
-      <c r="N21" s="23">
-        <f>M21-J21</f>
-        <v/>
+      <c r="N21" s="23" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="O21" s="10" t="inlineStr">
         <is>
@@ -8840,9 +8494,8 @@
       <c r="P21" s="17" t="n">
         <v>10087.119</v>
       </c>
-      <c r="Q21" s="23">
-        <f>P21-M21</f>
-        <v/>
+      <c r="Q21" s="23" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="R21" s="10" t="inlineStr">
         <is>
@@ -8852,9 +8505,8 @@
       <c r="S21" s="17" t="n">
         <v>10087.117</v>
       </c>
-      <c r="T21" s="23">
-        <f>S21-P21</f>
-        <v/>
+      <c r="T21" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="U21" s="10" t="inlineStr">
         <is>
@@ -8864,9 +8516,8 @@
       <c r="V21" s="17" t="n">
         <v>10087.126</v>
       </c>
-      <c r="W21" s="23">
-        <f>V21-S21</f>
-        <v/>
+      <c r="W21" s="23" t="n">
+        <v>0.009000000000014552</v>
       </c>
       <c r="X21" s="10" t="inlineStr">
         <is>
@@ -8876,9 +8527,8 @@
       <c r="Y21" s="17" t="n">
         <v>10087.123</v>
       </c>
-      <c r="Z21" s="23">
-        <f>Y21-V21</f>
-        <v/>
+      <c r="Z21" s="23" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="AA21" s="10" t="inlineStr">
         <is>
@@ -8888,9 +8538,8 @@
       <c r="AB21" s="17" t="n">
         <v>10087.121</v>
       </c>
-      <c r="AC21" s="23">
-        <f>AB21-Y21</f>
-        <v/>
+      <c r="AC21" s="23" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="AD21" s="10" t="inlineStr">
         <is>
@@ -8900,9 +8549,8 @@
       <c r="AE21" s="17" t="n">
         <v>10087.121</v>
       </c>
-      <c r="AF21" s="23">
-        <f>AE21-AB21</f>
-        <v/>
+      <c r="AF21" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AG21" s="10" t="inlineStr">
         <is>
@@ -8912,9 +8560,8 @@
       <c r="AH21" s="17" t="n">
         <v>10087.116</v>
       </c>
-      <c r="AI21" s="23">
-        <f>AH21-AE21</f>
-        <v/>
+      <c r="AI21" s="23" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="AJ21" s="10" t="inlineStr">
         <is>
@@ -8924,9 +8571,8 @@
       <c r="AK21" s="17" t="n">
         <v>10087.124</v>
       </c>
-      <c r="AL21" s="23">
-        <f>AK21-AH21</f>
-        <v/>
+      <c r="AL21" s="23" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="AM21" s="10" t="inlineStr">
         <is>
@@ -8936,9 +8582,8 @@
       <c r="AN21" s="17" t="n">
         <v>10087.118</v>
       </c>
-      <c r="AO21" s="23">
-        <f>AN21-AK21</f>
-        <v/>
+      <c r="AO21" s="23" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="AP21" s="10" t="inlineStr">
         <is>
@@ -8948,9 +8593,8 @@
       <c r="AQ21" s="17" t="n">
         <v>10087.121</v>
       </c>
-      <c r="AR21" s="23">
-        <f>AQ21-AN21</f>
-        <v/>
+      <c r="AR21" s="23" t="n">
+        <v>0.002999999998792191</v>
       </c>
       <c r="AS21" s="10" t="inlineStr">
         <is>
@@ -8960,9 +8604,8 @@
       <c r="AT21" s="17" t="n">
         <v>10087.118</v>
       </c>
-      <c r="AU21" s="23">
-        <f>AT21-AQ21</f>
-        <v/>
+      <c r="AU21" s="23" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="AV21" s="10" t="inlineStr">
         <is>
@@ -8972,9 +8615,8 @@
       <c r="AW21" s="17" t="n">
         <v>10087.126</v>
       </c>
-      <c r="AX21" s="23">
-        <f>AW21-AT21</f>
-        <v/>
+      <c r="AX21" s="23" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="AY21" s="10" t="inlineStr">
         <is>
@@ -8984,9 +8626,8 @@
       <c r="AZ21" s="17" t="n">
         <v>10087.122</v>
       </c>
-      <c r="BA21" s="23">
-        <f>AZ21-AW21</f>
-        <v/>
+      <c r="BA21" s="23" t="n">
+        <v>-0.004000000000814907</v>
       </c>
       <c r="BB21" s="10" t="inlineStr">
         <is>
@@ -8996,9 +8637,8 @@
       <c r="BC21" s="17" t="n">
         <v>10087.125</v>
       </c>
-      <c r="BD21" s="23">
-        <f>BC21-AZ21</f>
-        <v/>
+      <c r="BD21" s="23" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="BE21" s="10" t="inlineStr">
         <is>
@@ -9008,9 +8648,8 @@
       <c r="BF21" s="17" t="n">
         <v>10087.117</v>
       </c>
-      <c r="BG21" s="23">
-        <f>BF21-BC21</f>
-        <v/>
+      <c r="BG21" s="23" t="n">
+        <v>-0.007999999999810825</v>
       </c>
       <c r="BH21" s="10" t="inlineStr">
         <is>
@@ -9020,9 +8659,8 @@
       <c r="BI21" s="17" t="n">
         <v>10087.125</v>
       </c>
-      <c r="BJ21" s="23">
-        <f>BI21-BF21</f>
-        <v/>
+      <c r="BJ21" s="23" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="BK21" s="10" t="inlineStr">
         <is>
@@ -9174,30 +8812,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP21" t="inlineStr">
+      <c r="CO21" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP21" s="72" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ21" t="inlineStr">
+      <c r="CQ21" s="73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR21" s="5" t="n"/>
-      <c r="CS21" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT21" s="17">
-        <f>BI21-E21</f>
-        <v/>
+      <c r="CR21" s="20" t="n"/>
+      <c r="CS21" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT21" s="17" t="n">
+        <v>0.011</v>
       </c>
       <c r="CU21" s="5" t="n"/>
       <c r="CV21" s="10" t="inlineStr">
@@ -9205,9 +8842,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW21" s="13">
-        <f>CQ21*12</f>
-        <v/>
+      <c r="CW21" s="13" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="22">
@@ -9236,9 +8872,8 @@
       <c r="G22" s="18" t="n">
         <v>9920.790999999999</v>
       </c>
-      <c r="H22" s="17">
-        <f>G22-E22</f>
-        <v/>
+      <c r="H22" s="17" t="n">
+        <v>0.004999999999199645</v>
       </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
@@ -9248,9 +8883,8 @@
       <c r="J22" s="18" t="n">
         <v>9920.790000000001</v>
       </c>
-      <c r="K22" s="17">
-        <f>J22-G22</f>
-        <v/>
+      <c r="K22" s="17" t="n">
+        <v>-0.0009999999983847374</v>
       </c>
       <c r="L22" s="10" t="inlineStr">
         <is>
@@ -9260,9 +8894,8 @@
       <c r="M22" s="18" t="n">
         <v>9920.791999999999</v>
       </c>
-      <c r="N22" s="17">
-        <f>M22-J22</f>
-        <v/>
+      <c r="N22" s="17" t="n">
+        <v>0.001999999998588464</v>
       </c>
       <c r="O22" s="10" t="inlineStr">
         <is>
@@ -9272,9 +8905,8 @@
       <c r="P22" s="18" t="n">
         <v>9920.795</v>
       </c>
-      <c r="Q22" s="17">
-        <f>P22-M22</f>
-        <v/>
+      <c r="Q22" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="R22" s="10" t="inlineStr">
         <is>
@@ -9284,9 +8916,8 @@
       <c r="S22" s="18" t="n">
         <v>9920.794</v>
       </c>
-      <c r="T22" s="17">
-        <f>S22-P22</f>
-        <v/>
+      <c r="T22" s="17" t="n">
+        <v>-0.001000000000203727</v>
       </c>
       <c r="U22" s="10" t="inlineStr">
         <is>
@@ -9296,9 +8927,8 @@
       <c r="V22" s="18" t="n">
         <v>9920.794</v>
       </c>
-      <c r="W22" s="17">
-        <f>V22-S22</f>
-        <v/>
+      <c r="W22" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="X22" s="10" t="inlineStr">
         <is>
@@ -9308,9 +8938,8 @@
       <c r="Y22" s="18" t="n">
         <v>9920.790999999999</v>
       </c>
-      <c r="Z22" s="17">
-        <f>Y22-V22</f>
-        <v/>
+      <c r="Z22" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="AA22" s="10" t="inlineStr">
         <is>
@@ -9320,9 +8949,8 @@
       <c r="AB22" s="18" t="n">
         <v>9920.795</v>
       </c>
-      <c r="AC22" s="17">
-        <f>AB22-Y22</f>
-        <v/>
+      <c r="AC22" s="17" t="n">
+        <v>0.004000000000814907</v>
       </c>
       <c r="AD22" s="10" t="inlineStr">
         <is>
@@ -9332,9 +8960,8 @@
       <c r="AE22" s="18" t="n">
         <v>9920.787</v>
       </c>
-      <c r="AF22" s="17">
-        <f>AE22-AB22</f>
-        <v/>
+      <c r="AF22" s="17" t="n">
+        <v>-0.007999999999810825</v>
       </c>
       <c r="AG22" s="10" t="inlineStr">
         <is>
@@ -9344,9 +8971,8 @@
       <c r="AH22" s="18" t="n">
         <v>9920.795</v>
       </c>
-      <c r="AI22" s="17">
-        <f>AH22-AE22</f>
-        <v/>
+      <c r="AI22" s="17" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="AJ22" s="10" t="inlineStr">
         <is>
@@ -9356,9 +8982,8 @@
       <c r="AK22" s="18" t="n">
         <v>9920.791999999999</v>
       </c>
-      <c r="AL22" s="17">
-        <f>AK22-AH22</f>
-        <v/>
+      <c r="AL22" s="17" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="AM22" s="10" t="inlineStr">
         <is>
@@ -9368,9 +8993,8 @@
       <c r="AN22" s="18" t="n">
         <v>9920.794</v>
       </c>
-      <c r="AO22" s="17">
-        <f>AN22-AK22</f>
-        <v/>
+      <c r="AO22" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="AP22" s="10" t="inlineStr">
         <is>
@@ -9380,9 +9004,8 @@
       <c r="AQ22" s="18" t="n">
         <v>9920.786</v>
       </c>
-      <c r="AR22" s="17">
-        <f>AQ22-AN22</f>
-        <v/>
+      <c r="AR22" s="17" t="n">
+        <v>-0.007999999999810825</v>
       </c>
       <c r="AS22" s="10" t="inlineStr">
         <is>
@@ -9392,9 +9015,8 @@
       <c r="AT22" s="18" t="n">
         <v>9920.794</v>
       </c>
-      <c r="AU22" s="17">
-        <f>AT22-AQ22</f>
-        <v/>
+      <c r="AU22" s="17" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="AV22" s="10" t="inlineStr">
         <is>
@@ -9404,9 +9026,8 @@
       <c r="AW22" s="18" t="n">
         <v>9920.789000000001</v>
       </c>
-      <c r="AX22" s="17">
-        <f>AW22-AT22</f>
-        <v/>
+      <c r="AX22" s="17" t="n">
+        <v>-0.004999999999199645</v>
       </c>
       <c r="AY22" s="10" t="inlineStr">
         <is>
@@ -9416,9 +9037,8 @@
       <c r="AZ22" s="18" t="n">
         <v>9920.789000000001</v>
       </c>
-      <c r="BA22" s="17">
-        <f>AZ22-AW22</f>
-        <v/>
+      <c r="BA22" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BB22" s="10" t="inlineStr">
         <is>
@@ -9428,9 +9048,8 @@
       <c r="BC22" s="18" t="n">
         <v>9920.787</v>
       </c>
-      <c r="BD22" s="17">
-        <f>BC22-AZ22</f>
-        <v/>
+      <c r="BD22" s="17" t="n">
+        <v>-0.002000000000407454</v>
       </c>
       <c r="BE22" s="10" t="inlineStr">
         <is>
@@ -9440,9 +9059,8 @@
       <c r="BF22" s="18" t="n">
         <v>9920.795</v>
       </c>
-      <c r="BG22" s="17">
-        <f>BF22-BC22</f>
-        <v/>
+      <c r="BG22" s="17" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="BH22" s="10" t="inlineStr">
         <is>
@@ -9452,9 +9070,8 @@
       <c r="BI22" s="18" t="n">
         <v>9920.796</v>
       </c>
-      <c r="BJ22" s="17">
-        <f>BI22-BF22</f>
-        <v/>
+      <c r="BJ22" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="BK22" s="10" t="inlineStr">
         <is>
@@ -9606,30 +9223,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP22" t="inlineStr">
+      <c r="CO22" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP22" s="76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ22" t="inlineStr">
+      <c r="CQ22" s="77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR22" s="5" t="n"/>
-      <c r="CS22" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT22" s="17">
-        <f>BI22-E22</f>
-        <v/>
+      <c r="CR22" s="20" t="n"/>
+      <c r="CS22" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT22" s="17" t="n">
+        <v>0.01</v>
       </c>
       <c r="CU22" s="5" t="n"/>
       <c r="CV22" s="10" t="inlineStr">
@@ -9637,9 +9253,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW22" s="13">
-        <f>CQ22*12</f>
-        <v/>
+      <c r="CW22" s="13" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
@@ -9668,9 +9283,8 @@
       <c r="G23" s="21" t="n">
         <v>61.29</v>
       </c>
-      <c r="H23" s="17">
-        <f>G23-E23</f>
-        <v/>
+      <c r="H23" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="I23" s="11" t="inlineStr">
         <is>
@@ -9680,9 +9294,8 @@
       <c r="J23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="K23" s="17">
-        <f>J23-G23</f>
-        <v/>
+      <c r="K23" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="L23" s="11" t="inlineStr">
         <is>
@@ -9692,9 +9305,8 @@
       <c r="M23" s="21" t="n">
         <v>61.292</v>
       </c>
-      <c r="N23" s="17">
-        <f>M23-J23</f>
-        <v/>
+      <c r="N23" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="O23" s="11" t="inlineStr">
         <is>
@@ -9704,9 +9316,8 @@
       <c r="P23" s="21" t="n">
         <v>61.296</v>
       </c>
-      <c r="Q23" s="17">
-        <f>P23-M23</f>
-        <v/>
+      <c r="Q23" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="R23" s="11" t="inlineStr">
         <is>
@@ -9716,9 +9327,8 @@
       <c r="S23" s="21" t="n">
         <v>61.289</v>
       </c>
-      <c r="T23" s="17">
-        <f>S23-P23</f>
-        <v/>
+      <c r="T23" s="17" t="n">
+        <v>-0.006999999999997897</v>
       </c>
       <c r="U23" s="11" t="inlineStr">
         <is>
@@ -9728,9 +9338,8 @@
       <c r="V23" s="21" t="n">
         <v>61.294</v>
       </c>
-      <c r="W23" s="17">
-        <f>V23-S23</f>
-        <v/>
+      <c r="W23" s="17" t="n">
+        <v>0.004999999999995453</v>
       </c>
       <c r="X23" s="11" t="inlineStr">
         <is>
@@ -9740,9 +9349,8 @@
       <c r="Y23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="Z23" s="17">
-        <f>Y23-V23</f>
-        <v/>
+      <c r="Z23" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="AA23" s="11" t="inlineStr">
         <is>
@@ -9752,9 +9360,8 @@
       <c r="AB23" s="21" t="n">
         <v>61.3</v>
       </c>
-      <c r="AC23" s="17">
-        <f>AB23-Y23</f>
-        <v/>
+      <c r="AC23" s="17" t="n">
+        <v>0.006999999999997897</v>
       </c>
       <c r="AD23" s="11" t="inlineStr">
         <is>
@@ -9764,9 +9371,8 @@
       <c r="AE23" s="21" t="n">
         <v>61.299</v>
       </c>
-      <c r="AF23" s="17">
-        <f>AE23-AB23</f>
-        <v/>
+      <c r="AF23" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="AG23" s="11" t="inlineStr">
         <is>
@@ -9776,9 +9382,8 @@
       <c r="AH23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="AI23" s="17">
-        <f>AH23-AE23</f>
-        <v/>
+      <c r="AI23" s="17" t="n">
+        <v>-0.006000000000000227</v>
       </c>
       <c r="AJ23" s="11" t="inlineStr">
         <is>
@@ -9788,9 +9393,8 @@
       <c r="AK23" s="21" t="n">
         <v>61.296</v>
       </c>
-      <c r="AL23" s="17">
-        <f>AK23-AH23</f>
-        <v/>
+      <c r="AL23" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="AM23" s="11" t="inlineStr">
         <is>
@@ -9800,9 +9404,8 @@
       <c r="AN23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="AO23" s="17">
-        <f>AN23-AK23</f>
-        <v/>
+      <c r="AO23" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="AP23" s="11" t="inlineStr">
         <is>
@@ -9812,9 +9415,8 @@
       <c r="AQ23" s="21" t="n">
         <v>61.296</v>
       </c>
-      <c r="AR23" s="17">
-        <f>AQ23-AN23</f>
-        <v/>
+      <c r="AR23" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="AS23" s="11" t="inlineStr">
         <is>
@@ -9824,9 +9426,8 @@
       <c r="AT23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="AU23" s="17">
-        <f>AT23-AQ23</f>
-        <v/>
+      <c r="AU23" s="17" t="n">
+        <v>-0.003000000000000114</v>
       </c>
       <c r="AV23" s="11" t="inlineStr">
         <is>
@@ -9836,9 +9437,8 @@
       <c r="AW23" s="21" t="n">
         <v>61.296</v>
       </c>
-      <c r="AX23" s="17">
-        <f>AW23-AT23</f>
-        <v/>
+      <c r="AX23" s="17" t="n">
+        <v>0.003000000000000114</v>
       </c>
       <c r="AY23" s="11" t="inlineStr">
         <is>
@@ -9848,9 +9448,8 @@
       <c r="AZ23" s="21" t="n">
         <v>61.3</v>
       </c>
-      <c r="BA23" s="17">
-        <f>AZ23-AW23</f>
-        <v/>
+      <c r="BA23" s="17" t="n">
+        <v>0.003999999999997783</v>
       </c>
       <c r="BB23" s="11" t="inlineStr">
         <is>
@@ -9860,9 +9459,8 @@
       <c r="BC23" s="21" t="n">
         <v>61.295</v>
       </c>
-      <c r="BD23" s="17">
-        <f>BC23-AZ23</f>
-        <v/>
+      <c r="BD23" s="17" t="n">
+        <v>-0.004999999999995453</v>
       </c>
       <c r="BE23" s="11" t="inlineStr">
         <is>
@@ -9872,9 +9470,8 @@
       <c r="BF23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="BG23" s="17">
-        <f>BF23-BC23</f>
-        <v/>
+      <c r="BG23" s="17" t="n">
+        <v>-0.002000000000002444</v>
       </c>
       <c r="BH23" s="11" t="inlineStr">
         <is>
@@ -9884,9 +9481,8 @@
       <c r="BI23" s="21" t="n">
         <v>61.293</v>
       </c>
-      <c r="BJ23" s="17">
-        <f>BI23-BF23</f>
-        <v/>
+      <c r="BJ23" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="BK23" s="11" t="inlineStr">
         <is>
@@ -10038,30 +9634,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="CO23" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP23" t="inlineStr">
+      <c r="CO23" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP23" s="79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CQ23" t="inlineStr">
+      <c r="CQ23" s="80" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="CR23" s="5" t="n"/>
-      <c r="CS23" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT23" s="24">
-        <f>BI23-E23</f>
-        <v/>
+      <c r="CR23" s="20" t="n"/>
+      <c r="CS23" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT23" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="CU23" s="5" t="n"/>
       <c r="CV23" s="11" t="inlineStr">
@@ -10069,9 +9664,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW23" s="29">
-        <f>CQ23*12</f>
-        <v/>
+      <c r="CW23" s="29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -10253,9 +9847,8 @@
       <c r="BR24" s="17" t="n">
         <v>10083.849</v>
       </c>
-      <c r="BS24" s="23">
-        <f>BR24-BO24</f>
-        <v/>
+      <c r="BS24" s="23" t="n">
+        <v>-0.003999999998995918</v>
       </c>
       <c r="BT24" s="10" t="inlineStr">
         <is>
@@ -10265,9 +9858,8 @@
       <c r="BU24" s="17" t="n">
         <v>10083.855</v>
       </c>
-      <c r="BV24" s="23">
-        <f>BU24-BR24</f>
-        <v/>
+      <c r="BV24" s="23" t="n">
+        <v>0.005999999999403371</v>
       </c>
       <c r="BW24" s="10" t="inlineStr">
         <is>
@@ -10277,9 +9869,8 @@
       <c r="BX24" s="17" t="n">
         <v>10083.852</v>
       </c>
-      <c r="BY24" s="23">
-        <f>BX24-BU24</f>
-        <v/>
+      <c r="BY24" s="23" t="n">
+        <v>-0.002999999998792191</v>
       </c>
       <c r="BZ24" s="10" t="inlineStr">
         <is>
@@ -10289,9 +9880,8 @@
       <c r="CA24" s="17" t="n">
         <v>10083.842</v>
       </c>
-      <c r="CB24" s="23">
-        <f>CA24-BX24</f>
-        <v/>
+      <c r="CB24" s="23" t="n">
+        <v>-0.01000000000021828</v>
       </c>
       <c r="CC24" s="10" t="inlineStr">
         <is>
@@ -10301,9 +9891,8 @@
       <c r="CD24" s="17" t="n">
         <v>10083.854</v>
       </c>
-      <c r="CE24" s="23">
-        <f>CD24-CA24</f>
-        <v/>
+      <c r="CE24" s="23" t="n">
+        <v>0.01199999999880674</v>
       </c>
       <c r="CF24" s="10" t="inlineStr">
         <is>
@@ -10313,9 +9902,8 @@
       <c r="CG24" s="17" t="n">
         <v>10083.848</v>
       </c>
-      <c r="CH24" s="23">
-        <f>CG24-CD24</f>
-        <v/>
+      <c r="CH24" s="23" t="n">
+        <v>-0.005999999999403371</v>
       </c>
       <c r="CI24" s="10" t="inlineStr">
         <is>
@@ -10325,9 +9913,8 @@
       <c r="CJ24" s="17" t="n">
         <v>10083.845</v>
       </c>
-      <c r="CK24" s="23">
-        <f>CJ24-CG24</f>
-        <v/>
+      <c r="CK24" s="23" t="n">
+        <v>-0.00300000000061118</v>
       </c>
       <c r="CL24" s="10" t="inlineStr">
         <is>
@@ -10337,30 +9924,28 @@
       <c r="CM24" s="17" t="n">
         <v>10083.849</v>
       </c>
-      <c r="CN24" s="23">
-        <f>CM24-CJ24</f>
-        <v/>
-      </c>
-      <c r="CO24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CP24" t="n">
+      <c r="CN24" s="23" t="n">
+        <v>0.004000000000814907</v>
+      </c>
+      <c r="CO24" s="71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CP24" s="72" t="n">
         <v>10083.841</v>
       </c>
-      <c r="CQ24" t="n">
+      <c r="CQ24" s="73" t="n">
         <v>-0.007999999999810825</v>
       </c>
-      <c r="CR24" s="5" t="n"/>
-      <c r="CS24" s="10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CT24" s="17">
-        <f>CJ24-BO24</f>
-        <v/>
+      <c r="CR24" s="20" t="n"/>
+      <c r="CS24" s="74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CT24" s="17" t="n">
+        <v>-0.004</v>
       </c>
       <c r="CU24" s="5" t="n"/>
       <c r="CV24" s="10" t="inlineStr">
@@ -10368,9 +9953,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="CW24" s="13">
-        <f>CQ24*12</f>
-        <v/>
+      <c r="CW24" s="13" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="25">
@@ -10550,9 +10134,8 @@
       <c r="BR25" s="18" t="n">
         <v>9905.951999999999</v>
       </c>
-      <c r="BS25" s="17">
-        <f>BR25-BO25</f>
-        <v/>
+      <c r="BS25" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="BT25" s="10" t="inlineStr">
         <is>
@@ -10562,9 +10145,8 @@
       <c r="BU25" s="18" t="n">
         <v>9905.953</v>
       </c>
-      <c r="BV25" s="17">
-        <f>BU25-BR25</f>
-        <v/>
+      <c r="BV25" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="BW25" s="10" t="inlineStr">
         <is>
@@ -10574,9 +10156,8 @@
       <c r="BX25" s="18" t="n">
         <v>9905.954</v>
       </c>
-      <c r="BY25" s="17">
-        <f>BX25-BU25</f>
-        <v/>
+      <c r="BY25" s="17" t="n">
+        <v>0.001000000000203727</v>
       </c>
       <c r="BZ25" s="10" t="inlineStr">
         <is>
@@ -10586,9 +10167,8 @@
       <c r="CA25" s="18" t="n">
         <v>9905.957</v>
       </c>
-      <c r="CB25" s="17">
-        <f>CA25-BX25</f>
-        <v/>
+      <c r="CB25" s="17" t="n">
+        <v>0.00300000000061118</v>
       </c>
       <c r="CC25" s="10" t="inlineStr">
         <is>
@@ -10598,9 +10178,8 @@
       <c r="CD25" s="18" t="n">
         <v>9905.946</v>
       </c>
-      <c r="CE25" s="17">
-        <f>CD25-CA25</f>
-        <v/>
+      <c r="CE25" s="17" t="n">
+        <v>-0.01100000000042201</v>
       </c>
       <c r="CF25" s="10" t="inlineStr">
         <is>
@@ -10610,9 +10189,8 @@
       <c r="CG25" s="18" t="n">
         <v>9905.948</v>
       </c>
-      <c r="CH25" s="17">
-        <f>CG25-CD25</f>
-        <v/>
+      <c r="CH25" s="17" t="n">
+        <v>0.002000000000407454</v>
       </c>
       <c r="CI25" s="10" t="inlineStr">
         <is>
@@ -10622,9 +10200,8 @@
       <c r="CJ25" s="18" t="n">
         <v>9905.956</v>
       </c>
-      <c r="CK25" s="17">
-        <f>CJ25-CG25</f>
-        <v/>
+      <c r="CK25" s="17" t="n">
+        <v>0.007999999999810825</v>
       </c>
       <c r="CL25" s="10" t="inlineStr">
         <is>
@@ -10634,30 +10211,28 @@
       <c r="CM25" s="18" t="n">
         <v>9905.945</v>
       </c>
-      <c r="CN25" s="17">
-        <f>CM25-CJ25</f>
-        <v/>
-      </c>
-      <c r="CO25" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CP25" t="n">
+      <c r="CN25" s="17" t="n">
+        <v>-0.01100000000042201</v>
+      </c>
+      <c r="CO25" s="75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CP25" s="76" t="n">
         <v>9905.954</v>
       </c>
-      <c r="CQ25" t="n">
+      <c r="CQ25" s="77" t="n">
         <v>0.009000000000014552</v>
       </c>
-      <c r="CR25" s="5" t="n"/>
-      <c r="CS25" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CT25" s="17">
-        <f>CJ25-BO25</f>
-        <v/>
+      <c r="CR25" s="20" t="n"/>
+      <c r="CS25" s="74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CT25" s="17" t="n">
+        <v>-0.006</v>
       </c>
       <c r="CU25" s="5" t="n"/>
       <c r="CV25" s="10" t="inlineStr">
@@ -10665,9 +10240,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="CW25" s="13">
-        <f>CQ25*12</f>
-        <v/>
+      <c r="CW25" s="13" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -10847,9 +10421,8 @@
       <c r="BR26" s="21" t="n">
         <v>56.945</v>
       </c>
-      <c r="BS26" s="17">
-        <f>BR26-BO26</f>
-        <v/>
+      <c r="BS26" s="17" t="n">
+        <v>-0.003999999999997783</v>
       </c>
       <c r="BT26" s="11" t="inlineStr">
         <is>
@@ -10859,9 +10432,8 @@
       <c r="BU26" s="21" t="n">
         <v>56.947</v>
       </c>
-      <c r="BV26" s="17">
-        <f>BU26-BR26</f>
-        <v/>
+      <c r="BV26" s="17" t="n">
+        <v>0.002000000000002444</v>
       </c>
       <c r="BW26" s="11" t="inlineStr">
         <is>
@@ -10871,9 +10443,8 @@
       <c r="BX26" s="21" t="n">
         <v>56.943</v>
       </c>
-      <c r="BY26" s="17">
-        <f>BX26-BU26</f>
-        <v/>
+      <c r="BY26" s="17" t="n">
+        <v>-0.004000000000004889</v>
       </c>
       <c r="BZ26" s="11" t="inlineStr">
         <is>
@@ -10883,9 +10454,8 @@
       <c r="CA26" s="21" t="n">
         <v>56.948</v>
       </c>
-      <c r="CB26" s="17">
-        <f>CA26-BX26</f>
-        <v/>
+      <c r="CB26" s="17" t="n">
+        <v>0.005000000000002558</v>
       </c>
       <c r="CC26" s="11" t="inlineStr">
         <is>
@@ -10895,9 +10465,8 @@
       <c r="CD26" s="21" t="n">
         <v>56.947</v>
       </c>
-      <c r="CE26" s="17">
-        <f>CD26-CA26</f>
-        <v/>
+      <c r="CE26" s="17" t="n">
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="CF26" s="11" t="inlineStr">
         <is>
@@ -10907,9 +10476,8 @@
       <c r="CG26" s="21" t="n">
         <v>56.948</v>
       </c>
-      <c r="CH26" s="17">
-        <f>CG26-CD26</f>
-        <v/>
+      <c r="CH26" s="17" t="n">
+        <v>0.0009999999999976694</v>
       </c>
       <c r="CI26" s="11" t="inlineStr">
         <is>
@@ -10919,9 +10487,8 @@
       <c r="CJ26" s="21" t="n">
         <v>56.948</v>
       </c>
-      <c r="CK26" s="17">
-        <f>CJ26-CG26</f>
-        <v/>
+      <c r="CK26" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="CL26" s="11" t="inlineStr">
         <is>
@@ -10931,30 +10498,28 @@
       <c r="CM26" s="21" t="n">
         <v>56.948</v>
       </c>
-      <c r="CN26" s="17">
-        <f>CM26-CJ26</f>
-        <v/>
-      </c>
-      <c r="CO26" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CP26" t="n">
+      <c r="CN26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="78" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CP26" s="79" t="n">
         <v>56.939</v>
       </c>
-      <c r="CQ26" t="n">
+      <c r="CQ26" s="80" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="CR26" s="5" t="n"/>
-      <c r="CS26" s="11" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="CT26" s="24">
-        <f>CJ26-BO26</f>
-        <v/>
+      <c r="CR26" s="20" t="n"/>
+      <c r="CS26" s="81" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="CT26" s="24" t="n">
+        <v>-0.001</v>
       </c>
       <c r="CU26" s="5" t="n"/>
       <c r="CV26" s="11" t="inlineStr">
@@ -10962,9 +10527,8 @@
           <t>EL</t>
         </is>
       </c>
-      <c r="CW26" s="29">
-        <f>CQ26*12</f>
-        <v/>
+      <c r="CW26" s="29" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27">
@@ -11186,8 +10750,11 @@
       </c>
       <c r="CM27" s="17" t="n"/>
       <c r="CN27" s="16" t="n"/>
-      <c r="CR27" s="5" t="n"/>
-      <c r="CS27" s="10" t="inlineStr">
+      <c r="CO27" s="71" t="n"/>
+      <c r="CP27" s="72" t="n"/>
+      <c r="CQ27" s="73" t="n"/>
+      <c r="CR27" s="20" t="n"/>
+      <c r="CS27" s="74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -11420,8 +10987,11 @@
       </c>
       <c r="CM28" s="18" t="n"/>
       <c r="CN28" s="13" t="n"/>
-      <c r="CR28" s="5" t="n"/>
-      <c r="CS28" s="10" t="inlineStr">
+      <c r="CO28" s="75" t="n"/>
+      <c r="CP28" s="76" t="n"/>
+      <c r="CQ28" s="77" t="n"/>
+      <c r="CR28" s="20" t="n"/>
+      <c r="CS28" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -11654,8 +11224,11 @@
       </c>
       <c r="CM29" s="21" t="n"/>
       <c r="CN29" s="13" t="n"/>
-      <c r="CR29" s="5" t="n"/>
-      <c r="CS29" s="11" t="inlineStr">
+      <c r="CO29" s="78" t="n"/>
+      <c r="CP29" s="79" t="n"/>
+      <c r="CQ29" s="80" t="n"/>
+      <c r="CR29" s="20" t="n"/>
+      <c r="CS29" s="81" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
@@ -11888,6 +11461,9 @@
       </c>
       <c r="CM30" s="17" t="n"/>
       <c r="CN30" s="23" t="n"/>
+      <c r="CO30" s="64" t="n"/>
+      <c r="CP30" s="82" t="n"/>
+      <c r="CQ30" s="83" t="n"/>
       <c r="CR30" s="5" t="n"/>
       <c r="CS30" s="10" t="inlineStr">
         <is>
@@ -12122,6 +11698,9 @@
       </c>
       <c r="CM31" s="18" t="n"/>
       <c r="CN31" s="17" t="n"/>
+      <c r="CO31" s="84" t="n"/>
+      <c r="CP31" s="85" t="n"/>
+      <c r="CQ31" s="86" t="n"/>
       <c r="CR31" s="5" t="n"/>
       <c r="CS31" s="10" t="inlineStr">
         <is>
@@ -12356,6 +11935,9 @@
       </c>
       <c r="CM32" s="21" t="n"/>
       <c r="CN32" s="17" t="n"/>
+      <c r="CO32" s="68" t="n"/>
+      <c r="CP32" s="87" t="n"/>
+      <c r="CQ32" s="88" t="n"/>
       <c r="CR32" s="5" t="n"/>
       <c r="CS32" s="11" t="inlineStr">
         <is>
@@ -12590,6 +12172,9 @@
       </c>
       <c r="CM33" s="17" t="n"/>
       <c r="CN33" s="16" t="n"/>
+      <c r="CO33" s="64" t="n"/>
+      <c r="CP33" s="82" t="n"/>
+      <c r="CQ33" s="83" t="n"/>
       <c r="CR33" s="5" t="n"/>
       <c r="CS33" s="10" t="inlineStr">
         <is>
@@ -12824,6 +12409,9 @@
       </c>
       <c r="CM34" s="18" t="n"/>
       <c r="CN34" s="13" t="n"/>
+      <c r="CO34" s="84" t="n"/>
+      <c r="CP34" s="85" t="n"/>
+      <c r="CQ34" s="86" t="n"/>
       <c r="CR34" s="5" t="n"/>
       <c r="CS34" s="10" t="inlineStr">
         <is>
@@ -13058,6 +12646,9 @@
       </c>
       <c r="CM35" s="21" t="n"/>
       <c r="CN35" s="13" t="n"/>
+      <c r="CO35" s="68" t="n"/>
+      <c r="CP35" s="87" t="n"/>
+      <c r="CQ35" s="88" t="n"/>
       <c r="CR35" s="5" t="n"/>
       <c r="CS35" s="11" t="inlineStr">
         <is>
@@ -13292,6 +12883,9 @@
       </c>
       <c r="CM36" s="17" t="n"/>
       <c r="CN36" s="23" t="n"/>
+      <c r="CO36" s="64" t="n"/>
+      <c r="CP36" s="82" t="n"/>
+      <c r="CQ36" s="83" t="n"/>
       <c r="CR36" s="5" t="n"/>
       <c r="CS36" s="10" t="inlineStr">
         <is>
@@ -13526,6 +13120,9 @@
       </c>
       <c r="CM37" s="18" t="n"/>
       <c r="CN37" s="17" t="n"/>
+      <c r="CO37" s="84" t="n"/>
+      <c r="CP37" s="85" t="n"/>
+      <c r="CQ37" s="86" t="n"/>
       <c r="CR37" s="5" t="n"/>
       <c r="CS37" s="10" t="inlineStr">
         <is>
@@ -13760,6 +13357,9 @@
       </c>
       <c r="CM38" s="21" t="n"/>
       <c r="CN38" s="17" t="n"/>
+      <c r="CO38" s="68" t="n"/>
+      <c r="CP38" s="87" t="n"/>
+      <c r="CQ38" s="88" t="n"/>
       <c r="CR38" s="5" t="n"/>
       <c r="CS38" s="11" t="inlineStr">
         <is>
@@ -13994,6 +13594,9 @@
       </c>
       <c r="CM39" s="17" t="n"/>
       <c r="CN39" s="16" t="n"/>
+      <c r="CO39" s="64" t="n"/>
+      <c r="CP39" s="82" t="n"/>
+      <c r="CQ39" s="83" t="n"/>
       <c r="CR39" s="5" t="n"/>
       <c r="CS39" s="10" t="inlineStr">
         <is>
@@ -14228,6 +13831,9 @@
       </c>
       <c r="CM40" s="18" t="n"/>
       <c r="CN40" s="13" t="n"/>
+      <c r="CO40" s="84" t="n"/>
+      <c r="CP40" s="85" t="n"/>
+      <c r="CQ40" s="86" t="n"/>
       <c r="CR40" s="5" t="n"/>
       <c r="CS40" s="10" t="inlineStr">
         <is>
@@ -14462,6 +14068,9 @@
       </c>
       <c r="CM41" s="21" t="n"/>
       <c r="CN41" s="22" t="n"/>
+      <c r="CO41" s="68" t="n"/>
+      <c r="CP41" s="87" t="n"/>
+      <c r="CQ41" s="88" t="n"/>
       <c r="CR41" s="5" t="n"/>
       <c r="CS41" s="11" t="inlineStr">
         <is>
@@ -21447,7 +21056,7 @@
       <c r="CN221" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="J1:K1"/>
@@ -21469,6 +21078,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="CJ1:CK1"/>
     <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CV1:CW1"/>
     <mergeCell ref="BU1:BV1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="CM1:CN1"/>
@@ -21476,13 +21086,13 @@
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="CP2:CQ2"/>
     <mergeCell ref="CS1:CT1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="CV2:CW2"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BF1:BG1"/>
   </mergeCells>
@@ -22268,9 +21878,8 @@
       <c r="D50" t="n">
         <v>10165.47</v>
       </c>
-      <c r="E50">
-        <f>D50-C50</f>
-        <v/>
+      <c r="E50" t="n">
+        <v>0.01000000000021828</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -22285,9 +21894,8 @@
       <c r="D51" t="n">
         <v>10075.31</v>
       </c>
-      <c r="E51">
-        <f>D51-C51</f>
-        <v/>
+      <c r="E51" t="n">
+        <v>0.01000000000021828</v>
       </c>
     </row>
     <row r="52">
@@ -22297,9 +21905,8 @@
       <c r="D52" t="n">
         <v>69.36</v>
       </c>
-      <c r="E52">
-        <f>D52-C52</f>
-        <v/>
+      <c r="E52" t="n">
+        <v>-0.01000000000000512</v>
       </c>
     </row>
     <row r="53">
@@ -22312,9 +21919,8 @@
       <c r="D53" t="n">
         <v>10098.19</v>
       </c>
-      <c r="E53">
-        <f>D53-C53</f>
-        <v/>
+      <c r="E53" t="n">
+        <v>0.01000000000021828</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -22329,9 +21935,8 @@
       <c r="D54" t="n">
         <v>10029.63</v>
       </c>
-      <c r="E54">
-        <f>D54-C54</f>
-        <v/>
+      <c r="E54" t="n">
+        <v>0.009999999998399289</v>
       </c>
     </row>
     <row r="55">
@@ -22341,9 +21946,8 @@
       <c r="D55" t="n">
         <v>61.21</v>
       </c>
-      <c r="E55">
-        <f>D55-C55</f>
-        <v/>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -22356,9 +21960,8 @@
       <c r="D56" t="n">
         <v>10032.94</v>
       </c>
-      <c r="E56">
-        <f>D56-C56</f>
-        <v/>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -22373,9 +21976,8 @@
       <c r="D57" t="n">
         <v>9985.49</v>
       </c>
-      <c r="E57">
-        <f>D57-C57</f>
-        <v/>
+      <c r="E57" t="n">
+        <v>0.01000000000021828</v>
       </c>
     </row>
     <row r="58">
@@ -22385,9 +21987,8 @@
       <c r="D58" t="n">
         <v>53.19</v>
       </c>
-      <c r="E58">
-        <f>D58-C58</f>
-        <v/>
+      <c r="E58" t="n">
+        <v>-0.01000000000000512</v>
       </c>
     </row>
     <row r="59">
@@ -22396,9 +21997,8 @@
           <t>TR 202</t>
         </is>
       </c>
-      <c r="E59">
-        <f>D59-C59</f>
-        <v/>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -22407,15 +22007,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="E60">
-        <f>D60-C60</f>
-        <v/>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61">
-        <f>D61-C61</f>
-        <v/>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
